--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Energy limit =</t>
   </si>
@@ -86,6 +86,9 @@
     <t>What is E1? Do we really need the momentum curve for E1 or E2?</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Send curves</t>
   </si>
   <si>
@@ -131,15 +134,6 @@
     <t>t'_2</t>
   </si>
   <si>
-    <t>t'</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Here</t>
-  </si>
-  <si>
     <t>(in seconds if the units were right)</t>
   </si>
   <si>
@@ -152,22 +146,69 @@
     <t>Line about momentum &lt;-- what is it saying? Is it for E1 or E2?</t>
   </si>
   <si>
-    <t>What is H? It seems to vary in the paragraphs.</t>
-  </si>
-  <si>
-    <t>&lt;-- off by 100 at least</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>|</t>
   </si>
   <si>
-    <t>The units for this is really bother me</t>
-  </si>
-  <si>
     <t>What is it?</t>
+  </si>
+  <si>
+    <t>The units for this constant in the time dilation integral just outside the is really bother me</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Other Equations</t>
+  </si>
+  <si>
+    <t>Main Equations</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>What is H? It seems to vary in the paragraphs.  Its it deterivative of h, the travel time, or the difference in elevation?</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R = stopping rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> off by 100 at least so added correction</t>
+  </si>
+  <si>
+    <t>Here vs. Dallas</t>
+  </si>
+  <si>
+    <t>t' here</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">t' (in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>τ)</t>
+    </r>
+  </si>
+  <si>
+    <t>t' (in s)</t>
+  </si>
+  <si>
+    <t>here vs. h = guess</t>
+  </si>
+  <si>
+    <t>\begin{matrix}\partial \gamma mc^2 = \partial h \rho C_0 \therefore \gamma = \rho C_0/mc^2(h) \therefore \gamma_1 =?= \rho C_0/mc^2*H\\ 160eV/(105.658Me/c^2)*c^2=1.5 = \gamma_2 \neq C_0 \Delta s / mc^2 = 2 MeV/g/cm^2*10g/cm^2 /mc^2 \\ \therefore H = dh =?= 15 - h \text{ h and H is different in different paragraph sections}\\  E_1 = E_2 + \Delta E = E_2 + (H*\rho C_0) \\ \gamma_1 = E_1/mc^2 \therefore \gamma_1= (E_2 + (H*\rho C_0))/mc^2 \\ t' = A/\rho(ln(2\sqrt{(\gamma^2 -1)}+ \gamma))\\  t' = A/\rho(t'_2 - ln(2\sqrt{(\gamma_1^2 -1)}+ \gamma_1))\\  A = mc/C_0 \\  \end{matrix}</t>
   </si>
 </sst>
 </file>
@@ -177,10 +218,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.0E+00"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +242,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,14 +267,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,9 +376,44 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -266,16 +429,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -293,7 +456,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8905875" y="2990850"/>
+          <a:off x="1847850" y="428625"/>
           <a:ext cx="4362450" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -306,16 +469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -333,7 +496,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9963150" y="3314700"/>
+          <a:off x="3552825" y="800100"/>
           <a:ext cx="942975" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -346,16 +509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -373,7 +536,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9420225" y="2019300"/>
+          <a:off x="10096500" y="2324100"/>
           <a:ext cx="2600325" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -386,16 +549,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -413,7 +576,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8601075" y="3476625"/>
+          <a:off x="10172700" y="3438525"/>
           <a:ext cx="3171825" cy="1781175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -426,16 +589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -453,7 +616,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8505825" y="5410200"/>
+          <a:off x="9239250" y="5400675"/>
           <a:ext cx="6448425" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -752,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="H18" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -773,272 +936,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="P2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="38"/>
+    </row>
     <row r="3" spans="1:22">
-      <c r="P3" t="s">
+      <c r="P3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="19">
         <v>1030</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>160</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="T3" s="19"/>
+      <c r="U3" s="19">
+        <v>160</v>
+      </c>
+      <c r="V3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="19">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="R4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="U4">
+      <c r="T4" s="19"/>
+      <c r="U4" s="19">
         <v>1.032</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="P5" t="s">
+      <c r="P5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="19">
         <f>8.4*10^3</f>
         <v>8400</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="U5">
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
         <v>2.4</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" t="s">
+      <c r="P6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S6" t="s">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U6">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
         <v>1.9219999999999999</v>
       </c>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="E7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7">
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="P7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="19">
         <f>105.658</f>
         <v>105.658</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="U7">
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <v>7.85</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="P8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="19">
         <f>Q7/(Q4)</f>
         <v>52.829000000000001</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="2">
+      <c r="T8" s="19"/>
+      <c r="U8" s="24">
         <v>2.1969999999999999E-6</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="E9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="26">
+        <f xml:space="preserve"> 160</f>
+        <v>160</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="27"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="14" t="s">
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q9">
-        <f xml:space="preserve"> 160</f>
-        <v>160</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="F10" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="6"/>
+      <c r="L10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <f>320+A11</f>
         <v>320</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="28">
         <f>$Q$3/($Q$5*100)*EXP(A11/($Q$5))</f>
         <v>1.2261904761904762E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <f>15*10^5-B11*100</f>
         <v>1468000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="29">
         <f>C11/($Q$8/(2.98*10^8))</f>
         <v>6916.7457628340853</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="30">
         <f>C11*D11*$Q$4</f>
         <v>3600.0952380952381</v>
       </c>
-      <c r="G11" s="15">
-        <v>160</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="31">
+        <v>160</v>
+      </c>
+      <c r="H11" s="30">
         <f>G11+F11</f>
         <v>3760.0952380952381</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <f>H11/$Q$7</f>
         <v>35.587416363126671</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="28">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I11^2-1)+I11)</f>
         <v>6.6674030815550239E-4</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="28">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L11" s="10">
-        <f>J11-K11</f>
-        <v>4.7857713421488811E-4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="10"/>
+      <c r="L11" s="28">
+        <f>(J11-K11)*0.01</f>
+        <v>4.7857713421488809E-6</v>
+      </c>
+      <c r="M11" s="32">
+        <f>1.5*EXP(-L11/$U$8)</f>
+        <v>0.16984722206201841</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12">
@@ -1048,7 +1246,7 @@
         <f t="shared" ref="B12:B29" si="0">320+A12</f>
         <v>370</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <f t="shared" ref="C12:C16" si="1">$Q$3/($Q$5*100)*EXP(A12/($Q$5))</f>
         <v>1.233510994667987E-3</v>
       </c>
@@ -1056,7 +1254,7 @@
         <f t="shared" ref="D12:D57" si="2">15*10^5-B12*100</f>
         <v>1463000</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" ref="E12:E16" si="3">C12/($Q$8/(2.98*10^8))</f>
         <v>6958.0396451013676</v>
       </c>
@@ -1075,20 +1273,27 @@
         <f t="shared" ref="I12:I29" si="6">H12/$Q$7</f>
         <v>35.674091601189971</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f t="shared" ref="J12:J29" si="7">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I12^2-1)+I12)</f>
         <v>6.6708776950530563E-4</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <f t="shared" ref="K12:K29" si="8">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" ref="L12:L16" si="9">J12-K12</f>
-        <v>4.7892459556469135E-4</v>
-      </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:L20" si="9">(J12-K12)*0.01</f>
+        <v>4.7892459556469136E-6</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" ref="M12:M20" si="10">1.5*EXP(-L12/$U$8)</f>
+        <v>0.16957881649776255</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="P12" s="17"/>
+      <c r="R12" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13">
@@ -1098,7 +1303,7 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f t="shared" si="1"/>
         <v>1.2408752176039978E-3</v>
       </c>
@@ -1106,7 +1311,7 @@
         <f t="shared" si="2"/>
         <v>1458000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <f t="shared" si="3"/>
         <v>6999.5800572789822</v>
       </c>
@@ -1125,20 +1330,23 @@
         <f t="shared" si="6"/>
         <v>35.760587315047204</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="7"/>
         <v>6.6743366973517524E-4</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="9"/>
-        <v>4.7927049579456096E-4</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+        <v>4.7927049579456098E-6</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="10"/>
+        <v>0.1693120381629569</v>
+      </c>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14">
@@ -1148,7 +1356,7 @@
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <f t="shared" si="1"/>
         <v>1.2482834059198758E-3</v>
       </c>
@@ -1156,7 +1364,7 @@
         <f t="shared" si="2"/>
         <v>1453000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" si="3"/>
         <v>7041.3684711829301</v>
       </c>
@@ -1175,20 +1383,23 @@
         <f t="shared" si="6"/>
         <v>35.846898271812442</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="7"/>
         <v>6.677779972832918E-4</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <f t="shared" si="9"/>
-        <v>4.7961482334267752E-4</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+        <v>4.7961482334267755E-6</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16904688960552883</v>
+      </c>
+      <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15">
@@ -1198,7 +1409,7 @@
         <f t="shared" si="0"/>
         <v>520</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" si="1"/>
         <v>1.2557358220947239E-3</v>
       </c>
@@ -1206,7 +1417,7 @@
         <f t="shared" si="2"/>
         <v>1448000</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <f t="shared" si="3"/>
         <v>7083.4063674161489</v>
       </c>
@@ -1225,20 +1436,23 @@
         <f t="shared" si="6"/>
         <v>35.933019182516425</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="7"/>
         <v>6.6812074047449316E-4</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="9"/>
-        <v>4.7995756653387888E-4</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+        <v>4.7995756653387885E-6</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16878337344949712</v>
+      </c>
+      <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16">
@@ -1248,7 +1462,7 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <f t="shared" si="1"/>
         <v>1.2632327301746789E-3</v>
       </c>
@@ -1256,7 +1470,7 @@
         <f t="shared" si="2"/>
         <v>1443000</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="3"/>
         <v>7125.6952354209679</v>
       </c>
@@ -1275,20 +1489,23 @@
         <f t="shared" si="6"/>
         <v>36.018944701623383</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f t="shared" si="7"/>
         <v>6.6846188751869099E-4</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" si="9"/>
-        <v>4.8029871357807672E-4</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+        <v>4.8029871357807671E-6</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16852149239611566</v>
+      </c>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
@@ -1298,7 +1515,7 @@
         <f>320+A17</f>
         <v>620</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A17/($Q$5))</f>
         <v>1.2707743957822693E-3</v>
       </c>
@@ -1306,7 +1523,7 @@
         <f t="shared" si="2"/>
         <v>1438000</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <f>C17/($Q$8/(2.98*10^8))</f>
         <v>7168.2365735318908</v>
       </c>
@@ -1325,20 +1542,23 @@
         <f>H17/$Q$7</f>
         <v>36.104669426544191</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I17^2-1)+I17)</f>
         <v>6.6880142650925902E-4</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L17" s="10">
-        <f>J17-K17</f>
-        <v>4.8063825256864474E-4</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="L17" s="9">
+        <f t="shared" si="9"/>
+        <v>4.8063825256864477E-6</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16826124922504032</v>
+      </c>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
@@ -1348,47 +1568,50 @@
         <f t="shared" si="0"/>
         <v>670</v>
       </c>
-      <c r="C18" s="10">
-        <f t="shared" ref="C18:C21" si="10">$Q$3/($Q$5*100)*EXP(A18/($Q$5))</f>
+      <c r="C18" s="9">
+        <f t="shared" ref="C18:C21" si="11">$Q$3/($Q$5*100)*EXP(A18/($Q$5))</f>
         <v>1.2783610861258228E-3</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
         <v>1433000</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" ref="E18:E21" si="11">C18/($Q$8/(2.98*10^8))</f>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:E21" si="12">C18/($Q$8/(2.98*10^8))</f>
         <v>7211.0318890286626</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" ref="F18:F21" si="12">C18*D18*$Q$4</f>
+        <f t="shared" ref="F18:F21" si="13">C18*D18*$Q$4</f>
         <v>3663.782872836608</v>
       </c>
       <c r="G18" s="15">
         <v>160</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" ref="H18:H21" si="13">G18+F18</f>
+        <f t="shared" ref="H18:H21" si="14">G18+F18</f>
         <v>3823.782872836608</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
         <v>36.190187897145584</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="7"/>
         <v>6.6913934542139344E-4</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" ref="L18:L21" si="14">J18-K18</f>
-        <v>4.8097617148077916E-4</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="9">
+        <f t="shared" si="9"/>
+        <v>4.8097617148077915E-6</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16800264679551846</v>
+      </c>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
@@ -1398,47 +1621,50 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C19" s="10">
-        <f t="shared" si="10"/>
+      <c r="C19" s="9">
+        <f t="shared" si="11"/>
         <v>1.2859930700089377E-3</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
         <v>1428000</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="11"/>
+      <c r="E19" s="10">
+        <f t="shared" si="12"/>
         <v>7254.0826981896962</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3672.796207945526</v>
       </c>
       <c r="G19" s="15">
         <v>160</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3832.796207945526</v>
       </c>
       <c r="I19">
         <f t="shared" si="6"/>
         <v>36.275494595255694</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="7"/>
         <v>6.6947563211044547E-4</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="14"/>
-        <v>4.8131245816983119E-4</v>
-      </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="9">
+        <f t="shared" si="9"/>
+        <v>4.8131245816983124E-6</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16774568804760179</v>
+      </c>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
@@ -1448,47 +1674,50 @@
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="C20" s="10">
-        <f t="shared" si="10"/>
+      <c r="C20" s="9">
+        <f t="shared" si="11"/>
         <v>1.2936706178400049E-3</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
         <v>1423000</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="11"/>
+      <c r="E20" s="10">
+        <f t="shared" si="12"/>
         <v>7297.3905263457846</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3681.7865783726538</v>
       </c>
       <c r="G20" s="15">
         <v>160</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3841.7865783726538</v>
       </c>
       <c r="I20">
         <f t="shared" si="6"/>
         <v>36.360583944165647</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f t="shared" si="7"/>
         <v>6.6981027431022543E-4</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="14"/>
-        <v>4.8164710036961115E-4</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="L20" s="9">
+        <f t="shared" si="9"/>
+        <v>4.8164710036961115E-6</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="10"/>
+        <v>0.16749037600338246</v>
+      </c>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
@@ -1498,49 +1727,48 @@
         <f t="shared" si="0"/>
         <v>820</v>
       </c>
-      <c r="C21" s="10">
-        <f t="shared" si="10"/>
+      <c r="C21" s="9">
+        <f t="shared" si="11"/>
         <v>1.3013940016417883E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
         <v>1418000</v>
       </c>
-      <c r="E21" s="11">
-        <f t="shared" si="11"/>
+      <c r="E21" s="10">
+        <f t="shared" si="12"/>
         <v>7340.9569079341445</v>
       </c>
       <c r="F21" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3690.7533886561114</v>
       </c>
       <c r="G21" s="15">
         <v>160</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3850.7533886561114</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
         <v>36.44545030812727</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f t="shared" si="7"/>
         <v>6.7014325963127611E-4</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L21" s="10">
-        <f t="shared" si="14"/>
-        <v>4.8198008569066183E-4</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="L21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="9"/>
       <c r="W21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1551,7 +1779,7 @@
         <f>320+A22</f>
         <v>870</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A22/($Q$5))</f>
         <v>1.3091634950610639E-3</v>
       </c>
@@ -1559,7 +1787,7 @@
         <f t="shared" si="2"/>
         <v>1413000</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f>C22/($Q$8/(2.98*10^8))</f>
         <v>7384.7833865527846</v>
       </c>
@@ -1578,20 +1806,21 @@
         <f>H22/$Q$7</f>
         <v>36.530087991846962</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I22^2-1)+I22)</f>
         <v>6.7047457555911708E-4</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L22" s="10">
-        <f>J22-K22</f>
-        <v>4.823114016185028E-4</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="L22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
@@ -1601,7 +1830,7 @@
         <f t="shared" si="0"/>
         <v>920</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <f t="shared" ref="C23:C24" si="15">$Q$3/($Q$5*100)*EXP(A23/($Q$5))</f>
         <v>1.3169793733783151E-3</v>
       </c>
@@ -1609,7 +1838,7 @@
         <f t="shared" si="2"/>
         <v>1408000</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" ref="E23:E24" si="16">C23/($Q$8/(2.98*10^8))</f>
         <v>7428.8715150151984</v>
       </c>
@@ -1628,20 +1857,23 @@
         <f t="shared" si="6"/>
         <v>36.614491239975536</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <f t="shared" si="7"/>
         <v>6.7080420945245776E-4</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L23" s="10">
-        <f t="shared" ref="L23:L24" si="19">J23-K23</f>
-        <v>4.8264103551184348E-4</v>
-      </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="L23" s="32">
+        <f t="shared" ref="L23:L30" si="19">(J23-$J$11)/($U$8)</f>
+        <v>1.8497502489555615</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" ref="M23:M30" si="20">1.5*EXP(-L23)</f>
+        <v>0.23591466204664097</v>
+      </c>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24">
@@ -1651,7 +1883,7 @@
         <f t="shared" si="0"/>
         <v>970</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <f t="shared" si="15"/>
         <v>1.3248419135174858E-3</v>
       </c>
@@ -1659,7 +1891,7 @@
         <f t="shared" si="2"/>
         <v>1403000</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f t="shared" si="16"/>
         <v>7473.2228554053791</v>
       </c>
@@ -1678,20 +1910,23 @@
         <f t="shared" si="6"/>
         <v>36.698654236594152</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <f t="shared" si="7"/>
         <v>6.7113214854137924E-4</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="32">
         <f t="shared" si="19"/>
-        <v>4.8296897460076496E-4</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+        <v>1.999017016785092</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="20"/>
+        <v>0.20320257143116952</v>
+      </c>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25">
@@ -1701,7 +1936,7 @@
         <f>320+A25</f>
         <v>1020</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A25/($Q$5))</f>
         <v>1.3327513940557926E-3</v>
       </c>
@@ -1709,7 +1944,7 @@
         <f t="shared" si="2"/>
         <v>1398000</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <f>C25/($Q$8/(2.98*10^8))</f>
         <v>7517.8389791331692</v>
       </c>
@@ -1728,20 +1963,23 @@
         <f>H25/$Q$7</f>
         <v>36.782571104696245</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I25^2-1)+I25)</f>
         <v>6.7145837992548365E-4</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L25" s="10">
-        <f>J25-K25</f>
-        <v>4.8329520598486937E-4</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="L25" s="32">
+        <f t="shared" si="19"/>
+        <v>2.1475064952122223</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="20"/>
+        <v>0.17516246100563393</v>
+      </c>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26">
@@ -1751,247 +1989,262 @@
         <f t="shared" si="0"/>
         <v>1070</v>
       </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:C29" si="20">$Q$3/($Q$5*100)*EXP(A26/($Q$5))</f>
+      <c r="C26" s="9">
+        <f t="shared" ref="C26:C29" si="21">$Q$3/($Q$5*100)*EXP(A26/($Q$5))</f>
         <v>1.3407080952335941E-3</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
         <v>1393000</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" ref="E26:E29" si="21">C26/($Q$8/(2.98*10^8))</f>
+      <c r="E26" s="10">
+        <f t="shared" ref="E26:E29" si="22">C26/($Q$8/(2.98*10^8))</f>
         <v>7562.7214669899313</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" ref="F26:F29" si="22">C26*D26*$Q$4</f>
+        <f t="shared" ref="F26:F29" si="23">C26*D26*$Q$4</f>
         <v>3735.2127533207931</v>
       </c>
       <c r="G26" s="15">
         <v>160</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" ref="H26:H29" si="23">G26+F26</f>
+        <f t="shared" ref="H26:H29" si="24">G26+F26</f>
         <v>3895.2127533207931</v>
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
         <v>36.866235905665384</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f t="shared" si="7"/>
         <v>6.7178289057201132E-4</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L26" s="10">
-        <f t="shared" ref="L26:L29" si="24">J26-K26</f>
-        <v>4.8361971663139704E-4</v>
-      </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="L26" s="32">
+        <f t="shared" si="19"/>
+        <v>2.2952127521661017</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="20"/>
+        <v>0.15110993751580593</v>
+      </c>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27">
+      <c r="A27" s="8">
         <v>800</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
-      <c r="C27" s="10">
-        <f t="shared" si="20"/>
+      <c r="C27" s="28">
+        <f t="shared" si="21"/>
         <v>1.3487122989643211E-3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <f t="shared" si="2"/>
         <v>1388000</v>
       </c>
-      <c r="E27" s="11">
-        <f t="shared" si="21"/>
+      <c r="E27" s="29">
+        <f t="shared" si="22"/>
         <v>7607.8719092045603</v>
       </c>
-      <c r="F27" s="16">
-        <f t="shared" si="22"/>
+      <c r="F27" s="30">
+        <f t="shared" si="23"/>
         <v>3744.0253419249557</v>
       </c>
-      <c r="G27" s="15">
-        <v>160</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="23"/>
+      <c r="G27" s="31">
+        <v>160</v>
+      </c>
+      <c r="H27" s="30">
+        <f t="shared" si="24"/>
         <v>3904.0253419249557</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="8">
         <f t="shared" si="6"/>
         <v>36.949642638749133</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="28">
         <f t="shared" si="7"/>
         <v>6.7210566731392438E-4</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="28">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L27" s="10">
-        <f t="shared" si="24"/>
-        <v>4.839424933733101E-4</v>
-      </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="L27" s="32">
+        <f t="shared" si="19"/>
+        <v>2.4421297944569798</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" si="20"/>
+        <v>0.13046312145792266</v>
+      </c>
+      <c r="N27" s="9"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>850</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="C28" s="10">
-        <f t="shared" si="20"/>
+      <c r="C28" s="28">
+        <f t="shared" si="21"/>
         <v>1.3567642888444649E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>1383000</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="21"/>
+      <c r="E28" s="29">
+        <f t="shared" si="22"/>
         <v>7653.291905499831</v>
       </c>
-      <c r="F28" s="16">
-        <f t="shared" si="22"/>
+      <c r="F28" s="30">
+        <f t="shared" si="23"/>
         <v>3752.81002294379</v>
       </c>
-      <c r="G28" s="15">
-        <v>160</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="23"/>
+      <c r="G28" s="31">
+        <v>160</v>
+      </c>
+      <c r="H28" s="30">
+        <f t="shared" si="24"/>
         <v>3912.81002294379</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="8">
         <f t="shared" si="6"/>
         <v>37.032785240528781</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="28">
         <f t="shared" si="7"/>
         <v>6.7242669684795581E-4</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="28">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L28" s="10">
-        <f t="shared" si="24"/>
-        <v>4.8426352290734153E-4</v>
-      </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="L28" s="32">
+        <f t="shared" si="19"/>
+        <v>2.5882515668882173</v>
+      </c>
+      <c r="M28" s="32">
+        <f t="shared" si="20"/>
+        <v>0.1127269835147075</v>
+      </c>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29">
+      <c r="A29" s="8">
         <v>900</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <f t="shared" si="0"/>
         <v>1220</v>
       </c>
-      <c r="C29" s="10">
-        <f t="shared" si="20"/>
+      <c r="C29" s="28">
+        <f t="shared" si="21"/>
         <v>1.3648643501636248E-3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <f t="shared" si="2"/>
         <v>1378000</v>
       </c>
-      <c r="E29" s="11">
-        <f t="shared" si="21"/>
+      <c r="E29" s="29">
+        <f t="shared" si="22"/>
         <v>7698.9830651490693</v>
       </c>
-      <c r="F29" s="16">
-        <f t="shared" si="22"/>
+      <c r="F29" s="30">
+        <f t="shared" si="23"/>
         <v>3761.5661490509501</v>
       </c>
-      <c r="G29" s="15">
-        <v>160</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="23"/>
+      <c r="G29" s="31">
+        <v>160</v>
+      </c>
+      <c r="H29" s="30">
+        <f t="shared" si="24"/>
         <v>3921.5661490509501</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="8">
         <f t="shared" si="6"/>
         <v>37.115657584384998</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="28">
         <f t="shared" si="7"/>
         <v>6.7274596573262341E-4</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="28">
         <f t="shared" si="8"/>
         <v>1.8816317394061425E-4</v>
       </c>
-      <c r="L29" s="10">
-        <f t="shared" si="24"/>
-        <v>4.8458279179200913E-4</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="L29" s="32">
+        <f t="shared" si="19"/>
+        <v>2.7335719513523067</v>
+      </c>
+      <c r="M29" s="32">
+        <f t="shared" si="20"/>
+        <v>9.7480117656577825E-2</v>
+      </c>
+      <c r="N29" s="9"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30">
         <v>950</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B13:B57" si="25">320+A30</f>
+        <f t="shared" ref="B30:B71" si="25">320+A30</f>
         <v>1270</v>
       </c>
-      <c r="C30" s="10">
-        <f t="shared" ref="C29:C35" si="26">$Q$3/($Q$5*100)*EXP(A30/($Q$5))</f>
+      <c r="C30" s="9">
+        <f t="shared" ref="C30:C35" si="26">$Q$3/($Q$5*100)*EXP(A30/($Q$5))</f>
         <v>1.3730127699146167E-3</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
         <v>1373000</v>
       </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E13:E57" si="27">C30/($Q$8/(2.98*10^8))</f>
+      <c r="E30" s="10">
+        <f t="shared" ref="E30:E57" si="27">C30/($Q$8/(2.98*10^8))</f>
         <v>7744.9470070331781</v>
       </c>
       <c r="F30" s="16">
-        <f t="shared" ref="F29:F35" si="28">C30*D30*$Q$4</f>
+        <f t="shared" ref="F30:F35" si="28">C30*D30*$Q$4</f>
         <v>3770.2930661855376</v>
       </c>
       <c r="G30" s="15">
         <v>160</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" ref="H29:H35" si="29">G30+F30</f>
+        <f t="shared" ref="H30:H35" si="29">G30+F30</f>
         <v>3930.2930661855376</v>
       </c>
       <c r="I30">
-        <f>H30/$Q$7</f>
+        <f t="shared" ref="I30:I57" si="30">H30/$Q$7</f>
         <v>37.198253479959277</v>
       </c>
-      <c r="J30" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I30^2-1)+I30)</f>
+      <c r="J30" s="9">
+        <f t="shared" ref="J30:J57" si="31">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I30^2-1)+I30)</f>
         <v>6.7306346038620941E-4</v>
       </c>
-      <c r="K30" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" ref="L29:L35" si="30">J30-K30</f>
-        <v>4.8490028644559513E-4</v>
-      </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="K30" s="9">
+        <f t="shared" ref="K30:K57" si="32">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L30" s="34">
+        <f t="shared" si="19"/>
+        <v>2.8780847659112507</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="20"/>
+        <v>8.4363565598707196E-2</v>
+      </c>
+      <c r="N30" s="9"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31">
@@ -2001,7 +2254,7 @@
         <f t="shared" si="25"/>
         <v>1320</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <f t="shared" si="26"/>
         <v>1.3812098368036411E-3</v>
       </c>
@@ -2009,7 +2262,7 @@
         <f t="shared" si="2"/>
         <v>1368000</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f t="shared" si="27"/>
         <v>7791.185359697989</v>
       </c>
@@ -2025,23 +2278,26 @@
         <v>3938.9901134947622</v>
       </c>
       <c r="I31">
-        <f>H31/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.280566672611279</v>
       </c>
-      <c r="J31" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I31^2-1)+I31)</f>
+      <c r="J31" s="9">
+        <f t="shared" si="31"/>
         <v>6.7337916708470143E-4</v>
       </c>
-      <c r="K31" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L31" s="10">
-        <f t="shared" si="30"/>
-        <v>4.8521599314408715E-4</v>
-      </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="K31" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L31" s="34">
+        <f>(J31-$J$11)/($U$8)</f>
+        <v>3.0217837638593688</v>
+      </c>
+      <c r="M31" s="14">
+        <f>1.5*EXP(-L31)</f>
+        <v>7.3071369156677002E-2</v>
+      </c>
+      <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32">
@@ -2051,7 +2307,7 @@
         <f t="shared" si="25"/>
         <v>1370</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <f t="shared" si="26"/>
         <v>1.3894558412605132E-3</v>
       </c>
@@ -2059,7 +2315,7 @@
         <f t="shared" si="2"/>
         <v>1363000</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <f t="shared" si="27"/>
         <v>7837.69976141197</v>
       </c>
@@ -2075,25 +2331,28 @@
         <v>3947.6566232761593</v>
       </c>
       <c r="I32">
-        <f>H32/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.362590842871903</v>
       </c>
-      <c r="J32" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I32^2-1)+I32)</f>
+      <c r="J32" s="9">
+        <f t="shared" si="31"/>
         <v>6.7369307195969867E-4</v>
       </c>
-      <c r="K32" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L32" s="10">
-        <f t="shared" si="30"/>
-        <v>4.8552989801908439E-4</v>
-      </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="K32" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L32" s="34">
+        <f t="shared" ref="L32:L71" si="33">(J32-$J$11)/($U$8)</f>
+        <v>3.1646626327702685</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" ref="M32:M59" si="34">1.5*EXP(-L32)</f>
+        <v>6.3342578827188023E-2</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1100</v>
       </c>
@@ -2101,7 +2360,7 @@
         <f t="shared" si="25"/>
         <v>1420</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <f t="shared" si="26"/>
         <v>1.3977510754489516E-3</v>
       </c>
@@ -2109,7 +2368,7 @@
         <f t="shared" si="2"/>
         <v>1358000</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f t="shared" si="27"/>
         <v>7884.4918602242633</v>
       </c>
@@ -2125,25 +2384,28 @@
         <v>3956.2919209193524</v>
       </c>
       <c r="I33">
-        <f>H33/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.444319605892147</v>
       </c>
-      <c r="J33" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I33^2-1)+I33)</f>
+      <c r="J33" s="9">
+        <f t="shared" si="31"/>
         <v>6.7400516099627803E-4</v>
       </c>
-      <c r="K33" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L33" s="10">
-        <f t="shared" si="30"/>
-        <v>4.8584198705566375E-4</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="K33" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L33" s="34">
+        <f t="shared" si="33"/>
+        <v>3.3067149935255524</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="34"/>
+        <v>5.4954490297150452E-2</v>
+      </c>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1150</v>
       </c>
@@ -2151,7 +2413,7 @@
         <f t="shared" si="25"/>
         <v>1470</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <f t="shared" si="26"/>
         <v>1.4060958332769314E-3</v>
       </c>
@@ -2159,7 +2421,7 @@
         <f t="shared" si="2"/>
         <v>1353000</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f t="shared" si="27"/>
         <v>7931.5633140230848</v>
       </c>
@@ -2175,25 +2437,28 @@
         <v>3964.8953248473763</v>
       </c>
       <c r="I34">
-        <f>H34/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.525746510887735</v>
       </c>
-      <c r="J34" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I34^2-1)+I34)</f>
+      <c r="J34" s="9">
+        <f t="shared" si="31"/>
         <v>6.7431542003082217E-4</v>
       </c>
-      <c r="K34" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="30"/>
-        <v>4.8615224609020789E-4</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="K34" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L34" s="34">
+        <f t="shared" si="33"/>
+        <v>3.4479343993262543</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="34"/>
+        <v>4.7716916935896941E-2</v>
+      </c>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1200</v>
       </c>
@@ -2201,7 +2466,7 @@
         <f t="shared" si="25"/>
         <v>1520</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f t="shared" si="26"/>
         <v>1.4144904104070963E-3</v>
       </c>
@@ -2209,7 +2474,7 @@
         <f t="shared" si="2"/>
         <v>1348000</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f t="shared" si="27"/>
         <v>7978.9157905944603</v>
       </c>
@@ -2225,25 +2490,28 @@
         <v>3973.466146457532</v>
       </c>
       <c r="I35">
-        <f>H35/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.606865040579343</v>
       </c>
-      <c r="J35" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I35^2-1)+I35)</f>
+      <c r="J35" s="9">
+        <f t="shared" si="31"/>
         <v>6.7462383474880801E-4</v>
       </c>
-      <c r="K35" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="30"/>
-        <v>4.8646066080819373E-4</v>
-      </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="K35" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L35" s="34">
+        <f t="shared" si="33"/>
+        <v>3.5883143346862152</v>
+      </c>
+      <c r="M35" s="14">
+        <f t="shared" si="34"/>
+        <v>4.1467336805224742E-2</v>
+      </c>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1250</v>
       </c>
@@ -2251,7 +2519,7 @@
         <f>320+A36</f>
         <v>1570</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A36/($Q$5))</f>
         <v>1.4229351042672356E-3</v>
       </c>
@@ -2259,7 +2527,7 @@
         <f t="shared" si="2"/>
         <v>1343000</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <f t="shared" si="27"/>
         <v>8026.5509676813153</v>
       </c>
@@ -2275,25 +2543,28 @@
         <v>3982.0036900617947</v>
       </c>
       <c r="I36">
-        <f>H36/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.687668610628585</v>
       </c>
-      <c r="J36" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I36^2-1)+I36)</f>
+      <c r="J36" s="9">
+        <f t="shared" si="31"/>
         <v>6.7493039068255414E-4</v>
       </c>
-      <c r="K36" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L36" s="10">
-        <f>J36-K36</f>
-        <v>4.8676721674193986E-4</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="K36" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L36" s="34">
+        <f t="shared" si="33"/>
+        <v>3.7278482144068046</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="34"/>
+        <v>3.6066778290980796E-2</v>
+      </c>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1300</v>
       </c>
@@ -2301,52 +2572,52 @@
         <f t="shared" si="25"/>
         <v>1620</v>
       </c>
-      <c r="C37" s="10">
-        <f t="shared" ref="C37:C38" si="31">$Q$3/($Q$5*100)*EXP(A37/($Q$5))</f>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:C38" si="35">$Q$3/($Q$5*100)*EXP(A37/($Q$5))</f>
         <v>1.4314302140608212E-3</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
         <v>1338000</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <f t="shared" si="27"/>
         <v>8074.470533042926</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" ref="F37:F38" si="32">C37*D37*$Q$4</f>
+        <f t="shared" ref="F37:F38" si="36">C37*D37*$Q$4</f>
         <v>3830.5072528267574</v>
       </c>
       <c r="G37" s="15">
         <v>160</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" ref="H37:H38" si="33">G37+F37</f>
+        <f t="shared" ref="H37:H38" si="37">G37+F37</f>
         <v>3990.5072528267574</v>
       </c>
       <c r="I37">
-        <f>H37/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.768150569069611</v>
       </c>
-      <c r="J37" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I37^2-1)+I37)</f>
+      <c r="J37" s="9">
+        <f t="shared" si="31"/>
         <v>6.7523507320892693E-4</v>
       </c>
-      <c r="K37" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L37" s="10">
-        <f t="shared" ref="L37:L38" si="34">J37-K37</f>
-        <v>4.8707189926831265E-4</v>
-      </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="P37" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="K37" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L37" s="34">
+        <f t="shared" si="33"/>
+        <v>3.8665293825327871</v>
+      </c>
+      <c r="M37" s="14">
+        <f t="shared" si="34"/>
+        <v>3.1396329920098817E-2</v>
+      </c>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1350</v>
       </c>
@@ -2354,52 +2625,52 @@
         <f t="shared" si="25"/>
         <v>1670</v>
       </c>
-      <c r="C38" s="10">
-        <f t="shared" si="31"/>
+      <c r="C38" s="9">
+        <f t="shared" si="35"/>
         <v>1.4399760407776091E-3</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
         <v>1333000</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f t="shared" si="27"/>
         <v>8122.6761845147084</v>
       </c>
       <c r="F38" s="16">
+        <f t="shared" si="36"/>
+        <v>3838.9761247131059</v>
+      </c>
+      <c r="G38" s="15">
+        <v>160</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="37"/>
+        <v>3998.9761247131059</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="30"/>
+        <v>37.848304195736297</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="31"/>
+        <v>6.755378675470041E-4</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" si="32"/>
-        <v>3838.9761247131059</v>
-      </c>
-      <c r="G38" s="15">
-        <v>160</v>
-      </c>
-      <c r="H38" s="16">
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L38" s="34">
         <f t="shared" si="33"/>
-        <v>3998.9761247131059</v>
-      </c>
-      <c r="I38">
-        <f>H38/$Q$7</f>
-        <v>37.848304195736297</v>
-      </c>
-      <c r="J38" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I38^2-1)+I38)</f>
-        <v>6.755378675470041E-4</v>
-      </c>
-      <c r="K38" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L38" s="10">
+        <v>4.0043511112888996</v>
+      </c>
+      <c r="M38" s="14">
         <f t="shared" si="34"/>
-        <v>4.8737469360638982E-4</v>
-      </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="P38" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>2.7354177947705033E-2</v>
+      </c>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1400</v>
       </c>
@@ -2407,7 +2678,7 @@
         <f>320+A39</f>
         <v>1720</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A39/($Q$5))</f>
         <v>1.4485728872043039E-3</v>
       </c>
@@ -2415,7 +2686,7 @@
         <f t="shared" si="2"/>
         <v>1328000</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f t="shared" si="27"/>
         <v>8171.1696300683825</v>
       </c>
@@ -2431,28 +2702,28 @@
         <v>4007.4095884146313</v>
       </c>
       <c r="I39">
-        <f>H39/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>37.928122701684977</v>
       </c>
-      <c r="J39" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I39^2-1)+I39)</f>
+      <c r="J39" s="9">
+        <f t="shared" si="31"/>
         <v>6.7583875875569489E-4</v>
       </c>
-      <c r="K39" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L39" s="10">
-        <f>J39-K39</f>
-        <v>4.8767558481508061E-4</v>
-      </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="P39" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="K39" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L39" s="34">
+        <f t="shared" si="33"/>
+        <v>4.1413065999965841</v>
+      </c>
+      <c r="M39" s="14">
+        <f t="shared" si="34"/>
+        <v>2.3853090438970298E-2</v>
+      </c>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1450</v>
       </c>
@@ -2460,49 +2731,52 @@
         <f t="shared" si="25"/>
         <v>1770</v>
       </c>
-      <c r="C40" s="10">
-        <f t="shared" ref="C40:C46" si="35">$Q$3/($Q$5*100)*EXP(A40/($Q$5))</f>
+      <c r="C40" s="9">
+        <f t="shared" ref="C40:C46" si="38">$Q$3/($Q$5*100)*EXP(A40/($Q$5))</f>
         <v>1.4572210579352866E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
         <v>1323000</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f t="shared" si="27"/>
         <v>8219.9525878724835</v>
       </c>
       <c r="F40" s="16">
-        <f t="shared" ref="F40:F46" si="36">C40*D40*$Q$4</f>
+        <f t="shared" ref="F40:F46" si="39">C40*D40*$Q$4</f>
         <v>3855.8069192967682</v>
       </c>
       <c r="G40" s="15">
         <v>160</v>
       </c>
       <c r="H40" s="16">
-        <f t="shared" ref="H40:H46" si="37">G40+F40</f>
+        <f t="shared" ref="H40:H46" si="40">G40+F40</f>
         <v>4015.8069192967682</v>
       </c>
       <c r="I40">
-        <f>H40/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.007599228612769</v>
       </c>
-      <c r="J40" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I40^2-1)+I40)</f>
+      <c r="J40" s="9">
+        <f t="shared" si="31"/>
         <v>6.761377317313161E-4</v>
       </c>
-      <c r="K40" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L40" s="10">
-        <f t="shared" ref="L40:L46" si="38">J40-K40</f>
-        <v>4.8797455779070182E-4</v>
-      </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="K40" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L40" s="34">
+        <f t="shared" si="33"/>
+        <v>4.277388973970738</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" si="34"/>
+        <v>2.081827929670876E-2</v>
+      </c>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1500</v>
       </c>
@@ -2510,49 +2784,55 @@
         <f t="shared" si="25"/>
         <v>1820</v>
       </c>
-      <c r="C41" s="10">
-        <f t="shared" si="35"/>
+      <c r="C41" s="9">
+        <f t="shared" si="38"/>
         <v>1.465920859383407E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
         <v>1318000</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f t="shared" si="27"/>
         <v>8269.026786353239</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3864.167385334661</v>
       </c>
       <c r="G41" s="15">
         <v>160</v>
       </c>
       <c r="H41" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4024.167385334661</v>
       </c>
       <c r="I41">
-        <f>H41/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.086726848271411</v>
       </c>
-      <c r="J41" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I41^2-1)+I41)</f>
+      <c r="J41" s="9">
+        <f t="shared" si="31"/>
         <v>6.7643477120512196E-4</v>
       </c>
-      <c r="K41" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L41" s="10">
-        <f t="shared" si="38"/>
-        <v>4.8827159726450768E-4</v>
-      </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="K41" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L41" s="34">
+        <f t="shared" si="33"/>
+        <v>4.4125912833953436</v>
+      </c>
+      <c r="M41" s="14">
+        <f t="shared" si="34"/>
+        <v>1.8185582388605983E-2</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1550</v>
       </c>
@@ -2560,49 +2840,55 @@
         <f t="shared" si="25"/>
         <v>1870</v>
       </c>
-      <c r="C42" s="10">
-        <f t="shared" si="35"/>
+      <c r="C42" s="9">
+        <f t="shared" si="38"/>
         <v>1.4746725997908392E-3</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
         <v>1313000</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f t="shared" si="27"/>
         <v>8318.3939642558089</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3872.4902470507436</v>
       </c>
       <c r="G42" s="15">
         <v>160</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4032.4902470507436</v>
       </c>
       <c r="I42">
-        <f>H42/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.165498561876468</v>
       </c>
-      <c r="J42" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I42^2-1)+I42)</f>
+      <c r="J42" s="9">
+        <f t="shared" si="31"/>
         <v>6.7672986174078858E-4</v>
       </c>
-      <c r="K42" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L42" s="10">
-        <f t="shared" si="38"/>
-        <v>4.885666878001743E-4</v>
-      </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="K42" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L42" s="34">
+        <f t="shared" si="33"/>
+        <v>4.5469065021785111</v>
+      </c>
+      <c r="M42" s="14">
+        <f t="shared" si="34"/>
+        <v>1.5899916933618093E-2</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1600</v>
       </c>
@@ -2610,49 +2896,55 @@
         <f t="shared" si="25"/>
         <v>1920</v>
       </c>
-      <c r="C43" s="10">
-        <f t="shared" si="35"/>
+      <c r="C43" s="9">
+        <f t="shared" si="38"/>
         <v>1.4834765892400043E-3</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
         <v>1308000</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <f t="shared" si="27"/>
         <v>8368.0558707058863</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3880.7747574518512</v>
       </c>
       <c r="G43" s="15">
         <v>160</v>
       </c>
       <c r="H43" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4040.7747574518512</v>
       </c>
       <c r="I43">
-        <f>H43/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.243907299512117</v>
       </c>
-      <c r="J43" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I43^2-1)+I43)</f>
+      <c r="J43" s="9">
+        <f t="shared" si="31"/>
         <v>6.7702298773185019E-4</v>
       </c>
-      <c r="K43" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L43" s="10">
-        <f t="shared" si="38"/>
-        <v>4.8885981379123591E-4</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="K43" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L43" s="34">
+        <f t="shared" si="33"/>
+        <v>4.6803275267855255</v>
+      </c>
+      <c r="M43" s="14">
+        <f t="shared" si="34"/>
+        <v>1.3913962888674972E-2</v>
+      </c>
+      <c r="N43" s="9"/>
+      <c r="O43" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1650</v>
       </c>
@@ -2660,49 +2952,52 @@
         <f t="shared" si="25"/>
         <v>1970</v>
       </c>
-      <c r="C44" s="10">
-        <f t="shared" si="35"/>
+      <c r="C44" s="9">
+        <f t="shared" si="38"/>
         <v>1.4923331396645562E-3</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
         <v>1303000</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f t="shared" si="27"/>
         <v>8418.0142652716822</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3889.0201619658333</v>
       </c>
       <c r="G44" s="15">
         <v>160</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4049.0201619658333</v>
       </c>
       <c r="I44">
-        <f>H44/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.321945919531252</v>
       </c>
-      <c r="J44" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I44^2-1)+I44)</f>
+      <c r="J44" s="9">
+        <f t="shared" si="31"/>
         <v>6.7731413339908739E-4</v>
       </c>
-      <c r="K44" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" si="38"/>
-        <v>4.8915095945847311E-4</v>
-      </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="K44" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L44" s="34">
+        <f t="shared" si="33"/>
+        <v>4.8128471750500674</v>
+      </c>
+      <c r="M44" s="14">
+        <f t="shared" si="34"/>
+        <v>1.2187041462668146E-2</v>
+      </c>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1700</v>
       </c>
@@ -2710,49 +3005,52 @@
         <f t="shared" si="25"/>
         <v>2020</v>
       </c>
-      <c r="C45" s="10">
-        <f t="shared" si="35"/>
+      <c r="C45" s="9">
+        <f t="shared" si="38"/>
         <v>1.5012425648604332E-3</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
         <v>1298000</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f t="shared" si="27"/>
         <v>8468.2709180262573</v>
       </c>
       <c r="F45" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3897.2256983776847</v>
       </c>
       <c r="G45" s="15">
         <v>160</v>
       </c>
       <c r="H45" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4057.2256983776847</v>
       </c>
       <c r="I45">
-        <f>H45/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.399607207950979</v>
       </c>
-      <c r="J45" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I45^2-1)+I45)</f>
+      <c r="J45" s="9">
+        <f t="shared" si="31"/>
         <v>6.7760328278786499E-4</v>
       </c>
-      <c r="K45" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L45" s="10">
-        <f t="shared" si="38"/>
-        <v>4.8944010884725071E-4</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="K45" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L45" s="34">
+        <f t="shared" si="33"/>
+        <v>4.9444581849624951</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" si="34"/>
+        <v>1.068415926629398E-2</v>
+      </c>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1750</v>
       </c>
@@ -2760,49 +3058,52 @@
         <f t="shared" si="25"/>
         <v>2070</v>
       </c>
-      <c r="C46" s="10">
-        <f t="shared" si="35"/>
+      <c r="C46" s="9">
+        <f t="shared" si="38"/>
         <v>1.5102051804969775E-3</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
         <v>1293000</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f t="shared" si="27"/>
         <v>8518.8276096102381</v>
       </c>
       <c r="F46" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3905.390596765184</v>
       </c>
       <c r="G46" s="15">
         <v>160</v>
       </c>
       <c r="H46" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4065.390596765184</v>
       </c>
       <c r="I46">
-        <f>H46/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.476883877843456</v>
       </c>
-      <c r="J46" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I46^2-1)+I46)</f>
+      <c r="J46" s="9">
+        <f t="shared" si="31"/>
         <v>6.7789041976542034E-4</v>
       </c>
-      <c r="K46" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L46" s="10">
-        <f t="shared" si="38"/>
-        <v>4.8972724582480606E-4</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="K46" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L46" s="34">
+        <f t="shared" si="33"/>
+        <v>5.0751532134355708</v>
+      </c>
+      <c r="M46" s="14">
+        <f t="shared" si="34"/>
+        <v>9.3751931438481994E-3</v>
+      </c>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>1800</v>
       </c>
@@ -2810,7 +3111,7 @@
         <f>320+A47</f>
         <v>2120</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A47/($Q$5))</f>
         <v>1.5192213041281184E-3</v>
       </c>
@@ -2818,7 +3119,7 @@
         <f t="shared" si="2"/>
         <v>1288000</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f t="shared" si="27"/>
         <v>8569.6861312949186</v>
       </c>
@@ -2834,25 +3135,28 @@
         <v>4073.5140794340327</v>
       </c>
       <c r="I47">
-        <f>H47/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.553768568722035</v>
       </c>
-      <c r="J47" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I47^2-1)+I47)</f>
+      <c r="J47" s="9">
+        <f t="shared" si="31"/>
         <v>6.7817552801809739E-4</v>
       </c>
-      <c r="K47" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L47" s="10">
-        <f>J47-K47</f>
-        <v>4.9001235407748311E-4</v>
-      </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="K47" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L47" s="34">
+        <f t="shared" si="33"/>
+        <v>5.2049248350455155</v>
+      </c>
+      <c r="M47" s="14">
+        <f t="shared" si="34"/>
+        <v>8.2341945609903013E-3</v>
+      </c>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1850</v>
       </c>
@@ -2860,49 +3164,52 @@
         <f t="shared" si="25"/>
         <v>2170</v>
       </c>
-      <c r="C48" s="10">
-        <f t="shared" ref="C48:C54" si="39">$Q$3/($Q$5*100)*EXP(A48/($Q$5))</f>
+      <c r="C48" s="9">
+        <f t="shared" ref="C48:C54" si="41">$Q$3/($Q$5*100)*EXP(A48/($Q$5))</f>
         <v>1.5282912552036234E-3</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
         <v>1283000</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <f t="shared" si="27"/>
         <v>8620.8482850457094</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" ref="F48:F54" si="40">C48*D48*$Q$4</f>
+        <f t="shared" ref="F48:F54" si="42">C48*D48*$Q$4</f>
         <v>3921.5953608524978</v>
       </c>
       <c r="G48" s="15">
         <v>160</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" ref="H48:H54" si="41">G48+F48</f>
+        <f t="shared" ref="H48:H54" si="43">G48+F48</f>
         <v>4081.5953608524978</v>
       </c>
       <c r="I48">
-        <f>H48/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.630253845922674</v>
       </c>
-      <c r="J48" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I48^2-1)+I48)</f>
+      <c r="J48" s="9">
+        <f t="shared" si="31"/>
         <v>6.7845859104853049E-4</v>
       </c>
-      <c r="K48" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L48" s="10">
-        <f t="shared" ref="L48:L54" si="42">J48-K48</f>
-        <v>4.9029541710791621E-4</v>
-      </c>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="K48" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L48" s="34">
+        <f t="shared" si="33"/>
+        <v>5.3337655407501563</v>
+      </c>
+      <c r="M48" s="14">
+        <f t="shared" si="34"/>
+        <v>7.2387956533642109E-3</v>
+      </c>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>1900</v>
       </c>
@@ -2910,49 +3217,52 @@
         <f t="shared" si="25"/>
         <v>2220</v>
       </c>
-      <c r="C49" s="10">
-        <f t="shared" si="39"/>
+      <c r="C49" s="9">
+        <f t="shared" si="41"/>
         <v>1.5374153550804181E-3</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
         <v>1278000</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f t="shared" si="27"/>
         <v>8672.3158835859958</v>
       </c>
       <c r="F49" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3929.6336475855487</v>
       </c>
       <c r="G49" s="15">
         <v>160</v>
       </c>
       <c r="H49" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4089.6336475855487</v>
       </c>
       <c r="I49">
-        <f>H49/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.706332199980586</v>
       </c>
-      <c r="J49" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I49^2-1)+I49)</f>
+      <c r="J49" s="9">
+        <f t="shared" si="31"/>
         <v>6.7873959217277168E-4</v>
       </c>
-      <c r="K49" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L49" s="10">
-        <f t="shared" si="42"/>
-        <v>4.905764182321574E-4</v>
-      </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="K49" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L49" s="34">
+        <f t="shared" si="33"/>
+        <v>5.4616677365813793</v>
+      </c>
+      <c r="M49" s="14">
+        <f t="shared" si="34"/>
+        <v>6.3697017694727895E-3</v>
+      </c>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>1950</v>
       </c>
@@ -2960,49 +3270,52 @@
         <f t="shared" si="25"/>
         <v>2270</v>
       </c>
-      <c r="C50" s="10">
-        <f t="shared" si="39"/>
+      <c r="C50" s="9">
+        <f t="shared" si="41"/>
         <v>1.5465939270339704E-3</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
         <v>1273000</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <f t="shared" si="27"/>
         <v>8724.0907504613606</v>
       </c>
       <c r="F50" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3937.6281382284888</v>
       </c>
       <c r="G50" s="15">
         <v>160</v>
       </c>
       <c r="H50" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4097.6281382284888</v>
       </c>
       <c r="I50">
-        <f>H50/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.781996046002092</v>
       </c>
-      <c r="J50" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I50^2-1)+I50)</f>
+      <c r="J50" s="9">
+        <f t="shared" si="31"/>
         <v>6.7901851451736305E-4</v>
       </c>
-      <c r="K50" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L50" s="10">
-        <f t="shared" si="42"/>
-        <v>4.9085534057674877E-4</v>
-      </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="K50" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L50" s="34">
+        <f t="shared" si="33"/>
+        <v>5.588623742312544</v>
+      </c>
+      <c r="M50" s="14">
+        <f t="shared" si="34"/>
+        <v>5.6102576465302803E-3</v>
+      </c>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -3010,49 +3323,52 @@
         <f t="shared" si="25"/>
         <v>2320</v>
       </c>
-      <c r="C51" s="10">
-        <f t="shared" si="39"/>
+      <c r="C51" s="9">
+        <f t="shared" si="41"/>
         <v>1.5558272962697462E-3</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
         <v>1268000</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <f t="shared" si="27"/>
         <v>8776.1747201041926</v>
       </c>
       <c r="F51" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3945.5780233400765</v>
       </c>
       <c r="G51" s="15">
         <v>160</v>
       </c>
       <c r="H51" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4105.5780233400765</v>
       </c>
       <c r="I51">
-        <f>H51/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.857237723031638</v>
       </c>
-      <c r="J51" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I51^2-1)+I51)</f>
+      <c r="J51" s="9">
+        <f t="shared" si="31"/>
         <v>6.7929534101635134E-4</v>
       </c>
-      <c r="K51" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L51" s="10">
-        <f t="shared" si="42"/>
-        <v>4.9113216707573706E-4</v>
-      </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="K51" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L51" s="34">
+        <f t="shared" si="33"/>
+        <v>5.7146257900996575</v>
+      </c>
+      <c r="M51" s="14">
+        <f t="shared" si="34"/>
+        <v>4.9460763069395864E-3</v>
+      </c>
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>2050</v>
       </c>
@@ -3060,49 +3376,52 @@
         <f t="shared" si="25"/>
         <v>2370</v>
       </c>
-      <c r="C52" s="10">
-        <f t="shared" si="39"/>
+      <c r="C52" s="9">
+        <f t="shared" si="41"/>
         <v>1.5651157899347296E-3</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
         <v>1263000</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <f t="shared" si="27"/>
         <v>8828.5696378986813</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3953.482485375127</v>
       </c>
       <c r="G52" s="15">
         <v>160</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4113.482485375127</v>
       </c>
       <c r="I52">
-        <f>H52/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>38.932049493413913</v>
       </c>
-      <c r="J52" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I52^2-1)+I52)</f>
+      <c r="J52" s="9">
+        <f t="shared" si="31"/>
         <v>6.7957005440824603E-4</v>
       </c>
-      <c r="K52" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L52" s="10">
-        <f t="shared" si="42"/>
-        <v>4.9140688046763175E-4</v>
-      </c>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="K52" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L52" s="34">
+        <f t="shared" si="33"/>
+        <v>5.8396660230967852</v>
+      </c>
+      <c r="M52" s="14">
+        <f t="shared" si="34"/>
+        <v>4.3647214114646074E-3</v>
+      </c>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>2100</v>
       </c>
@@ -3110,49 +3429,52 @@
         <f t="shared" si="25"/>
         <v>2420</v>
       </c>
-      <c r="C53" s="10">
-        <f t="shared" si="39"/>
+      <c r="C53" s="9">
+        <f t="shared" si="41"/>
         <v>1.5744597371290163E-3</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
         <v>1258000</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <f t="shared" si="27"/>
         <v>8881.2773602462075</v>
       </c>
       <c r="F53" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3961.3406986166051</v>
       </c>
       <c r="G53" s="15">
         <v>160</v>
       </c>
       <c r="H53" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4121.3406986166046</v>
       </c>
       <c r="I53">
-        <f>H53/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>39.006423542151133</v>
       </c>
-      <c r="J53" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I53^2-1)+I53)</f>
+      <c r="J53" s="9">
+        <f t="shared" si="31"/>
         <v>6.7984263723291569E-4</v>
       </c>
-      <c r="K53" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L53" s="10">
-        <f t="shared" si="42"/>
-        <v>4.9167946329230141E-4</v>
-      </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="K53" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L53" s="34">
+        <f t="shared" si="33"/>
+        <v>5.9637364940433741</v>
+      </c>
+      <c r="M53" s="14">
+        <f t="shared" si="34"/>
+        <v>3.8554352002155012E-3</v>
+      </c>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>2150</v>
       </c>
@@ -3160,49 +3482,52 @@
         <f t="shared" si="25"/>
         <v>2470</v>
       </c>
-      <c r="C54" s="10">
-        <f t="shared" si="39"/>
+      <c r="C54" s="9">
+        <f t="shared" si="41"/>
         <v>1.5838594689174725E-3</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
         <v>1253000</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <f t="shared" si="27"/>
         <v>8934.299754631109</v>
       </c>
       <c r="F54" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3969.1518291071861</v>
       </c>
       <c r="G54" s="15">
         <v>160</v>
       </c>
       <c r="H54" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4129.1518291071861</v>
       </c>
       <c r="I54">
-        <f>H54/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>39.080351976255336</v>
       </c>
-      <c r="J54" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I54^2-1)+I54)</f>
+      <c r="J54" s="9">
+        <f t="shared" si="31"/>
         <v>6.8011307182842405E-4</v>
       </c>
-      <c r="K54" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L54" s="10">
-        <f t="shared" si="42"/>
-        <v>4.9194989788780977E-4</v>
-      </c>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="K54" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L54" s="34">
+        <f t="shared" si="33"/>
+        <v>6.0868291638241514</v>
+      </c>
+      <c r="M54" s="14">
+        <f t="shared" si="34"/>
+        <v>3.4089053337607407E-3</v>
+      </c>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>2200</v>
       </c>
@@ -3210,7 +3535,7 @@
         <f>320+A55</f>
         <v>2520</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <f>$Q$3/($Q$5*100)*EXP(A55/($Q$5))</f>
         <v>1.593315318341465E-3</v>
       </c>
@@ -3218,7 +3543,7 @@
         <f t="shared" si="2"/>
         <v>1248000</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <f t="shared" si="27"/>
         <v>8987.6386996868496</v>
       </c>
@@ -3234,25 +3559,28 @@
         <v>4136.9150345802973</v>
       </c>
       <c r="I55">
-        <f>H55/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>39.153826824095638</v>
       </c>
-      <c r="J55" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I55^2-1)+I55)</f>
+      <c r="J55" s="9">
+        <f t="shared" si="31"/>
         <v>6.8038134032780433E-4</v>
       </c>
-      <c r="K55" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L55" s="10">
-        <f>J55-K55</f>
-        <v>4.9221816638719005E-4</v>
-      </c>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="K55" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L55" s="34">
+        <f t="shared" si="33"/>
+        <v>6.2089359000008795</v>
+      </c>
+      <c r="M55" s="14">
+        <f t="shared" si="34"/>
+        <v>3.0170649473940624E-3</v>
+      </c>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>2250</v>
       </c>
@@ -3260,49 +3588,56 @@
         <f t="shared" si="25"/>
         <v>2570</v>
       </c>
-      <c r="C56" s="10">
-        <f t="shared" ref="C56:C57" si="43">$Q$3/($Q$5*100)*EXP(A56/($Q$5))</f>
+      <c r="C56" s="9">
+        <f t="shared" ref="C56:C58" si="44">$Q$3/($Q$5*100)*EXP(A56/($Q$5))</f>
         <v>1.6028276204306615E-3</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
         <v>1243000</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <f t="shared" si="27"/>
         <v>9041.2960852625856</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" ref="F56:F57" si="44">C56*D56*$Q$4</f>
+        <f t="shared" ref="F56:F58" si="45">C56*D56*$Q$4</f>
         <v>3984.6294643906244</v>
       </c>
       <c r="G56" s="15">
         <v>160</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" ref="H56:H57" si="45">G56+F56</f>
+        <f t="shared" ref="H56:H58" si="46">G56+F56</f>
         <v>4144.629464390624</v>
       </c>
       <c r="I56">
-        <f>H56/$Q$7</f>
+        <f t="shared" si="30"/>
         <v>39.226840034740619</v>
       </c>
-      <c r="J56" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I56^2-1)+I56)</f>
+      <c r="J56" s="9">
+        <f t="shared" si="31"/>
         <v>6.8064742465576763E-4</v>
       </c>
-      <c r="K56" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L56" s="10">
-        <f t="shared" ref="L56:L57" si="46">J56-K56</f>
-        <v>4.9248425071515335E-4</v>
-      </c>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="K56" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L56" s="34">
+        <f t="shared" si="33"/>
+        <v>6.3300484753141708</v>
+      </c>
+      <c r="M56" s="14">
+        <f t="shared" si="34"/>
+        <v>2.672921079822599E-3</v>
+      </c>
+      <c r="N56" s="9"/>
+      <c r="P56" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>2300</v>
       </c>
@@ -3310,725 +3645,1492 @@
         <f t="shared" si="25"/>
         <v>2620</v>
       </c>
-      <c r="C57" s="10">
-        <f t="shared" si="43"/>
+      <c r="C57" s="9">
+        <f t="shared" si="44"/>
         <v>1.6123967122149015E-3</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
         <v>1238000</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <f t="shared" si="27"/>
         <v>9095.2738124901225</v>
       </c>
       <c r="F57" s="16">
+        <f t="shared" si="45"/>
+        <v>3992.294259444096</v>
+      </c>
+      <c r="G57" s="15">
+        <v>160</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" si="46"/>
+        <v>4152.2942594440956</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="30"/>
+        <v>39.299383477295571</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="31"/>
+        <v>6.809113065253475E-4</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="32"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L57" s="34">
+        <f t="shared" si="33"/>
+        <v>6.4501585661561727</v>
+      </c>
+      <c r="M57" s="14">
+        <f t="shared" si="34"/>
+        <v>2.3704073569197569E-3</v>
+      </c>
+      <c r="N57" s="9"/>
+      <c r="P57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>2350</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="25"/>
+        <v>2670</v>
+      </c>
+      <c r="C58" s="9">
         <f t="shared" si="44"/>
-        <v>3992.294259444096</v>
-      </c>
-      <c r="G57" s="15">
-        <v>160</v>
-      </c>
-      <c r="H57" s="16">
+        <v>1.6220229327361356E-3</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:D71" si="47">15*10^5-B58*100</f>
+        <v>1233000</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" ref="E58:E71" si="48">C58/($Q$8/(2.98*10^8))</f>
+        <v>9149.5737938512648</v>
+      </c>
+      <c r="F58" s="16">
         <f t="shared" si="45"/>
-        <v>4152.2942594440956</v>
-      </c>
-      <c r="I57">
-        <f>H57/$Q$7</f>
-        <v>39.299383477295571</v>
-      </c>
-      <c r="J57" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I57^2-1)+I57)</f>
-        <v>6.809113065253475E-4</v>
-      </c>
-      <c r="K57" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L57" s="10">
+        <v>3999.9085521273105</v>
+      </c>
+      <c r="G58" s="15">
+        <v>160</v>
+      </c>
+      <c r="H58" s="16">
         <f t="shared" si="46"/>
-        <v>4.9274813258473322E-4</v>
-      </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="C58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="C59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="C60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="C61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="C62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="C63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="C64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-    </row>
-    <row r="65" spans="3:14">
-      <c r="C65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="16"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-    </row>
-    <row r="66" spans="3:14">
-      <c r="C66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="16"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-    </row>
-    <row r="67" spans="3:14">
-      <c r="C67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" spans="3:14">
-      <c r="C68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="16"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-    </row>
-    <row r="69" spans="3:14">
-      <c r="C69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="16"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="3:14">
-      <c r="C70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="16"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-    </row>
-    <row r="71" spans="3:14">
-      <c r="C71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="16"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" spans="3:14">
-      <c r="C72" s="10"/>
-      <c r="E72" s="11"/>
+        <v>4159.90855212731</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I71" si="49">H58/$Q$7</f>
+        <v>39.371448940234622</v>
+      </c>
+      <c r="J58" s="9">
+        <f t="shared" ref="J58:J71" si="50">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I58^2-1)+I58)</f>
+        <v>6.8117296743447613E-4</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" ref="K58:K71" si="51">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L58" s="34">
+        <f t="shared" si="33"/>
+        <v>6.569257751012171</v>
+      </c>
+      <c r="M58" s="14">
+        <f t="shared" si="34"/>
+        <v>2.1042574216367264E-3</v>
+      </c>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>2400</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="25"/>
+        <v>2720</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" ref="C59:C71" si="52">$Q$3/($Q$5*100)*EXP(A59/($Q$5))</f>
+        <v>1.631706623060441E-3</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="47"/>
+        <v>1228000</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="48"/>
+        <v>9204.1979532455935</v>
+      </c>
+      <c r="F59" s="16">
+        <f t="shared" ref="F59:F71" si="53">C59*D59*$Q$4</f>
+        <v>4007.4714662364431</v>
+      </c>
+      <c r="G59" s="15">
+        <v>160</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" ref="H59:H71" si="54">G59+F59</f>
+        <v>4167.4714662364431</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="49"/>
+        <v>39.443028130727846</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8143238866249297E-4</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L59" s="34">
+        <f t="shared" si="33"/>
+        <v>6.6873375088714493</v>
+      </c>
+      <c r="M59" s="14">
+        <f t="shared" si="34"/>
+        <v>1.8698961194343541E-3</v>
+      </c>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>2450</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="25"/>
+        <v>2770</v>
+      </c>
+      <c r="C60" s="9">
+        <f t="shared" si="52"/>
+        <v>1.6414481262901034E-3</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="47"/>
+        <v>1223000</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="48"/>
+        <v>9259.1482260586199</v>
+      </c>
+      <c r="F60" s="16">
+        <f t="shared" si="53"/>
+        <v>4014.9821169055926</v>
+      </c>
+      <c r="G60" s="15">
+        <v>160</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" si="54"/>
+        <v>4174.9821169055922</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="49"/>
+        <v>39.514112673963091</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8168955126658086E-4</v>
+      </c>
+      <c r="K60" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L60" s="34">
+        <f t="shared" si="33"/>
+        <v>6.8043892176051273</v>
+      </c>
+      <c r="M60" s="14">
+        <f t="shared" ref="M60:M71" si="55">1.5*EXP(-L60/$U$8)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>2500</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="25"/>
+        <v>2820</v>
+      </c>
+      <c r="C61" s="9">
+        <f t="shared" si="52"/>
+        <v>1.6512477875757741E-3</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="47"/>
+        <v>1218000</v>
+      </c>
+      <c r="E61" s="10">
+        <f t="shared" si="48"/>
+        <v>9314.42655923036</v>
+      </c>
+      <c r="F61" s="16">
+        <f t="shared" si="53"/>
+        <v>4022.4396105345859</v>
+      </c>
+      <c r="G61" s="15">
+        <v>160</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" si="54"/>
+        <v>4182.4396105345859</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="49"/>
+        <v>39.584694112462721</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8194443607813235E-4</v>
+      </c>
+      <c r="K61" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L61" s="34">
+        <f t="shared" si="33"/>
+        <v>6.9204041523122228</v>
+      </c>
+      <c r="M61" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>2550</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="25"/>
+        <v>2870</v>
+      </c>
+      <c r="C62" s="9">
+        <f t="shared" si="52"/>
+        <v>1.6611059541287003E-3</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="47"/>
+        <v>1213000</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="48"/>
+        <v>9370.0349113243228</v>
+      </c>
+      <c r="F62" s="16">
+        <f t="shared" si="53"/>
+        <v>4029.8430447162268</v>
+      </c>
+      <c r="G62" s="15">
+        <v>160</v>
+      </c>
+      <c r="H62" s="16">
+        <f t="shared" si="54"/>
+        <v>4189.8430447162264</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="49"/>
+        <v>39.654763905395015</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8219702369904051E-4</v>
+      </c>
+      <c r="K62" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L62" s="34">
+        <f t="shared" si="33"/>
+        <v>7.0353734836313677</v>
+      </c>
+      <c r="M62" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>2600</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="25"/>
+        <v>2920</v>
+      </c>
+      <c r="C63" s="9">
+        <f t="shared" si="52"/>
+        <v>1.6710229752330244E-3</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="47"/>
+        <v>1208000</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="48"/>
+        <v>9425.9752525968943</v>
+      </c>
+      <c r="F63" s="16">
+        <f t="shared" si="53"/>
+        <v>4037.1915081629868</v>
+      </c>
+      <c r="G63" s="15">
+        <v>160</v>
+      </c>
+      <c r="H63" s="16">
+        <f t="shared" si="54"/>
+        <v>4197.1915081629868</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="49"/>
+        <v>39.724313427880396</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8244729449791432E-4</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L63" s="34">
+        <f t="shared" si="33"/>
+        <v>7.1492882760181722</v>
+      </c>
+      <c r="M63" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>2650</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="25"/>
+        <v>2970</v>
+      </c>
+      <c r="C64" s="9">
+        <f t="shared" si="52"/>
+        <v>1.6809992022581628E-3</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="47"/>
+        <v>1203000</v>
+      </c>
+      <c r="E64" s="10">
+        <f t="shared" si="48"/>
+        <v>9482.2495650671517</v>
+      </c>
+      <c r="F64" s="16">
+        <f t="shared" si="53"/>
+        <v>4044.4840806331395</v>
+      </c>
+      <c r="G64" s="15">
+        <v>160</v>
+      </c>
+      <c r="H64" s="16">
+        <f t="shared" si="54"/>
+        <v>4204.4840806331395</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="49"/>
+        <v>39.793333970292259</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8269522860621619E-4</v>
+      </c>
+      <c r="K64" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L64" s="34">
+        <f t="shared" si="33"/>
+        <v>7.262139485987162</v>
+      </c>
+      <c r="M64" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>2700</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="25"/>
+        <v>3020</v>
+      </c>
+      <c r="C65" s="9">
+        <f t="shared" si="52"/>
+        <v>1.691034988671252E-3</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="47"/>
+        <v>1198000</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" si="48"/>
+        <v>9538.8598425870841</v>
+      </c>
+      <c r="F65" s="16">
+        <f t="shared" si="53"/>
+        <v>4051.7198328563195</v>
+      </c>
+      <c r="G65" s="15">
+        <v>160</v>
+      </c>
+      <c r="H65" s="16">
+        <f t="shared" si="54"/>
+        <v>4211.719832856319</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="49"/>
+        <v>39.861816737552473</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8294080591432078E-4</v>
+      </c>
+      <c r="K65" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L65" s="34">
+        <f t="shared" si="33"/>
+        <v>7.3739179603178835</v>
+      </c>
+      <c r="M65" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>2750</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="25"/>
+        <v>3070</v>
+      </c>
+      <c r="C66" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7011306900496747E-3</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="47"/>
+        <v>1193000</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="48"/>
+        <v>9595.8080909122455</v>
+      </c>
+      <c r="F66" s="16">
+        <f t="shared" si="53"/>
+        <v>4058.8978264585239</v>
+      </c>
+      <c r="G66" s="15">
+        <v>160</v>
+      </c>
+      <c r="H66" s="16">
+        <f t="shared" si="54"/>
+        <v>4218.8978264585239</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="49"/>
+        <v>39.92975284842155</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="50"/>
+        <v>6.83184006067491E-4</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L66" s="34">
+        <f t="shared" si="33"/>
+        <v>7.4846144342233085</v>
+      </c>
+      <c r="M66" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>2800</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="25"/>
+        <v>3120</v>
+      </c>
+      <c r="C67" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7112866640936575E-3</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="47"/>
+        <v>1188000</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="48"/>
+        <v>9653.0963277728133</v>
+      </c>
+      <c r="F67" s="16">
+        <f t="shared" si="53"/>
+        <v>4066.0171138865303</v>
+      </c>
+      <c r="G67" s="15">
+        <v>160</v>
+      </c>
+      <c r="H67" s="16">
+        <f t="shared" si="54"/>
+        <v>4226.0171138865298</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="49"/>
+        <v>39.997133334783264</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8342480846177221E-4</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L67" s="34">
+        <f t="shared" si="33"/>
+        <v>7.5942195294810286</v>
+      </c>
+      <c r="M67" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>2850</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="25"/>
+        <v>3170</v>
+      </c>
+      <c r="C68" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7215032706389439E-3</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="47"/>
+        <v>1183000</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="48"/>
+        <v>9710.7265829450735</v>
+      </c>
+      <c r="F68" s="16">
+        <f t="shared" si="53"/>
+        <v>4073.0767383317411</v>
+      </c>
+      <c r="G68" s="15">
+        <v>160</v>
+      </c>
+      <c r="H68" s="16">
+        <f t="shared" si="54"/>
+        <v>4233.0767383317416</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="49"/>
+        <v>40.063949140923938</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8366319223979802E-4</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L68" s="34">
+        <f t="shared" si="33"/>
+        <v>7.7027237525241805</v>
+      </c>
+      <c r="M68" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>2900</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="25"/>
+        <v>3220</v>
+      </c>
+      <c r="C69" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7317808716695441E-3</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="47"/>
+        <v>1178000</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="48"/>
+        <v>9768.7008983233482</v>
+      </c>
+      <c r="F69" s="16">
+        <f t="shared" si="53"/>
+        <v>4080.0757336534457</v>
+      </c>
+      <c r="G69" s="15">
+        <v>160</v>
+      </c>
+      <c r="H69" s="16">
+        <f t="shared" si="54"/>
+        <v>4240.0757336534462</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="49"/>
+        <v>40.130191122806089</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8389913628651112E-4</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L69" s="34">
+        <f t="shared" si="33"/>
+        <v>7.810117492493732</v>
+      </c>
+      <c r="M69" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>2950</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="25"/>
+        <v>3270</v>
+      </c>
+      <c r="C70" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7421198313305613E-3</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="47"/>
+        <v>1173000</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="48"/>
+        <v>9827.0213279923391</v>
+      </c>
+      <c r="F70" s="16">
+        <f t="shared" si="53"/>
+        <v>4087.0131243014971</v>
+      </c>
+      <c r="G70" s="15">
+        <v>160</v>
+      </c>
+      <c r="H70" s="16">
+        <f t="shared" si="54"/>
+        <v>4247.0131243014966</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="49"/>
+        <v>40.195850047336656</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8413261922479227E-4</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L70" s="34">
+        <f t="shared" si="33"/>
+        <v>7.9163910192489189</v>
+      </c>
+      <c r="M70" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>3000</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="25"/>
+        <v>3320</v>
+      </c>
+      <c r="C71" s="9">
+        <f t="shared" si="52"/>
+        <v>1.7525205159410917E-3</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="47"/>
+        <v>1168000</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="48"/>
+        <v>9885.6899382998981</v>
+      </c>
+      <c r="F71" s="16">
+        <f t="shared" si="53"/>
+        <v>4093.8879252383904</v>
+      </c>
+      <c r="G71" s="15">
+        <v>160</v>
+      </c>
+      <c r="H71" s="16">
+        <f t="shared" si="54"/>
+        <v>4253.8879252383904</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="49"/>
+        <v>40.260916591629503</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="50"/>
+        <v>6.8436361941099754E-4</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="51"/>
+        <v>1.8816317394061425E-4</v>
+      </c>
+      <c r="L71" s="34">
+        <f t="shared" si="33"/>
+        <v>8.0215344813359817</v>
+      </c>
+      <c r="M71" s="14">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="C72" s="9"/>
+      <c r="E72" s="10"/>
       <c r="F72" s="16"/>
       <c r="G72" s="15"/>
       <c r="H72" s="16"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-    </row>
-    <row r="73" spans="3:14">
-      <c r="C73" s="10"/>
-      <c r="E73" s="11"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="C73" s="9"/>
+      <c r="E73" s="10"/>
       <c r="F73" s="16"/>
       <c r="G73" s="15"/>
       <c r="H73" s="16"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-    </row>
-    <row r="74" spans="3:14">
-      <c r="C74" s="10"/>
-      <c r="E74" s="11"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="C74" s="9"/>
+      <c r="E74" s="10"/>
       <c r="F74" s="16"/>
       <c r="G74" s="15"/>
       <c r="H74" s="16"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" spans="3:14">
-      <c r="C75" s="10"/>
-      <c r="E75" s="11"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="C75" s="9"/>
+      <c r="E75" s="10"/>
       <c r="F75" s="16"/>
       <c r="G75" s="15"/>
       <c r="H75" s="16"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-    </row>
-    <row r="76" spans="3:14">
-      <c r="C76" s="10"/>
-      <c r="E76" s="11"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="C76" s="9"/>
+      <c r="E76" s="10"/>
       <c r="F76" s="16"/>
       <c r="G76" s="15"/>
       <c r="H76" s="16"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-    </row>
-    <row r="77" spans="3:14">
-      <c r="C77" s="10"/>
-      <c r="E77" s="11"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="C77" s="9"/>
+      <c r="E77" s="10"/>
       <c r="F77" s="16"/>
       <c r="G77" s="15"/>
       <c r="H77" s="16"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-    </row>
-    <row r="78" spans="3:14">
-      <c r="C78" s="10"/>
-      <c r="E78" s="11"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="C78" s="9"/>
+      <c r="E78" s="10"/>
       <c r="F78" s="16"/>
       <c r="G78" s="15"/>
       <c r="H78" s="16"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" spans="3:14">
-      <c r="C79" s="10"/>
-      <c r="E79" s="11"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" s="9"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="16"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-    </row>
-    <row r="80" spans="3:14">
-      <c r="C80" s="10"/>
-      <c r="E80" s="11"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="C80" s="9"/>
+      <c r="E80" s="10"/>
       <c r="F80" s="16"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="9"/>
     </row>
     <row r="81" spans="3:14">
-      <c r="C81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="C81" s="9"/>
+      <c r="E81" s="10"/>
       <c r="F81" s="16"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="9"/>
     </row>
     <row r="82" spans="3:14">
-      <c r="C82" s="10"/>
-      <c r="E82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="E82" s="10"/>
       <c r="F82" s="16"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="9"/>
     </row>
     <row r="83" spans="3:14">
-      <c r="C83" s="10"/>
-      <c r="E83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="E83" s="10"/>
       <c r="F83" s="16"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="9"/>
     </row>
     <row r="84" spans="3:14">
-      <c r="C84" s="10"/>
-      <c r="E84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="E84" s="10"/>
       <c r="F84" s="16"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="9"/>
     </row>
     <row r="85" spans="3:14">
-      <c r="C85" s="10"/>
-      <c r="E85" s="11"/>
+      <c r="C85" s="9"/>
+      <c r="E85" s="10"/>
       <c r="F85" s="16"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="9"/>
     </row>
     <row r="86" spans="3:14">
-      <c r="C86" s="10"/>
-      <c r="E86" s="11"/>
+      <c r="C86" s="9"/>
+      <c r="E86" s="10"/>
       <c r="F86" s="16"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="9"/>
     </row>
     <row r="87" spans="3:14">
-      <c r="C87" s="10"/>
-      <c r="E87" s="11"/>
+      <c r="C87" s="9"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="16"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="9"/>
     </row>
     <row r="88" spans="3:14">
-      <c r="C88" s="10"/>
-      <c r="E88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="E88" s="10"/>
       <c r="F88" s="16"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="9"/>
     </row>
     <row r="89" spans="3:14">
-      <c r="C89" s="10"/>
-      <c r="E89" s="11"/>
+      <c r="C89" s="9"/>
+      <c r="E89" s="10"/>
       <c r="F89" s="16"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="9"/>
     </row>
     <row r="90" spans="3:14">
-      <c r="C90" s="10"/>
-      <c r="E90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="E90" s="10"/>
       <c r="F90" s="16"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="9"/>
     </row>
     <row r="91" spans="3:14">
-      <c r="C91" s="10"/>
-      <c r="E91" s="11"/>
+      <c r="C91" s="9"/>
+      <c r="E91" s="10"/>
       <c r="F91" s="16"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="9"/>
     </row>
     <row r="92" spans="3:14">
-      <c r="C92" s="10"/>
-      <c r="E92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="E92" s="10"/>
       <c r="F92" s="16"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="9"/>
     </row>
     <row r="93" spans="3:14">
-      <c r="C93" s="10"/>
-      <c r="E93" s="11"/>
+      <c r="C93" s="9"/>
+      <c r="E93" s="10"/>
       <c r="F93" s="16"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="9"/>
     </row>
     <row r="94" spans="3:14">
-      <c r="C94" s="10"/>
-      <c r="E94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="E94" s="10"/>
       <c r="F94" s="16"/>
       <c r="G94" s="15"/>
       <c r="H94" s="16"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="9"/>
     </row>
     <row r="95" spans="3:14">
-      <c r="C95" s="10"/>
-      <c r="E95" s="11"/>
+      <c r="C95" s="9"/>
+      <c r="E95" s="10"/>
       <c r="F95" s="16"/>
       <c r="G95" s="15"/>
       <c r="H95" s="16"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="9"/>
     </row>
     <row r="96" spans="3:14">
-      <c r="C96" s="10"/>
-      <c r="E96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="E96" s="10"/>
       <c r="F96" s="16"/>
       <c r="G96" s="15"/>
       <c r="H96" s="16"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="9"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="C97" s="10"/>
-      <c r="E97" s="11"/>
+      <c r="C97" s="9"/>
+      <c r="E97" s="10"/>
       <c r="F97" s="16"/>
       <c r="G97" s="15"/>
       <c r="H97" s="16"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="9"/>
     </row>
     <row r="98" spans="1:14">
-      <c r="C98" s="10"/>
-      <c r="E98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="E98" s="10"/>
       <c r="F98" s="16"/>
       <c r="G98" s="15"/>
       <c r="H98" s="16"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="9"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="C99" s="10"/>
-      <c r="E99" s="11"/>
+      <c r="C99" s="9"/>
+      <c r="E99" s="10"/>
       <c r="F99" s="16"/>
       <c r="G99" s="15"/>
       <c r="H99" s="16"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="9"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="C100" s="10"/>
-      <c r="E100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="E100" s="10"/>
       <c r="F100" s="16"/>
       <c r="G100" s="15"/>
       <c r="H100" s="16"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="9"/>
     </row>
     <row r="101" spans="1:14">
-      <c r="C101" s="10"/>
-      <c r="E101" s="11"/>
+      <c r="C101" s="9"/>
+      <c r="E101" s="10"/>
       <c r="F101" s="16"/>
       <c r="G101" s="15"/>
       <c r="H101" s="16"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="9"/>
     </row>
     <row r="102" spans="1:14">
-      <c r="C102" s="10"/>
-      <c r="E102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="E102" s="10"/>
       <c r="F102" s="16"/>
       <c r="G102" s="15"/>
       <c r="H102" s="16"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="9"/>
     </row>
     <row r="103" spans="1:14">
-      <c r="C103" s="10"/>
-      <c r="E103" s="11"/>
+      <c r="C103" s="9"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="16"/>
       <c r="G103" s="15"/>
       <c r="H103" s="16"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="9"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="C104" s="10"/>
-      <c r="E104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="E104" s="10"/>
       <c r="F104" s="16"/>
       <c r="G104" s="15"/>
       <c r="H104" s="16"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="9"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="C105" s="10"/>
-      <c r="E105" s="11"/>
+      <c r="C105" s="9"/>
+      <c r="E105" s="10"/>
       <c r="F105" s="16"/>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="9"/>
     </row>
     <row r="106" spans="1:14">
-      <c r="C106" s="10"/>
-      <c r="E106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="E106" s="10"/>
       <c r="F106" s="16"/>
       <c r="G106" s="15"/>
       <c r="H106" s="16"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="9"/>
     </row>
     <row r="107" spans="1:14">
-      <c r="C107" s="10"/>
-      <c r="E107" s="11"/>
+      <c r="C107" s="9"/>
+      <c r="E107" s="10"/>
       <c r="F107" s="16"/>
       <c r="G107" s="15"/>
       <c r="H107" s="16"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="9"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="C108" s="10"/>
-      <c r="E108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="E108" s="10"/>
       <c r="F108" s="16"/>
       <c r="G108" s="15"/>
       <c r="H108" s="16"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="9"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="C109" s="10"/>
-      <c r="E109" s="11"/>
+      <c r="C109" s="9"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="16"/>
       <c r="G109" s="15"/>
       <c r="H109" s="16"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="9"/>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110">
-        <v>435</v>
-      </c>
-      <c r="B110">
-        <f t="shared" ref="B110" si="47">320+A110</f>
-        <v>755</v>
-      </c>
-      <c r="C110" s="10">
-        <f>$Q$3/($Q$5*100)*EXP(A110/($Q$5))</f>
-        <v>1.2913625531221138E-3</v>
-      </c>
-      <c r="D110">
-        <f t="shared" ref="D110" si="48">15*10^6-B110*100</f>
-        <v>14924500</v>
-      </c>
-      <c r="E110" s="11">
-        <f>C110/($Q$8/(2.98*10^8))</f>
-        <v>7284.3710997821254</v>
-      </c>
-      <c r="F110" s="16">
-        <f>C110*D110*$Q$4</f>
-        <v>38545.880848141976</v>
-      </c>
-      <c r="G110" s="15">
-        <v>245</v>
-      </c>
-      <c r="H110" s="16">
-        <f t="shared" ref="H110" si="49">G110+F110</f>
-        <v>38790.880848141976</v>
-      </c>
-      <c r="I110">
-        <f>H110/$Q$7</f>
-        <v>367.13624002102989</v>
-      </c>
-      <c r="J110" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I110^2-1)+I110)</f>
-        <v>9.9994359864472916E-4</v>
-      </c>
-      <c r="K110" s="10">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L110" s="10">
-        <f t="shared" ref="L110" si="50">J110-K110</f>
-        <v>8.1178042470411488E-4</v>
-      </c>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
+      <c r="C110" s="9"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="14"/>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="C112" s="9"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="3:11">
+      <c r="C113" s="9"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="16"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="3:11">
+      <c r="C114" s="9"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="16"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="C115" s="9"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="16"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116" s="9"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="16"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="3:11">
+      <c r="C117" s="9"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="16"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="C118" s="9"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="16"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119" s="9"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="16"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="3:11">
+      <c r="C120" s="9"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="16"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+    </row>
+    <row r="121" spans="3:11">
+      <c r="C121" s="9"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="16"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="3:11">
+      <c r="C122" s="9"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="16"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="3:11">
+      <c r="C123" s="9"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="16"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="3:11">
+      <c r="C124" s="9"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="16"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="3:11">
+      <c r="C125" s="9"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="16"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="3:11">
+      <c r="C126" s="9"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="16"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="3:11">
+      <c r="C127" s="9"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="16"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="3:11">
+      <c r="C128" s="9"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="16"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="3:11">
+      <c r="C129" s="9"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="16"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="3:11">
+      <c r="C130" s="9"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="16"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="3:11">
+      <c r="C131" s="9"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="16"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="3:11">
+      <c r="C132" s="9"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="16"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+    </row>
+    <row r="133" spans="3:11">
+      <c r="C133" s="9"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="16"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="3:11">
+      <c r="C134" s="9"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="16"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J8:M8"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4038,25 +5140,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B18:B20"/>
+  <dimension ref="B18:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Eq" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Energy limit =</t>
   </si>
@@ -29,9 +30,6 @@
     <t>g/cm^3</t>
   </si>
   <si>
-    <t>&lt;-- a guess</t>
-  </si>
-  <si>
     <t xml:space="preserve">ρ of device = </t>
   </si>
   <si>
@@ -62,9 +60,6 @@
     <t>t'= \alpha/\rho \ln(\sqrt{{\gamma }^{2} - 1}+\gamma) =\alpha/\rho =\ln(\sqrt{{\rho/\alpha*h }^{2} - 1}+\rho/\alpha*h )</t>
   </si>
   <si>
-    <t>p0</t>
-  </si>
-  <si>
     <t xml:space="preserve">m </t>
   </si>
   <si>
@@ -110,9 +105,6 @@
     <t xml:space="preserve">ρ/A * c </t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>ΔE (MeV)</t>
   </si>
   <si>
@@ -122,21 +114,12 @@
     <t>1/c units ?</t>
   </si>
   <si>
-    <t>E1 (eV)</t>
-  </si>
-  <si>
-    <t>γ_1</t>
-  </si>
-  <si>
     <t>t'_1</t>
   </si>
   <si>
     <t>t'_2</t>
   </si>
   <si>
-    <t>(in seconds if the units were right)</t>
-  </si>
-  <si>
     <t>h = elevation</t>
   </si>
   <si>
@@ -180,12 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve"> off by 100 at least so added correction</t>
-  </si>
-  <si>
-    <t>Here vs. Dallas</t>
-  </si>
-  <si>
-    <t>t' here</t>
   </si>
   <si>
     <r>
@@ -209,6 +186,42 @@
   </si>
   <si>
     <t>\begin{matrix}\partial \gamma mc^2 = \partial h \rho C_0 \therefore \gamma = \rho C_0/mc^2(h) \therefore \gamma_1 =?= \rho C_0/mc^2*H\\ 160eV/(105.658Me/c^2)*c^2=1.5 = \gamma_2 \neq C_0 \Delta s / mc^2 = 2 MeV/g/cm^2*10g/cm^2 /mc^2 \\ \therefore H = dh =?= 15 - h \text{ h and H is different in different paragraph sections}\\  E_1 = E_2 + \Delta E = E_2 + (H*\rho C_0) \\ \gamma_1 = E_1/mc^2 \therefore \gamma_1= (E_2 + (H*\rho C_0))/mc^2 \\ t' = A/\rho(ln(2\sqrt{(\gamma^2 -1)}+ \gamma))\\  t' = A/\rho(t'_2 - ln(2\sqrt{(\gamma_1^2 -1)}+ \gamma_1))\\  A = mc/C_0 \\  \end{matrix}</t>
+  </si>
+  <si>
+    <t>E1 (MeV)</t>
+  </si>
+  <si>
+    <t>γ1 (1/c^2)</t>
+  </si>
+  <si>
+    <t>E2 (MeV)</t>
+  </si>
+  <si>
+    <t>E2 =</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>p0=</t>
+  </si>
+  <si>
+    <t>&lt;- a guess</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m/s</t>
+  </si>
+  <si>
+    <t>Time Dilation Atl. Vs. Dallas.</t>
+  </si>
+  <si>
+    <t>Muon</t>
+  </si>
+  <si>
+    <t>Path Length (?)</t>
+  </si>
+  <si>
+    <t>Density of Air</t>
   </si>
 </sst>
 </file>
@@ -351,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -401,6 +414,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView topLeftCell="H18" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,33 +958,33 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="P2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="38"/>
+      <c r="P2" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="1:22">
       <c r="P3" s="18" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="19">
         <v>1030</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>0</v>
@@ -978,16 +999,16 @@
     </row>
     <row r="4" spans="1:22">
       <c r="P4" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="19">
         <v>2</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S4" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" s="19"/>
       <c r="U4" s="19">
@@ -998,18 +1019,25 @@
       </c>
     </row>
     <row r="5" spans="1:22">
+      <c r="K5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="19"/>
       <c r="P5" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="19">
         <f>8.4*10^3</f>
         <v>8400</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" s="19"/>
       <c r="U5" s="19">
@@ -1021,10 +1049,10 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1033,15 +1061,17 @@
       <c r="L6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="19"/>
+      <c r="P6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>299792458</v>
+      </c>
+      <c r="R6" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="S6" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6" s="19"/>
       <c r="U6" s="19">
@@ -1051,21 +1081,21 @@
     </row>
     <row r="7" spans="1:22">
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3"/>
       <c r="P7" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="19">
         <f>105.658</f>
         <v>105.658</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T7" s="19"/>
       <c r="U7" s="19">
@@ -1077,30 +1107,28 @@
     </row>
     <row r="8" spans="1:22">
       <c r="E8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="J8" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="19">
         <f>Q7/(Q4)</f>
         <v>52.829000000000001</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S8" s="22" t="s">
         <v>2</v>
@@ -1110,28 +1138,36 @@
         <v>2.1969999999999999E-6</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:22">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="Q9" s="26">
         <f xml:space="preserve"> 160</f>
         <v>160</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
@@ -1140,375 +1176,380 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="K10" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="8">
+      <c r="A11" s="38">
         <v>0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="36">
         <f>320+A11</f>
         <v>320</v>
       </c>
-      <c r="C11" s="28">
-        <f>$Q$3/($Q$5*100)*EXP(A11/($Q$5))</f>
+      <c r="C11" s="37">
+        <f t="shared" ref="C11:C29" si="0">$Q$3/($Q$5*100)*EXP(A11/($Q$5))</f>
         <v>1.2261904761904762E-3</v>
       </c>
       <c r="D11" s="8">
         <f>15*10^5-B11*100</f>
         <v>1468000</v>
       </c>
-      <c r="E11" s="29">
-        <f>C11/($Q$8/(2.98*10^8))</f>
-        <v>6916.7457628340853</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="37">
+        <f>C11/($Q$8/($Q$6*100))</f>
+        <v>695834.97100708575</v>
+      </c>
+      <c r="F11" s="40">
         <f>C11*D11*$Q$4</f>
         <v>3600.0952380952381</v>
       </c>
-      <c r="G11" s="31">
-        <v>160</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="G11" s="38">
+        <f>$Q$9</f>
+        <v>160</v>
+      </c>
+      <c r="H11" s="40">
         <f>G11+F11</f>
         <v>3760.0952380952381</v>
       </c>
-      <c r="I11" s="8">
-        <f>H11/$Q$7</f>
+      <c r="I11" s="36">
+        <f t="shared" ref="I11:I22" si="1">H11/$Q$7</f>
         <v>35.587416363126671</v>
       </c>
-      <c r="J11" s="28">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I11^2-1)+I11)</f>
-        <v>6.6674030815550239E-4</v>
-      </c>
-      <c r="K11" s="28">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L11" s="28">
-        <f>(J11-K11)*0.01</f>
-        <v>4.7857713421488809E-6</v>
+      <c r="J11" s="37">
+        <f t="shared" ref="J11:J23" si="2">($Q$7/($Q$6*100))/((C11*$Q$4))*LN(2*SQRT(I11^2-1)+I11)</f>
+        <v>6.7118516589314117E-6</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" ref="K11:K21" si="3">($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L11" s="9">
+        <f>(J11-K11)</f>
+        <v>4.8289172929780064E-6</v>
       </c>
       <c r="M11" s="32">
-        <f>1.5*EXP(-L11/$U$8)</f>
-        <v>0.16984722206201841</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" t="s">
-        <v>41</v>
+        <f>1.5*EXP(-$L11/$U$8)</f>
+        <v>0.16654420397482123</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12">
+      <c r="A12" s="15">
         <v>50</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B29" si="0">320+A12</f>
+        <f t="shared" ref="B12:B29" si="4">320+A12</f>
         <v>370</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ref="C12:C16" si="1">$Q$3/($Q$5*100)*EXP(A12/($Q$5))</f>
+        <f t="shared" si="0"/>
         <v>1.233510994667987E-3</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D57" si="2">15*10^5-B12*100</f>
+        <f t="shared" ref="D12:D57" si="5">15*10^5-B12*100</f>
         <v>1463000</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:E16" si="3">C12/($Q$8/(2.98*10^8))</f>
-        <v>6958.0396451013676</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" ref="F12:F16" si="4">C12*D12*$Q$4</f>
+      <c r="E12" s="37">
+        <f t="shared" ref="E12:E71" si="6">C12/($Q$8/($Q$6*100))</f>
+        <v>699989.19733771356</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" ref="F12:F71" si="7">C12*D12*$Q$4</f>
         <v>3609.2531703985301</v>
       </c>
-      <c r="G12" s="15">
-        <v>160</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" ref="H12:H16" si="5">G12+F12</f>
+      <c r="G12" s="38">
+        <f t="shared" ref="G12:G71" si="8">$Q$9</f>
+        <v>160</v>
+      </c>
+      <c r="H12" s="40">
+        <f t="shared" ref="H12:H71" si="9">G12+F12</f>
         <v>3769.2531703985301</v>
       </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I29" si="6">H12/$Q$7</f>
+      <c r="I12" s="36">
+        <f t="shared" si="1"/>
         <v>35.674091601189971</v>
       </c>
-      <c r="J12" s="9">
-        <f t="shared" ref="J12:J29" si="7">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I12^2-1)+I12)</f>
-        <v>6.6708776950530563E-4</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" ref="K12:K29" si="8">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
+      <c r="J12" s="37">
+        <f t="shared" si="2"/>
+        <v>6.6754958475837215E-6</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" ref="L12:L20" si="9">(J12-K12)*0.01</f>
-        <v>4.7892459556469136E-6</v>
+        <f t="shared" ref="L12:L20" si="10">(J12-K12)</f>
+        <v>4.7925614816303162E-6</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" ref="M12:M20" si="10">1.5*EXP(-L12/$U$8)</f>
-        <v>0.16957881649776255</v>
+        <f t="shared" ref="M12:M20" si="11">1.5*EXP(-L12/$U$8)</f>
+        <v>0.16932309554147207</v>
       </c>
       <c r="N12" s="9"/>
       <c r="P12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13">
+      <c r="A13" s="15">
         <v>100</v>
       </c>
       <c r="B13">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="C13" s="9">
+        <v>1.2408752176039978E-3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>1458000</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="6"/>
+        <v>704168.22494612308</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="7"/>
+        <v>3618.3921345332574</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H13" s="40">
+        <f t="shared" si="9"/>
+        <v>3778.3921345332574</v>
+      </c>
+      <c r="I13" s="36">
         <f t="shared" si="1"/>
-        <v>1.2408752176039978E-3</v>
-      </c>
-      <c r="D13">
+        <v>35.760587315047204</v>
+      </c>
+      <c r="J13" s="37">
         <f t="shared" si="2"/>
-        <v>1458000</v>
-      </c>
-      <c r="E13" s="10">
+        <v>6.6393196327313488E-6</v>
+      </c>
+      <c r="K13" s="37">
         <f t="shared" si="3"/>
-        <v>6999.5800572789822</v>
-      </c>
-      <c r="F13" s="16">
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="10"/>
+        <v>4.7563852667779435E-6</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="11"/>
+        <v>0.17213428270187717</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="15">
+        <v>150</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="4"/>
-        <v>3618.3921345332574</v>
-      </c>
-      <c r="G13" s="15">
-        <v>160</v>
-      </c>
-      <c r="H13" s="16">
+        <v>470</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2482834059198758E-3</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="5"/>
-        <v>3778.3921345332574</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>35.760587315047204</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6743366973517524E-4</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="9"/>
-        <v>4.7927049579456098E-6</v>
-      </c>
-      <c r="M13" s="14">
+        <v>1453000</v>
+      </c>
+      <c r="E14" s="37">
+        <f t="shared" si="6"/>
+        <v>708372.20189920557</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="7"/>
+        <v>3627.5115776031594</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H14" s="40">
+        <f t="shared" si="9"/>
+        <v>3787.5115776031594</v>
+      </c>
+      <c r="I14" s="36">
+        <f t="shared" si="1"/>
+        <v>35.846898271812442</v>
+      </c>
+      <c r="J14" s="37">
+        <f t="shared" si="2"/>
+        <v>6.6033221409801867E-6</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L14" s="9">
         <f t="shared" si="10"/>
-        <v>0.1693120381629569</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
-        <v>150</v>
-      </c>
-      <c r="B14">
+        <v>4.7203877750267814E-6</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="11"/>
+        <v>0.17497790779996691</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="15">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="C15" s="9">
         <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="C14" s="9">
+        <v>1.2557358220947239E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>1448000</v>
+      </c>
+      <c r="E15" s="37">
+        <f t="shared" si="6"/>
+        <v>712601.27714783163</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="7"/>
+        <v>3636.6109407863205</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H15" s="40">
+        <f t="shared" si="9"/>
+        <v>3796.6109407863205</v>
+      </c>
+      <c r="I15" s="36">
         <f t="shared" si="1"/>
-        <v>1.2482834059198758E-3</v>
-      </c>
-      <c r="D14">
+        <v>35.933019182516425</v>
+      </c>
+      <c r="J15" s="37">
         <f t="shared" si="2"/>
-        <v>1453000</v>
-      </c>
-      <c r="E14" s="10">
+        <v>6.5675025026732186E-6</v>
+      </c>
+      <c r="K15" s="37">
         <f t="shared" si="3"/>
-        <v>7041.3684711829301</v>
-      </c>
-      <c r="F14" s="16">
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="10"/>
+        <v>4.6845681367198133E-6</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="11"/>
+        <v>0.17785411065277845</v>
+      </c>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="15">
+        <v>250</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="4"/>
-        <v>3627.5115776031594</v>
-      </c>
-      <c r="G14" s="15">
-        <v>160</v>
-      </c>
-      <c r="H14" s="16">
+        <v>570</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2632327301746789E-3</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="5"/>
-        <v>3787.5115776031594</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
-        <v>35.846898271812442</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="7"/>
-        <v>6.677779972832918E-4</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="9"/>
-        <v>4.7961482334267755E-6</v>
-      </c>
-      <c r="M14" s="14">
+        <v>1443000</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="6"/>
+        <v>716855.60053212778</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="7"/>
+        <v>3645.6896592841235</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H16" s="40">
+        <f t="shared" si="9"/>
+        <v>3805.6896592841235</v>
+      </c>
+      <c r="I16" s="36">
+        <f t="shared" si="1"/>
+        <v>36.018944701623383</v>
+      </c>
+      <c r="J16" s="37">
+        <f t="shared" si="2"/>
+        <v>6.5318598518724433E-6</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" si="10"/>
-        <v>0.16904688960552883</v>
-      </c>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>200</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="C15" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2557358220947239E-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>1448000</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="3"/>
-        <v>7083.4063674161489</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="4"/>
-        <v>3636.6109407863205</v>
-      </c>
-      <c r="G15" s="15">
-        <v>160</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="5"/>
-        <v>3796.6109407863205</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>35.933019182516425</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6812074047449316E-4</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="9"/>
-        <v>4.7995756653387885E-6</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="10"/>
-        <v>0.16878337344949712</v>
-      </c>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>250</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="C16" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2632327301746789E-3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>1443000</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="3"/>
-        <v>7125.6952354209679</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="4"/>
-        <v>3645.6896592841235</v>
-      </c>
-      <c r="G16" s="15">
-        <v>160</v>
-      </c>
-      <c r="H16" s="16">
-        <f t="shared" si="5"/>
-        <v>3805.6896592841235</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
-        <v>36.018944701623383</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6846188751869099E-4</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="9"/>
-        <v>4.8029871357807671E-6</v>
+        <v>4.648925485919038E-6</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="10"/>
-        <v>0.16852149239611566</v>
+        <f t="shared" si="11"/>
+        <v>0.18076302852277418</v>
       </c>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17">
+      <c r="A17" s="15">
         <v>300</v>
       </c>
       <c r="B17">
@@ -1516,263 +1557,268 @@
         <v>620</v>
       </c>
       <c r="C17" s="9">
-        <f>$Q$3/($Q$5*100)*EXP(A17/($Q$5))</f>
+        <f t="shared" si="0"/>
         <v>1.2707743957822693E-3</v>
       </c>
       <c r="D17">
+        <f t="shared" si="5"/>
+        <v>1438000</v>
+      </c>
+      <c r="E17" s="37">
+        <f t="shared" si="6"/>
+        <v>721135.32278678624</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="7"/>
+        <v>3654.7471622698063</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H17" s="40">
+        <f t="shared" si="9"/>
+        <v>3814.7471622698063</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" si="1"/>
+        <v>36.104669426544191</v>
+      </c>
+      <c r="J17" s="37">
         <f t="shared" si="2"/>
-        <v>1438000</v>
-      </c>
-      <c r="E17" s="10">
-        <f>C17/($Q$8/(2.98*10^8))</f>
-        <v>7168.2365735318908</v>
-      </c>
-      <c r="F17" s="16">
-        <f>C17*D17*$Q$4</f>
-        <v>3654.7471622698063</v>
-      </c>
-      <c r="G17" s="15">
-        <v>160</v>
-      </c>
-      <c r="H17" s="16">
-        <f>G17+F17</f>
-        <v>3814.7471622698063</v>
-      </c>
-      <c r="I17">
-        <f>H17/$Q$7</f>
-        <v>36.104669426544191</v>
-      </c>
-      <c r="J17" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I17^2-1)+I17)</f>
-        <v>6.6880142650925902E-4</v>
-      </c>
-      <c r="K17" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
+        <v>6.4963933263408205E-6</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="9"/>
-        <v>4.8063825256864477E-6</v>
+        <f t="shared" si="10"/>
+        <v>4.6134589603874152E-6</v>
       </c>
       <c r="M17" s="14">
+        <f t="shared" si="11"/>
+        <v>0.18370479609085835</v>
+      </c>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="15">
+        <v>350</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2783610861258228E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>1433000</v>
+      </c>
+      <c r="E18" s="37">
+        <f t="shared" si="6"/>
+        <v>725440.5955464046</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="7"/>
+        <v>3663.782872836608</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H18" s="40">
+        <f t="shared" si="9"/>
+        <v>3823.782872836608</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="1"/>
+        <v>36.190187897145584</v>
+      </c>
+      <c r="J18" s="37">
+        <f t="shared" si="2"/>
+        <v>6.4611020675242624E-6</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L18" s="9">
         <f t="shared" si="10"/>
-        <v>0.16826124922504032</v>
-      </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18">
-        <v>350</v>
-      </c>
-      <c r="B18">
+        <v>4.5781677015708571E-6</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="11"/>
+        <v>0.18667954543009938</v>
+      </c>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="15">
+        <v>400</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>670</v>
-      </c>
-      <c r="C18" s="9">
-        <f t="shared" ref="C18:C21" si="11">$Q$3/($Q$5*100)*EXP(A18/($Q$5))</f>
-        <v>1.2783610861258228E-3</v>
-      </c>
-      <c r="D18">
+        <v>1.2859930700089377E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>1428000</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="6"/>
+        <v>729771.57135085936</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="7"/>
+        <v>3672.796207945526</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H19" s="40">
+        <f t="shared" si="9"/>
+        <v>3832.796207945526</v>
+      </c>
+      <c r="I19" s="36">
+        <f t="shared" si="1"/>
+        <v>36.275494595255694</v>
+      </c>
+      <c r="J19" s="37">
         <f t="shared" si="2"/>
-        <v>1433000</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" ref="E18:E21" si="12">C18/($Q$8/(2.98*10^8))</f>
-        <v>7211.0318890286626</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" ref="F18:F21" si="13">C18*D18*$Q$4</f>
-        <v>3663.782872836608</v>
-      </c>
-      <c r="G18" s="15">
-        <v>160</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" ref="H18:H21" si="14">G18+F18</f>
-        <v>3823.782872836608</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>36.190187897145584</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6913934542139344E-4</v>
-      </c>
-      <c r="K18" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="9"/>
-        <v>4.8097617148077915E-6</v>
-      </c>
-      <c r="M18" s="14">
+        <v>6.4259852205336216E-6</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="10"/>
-        <v>0.16800264679551846</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19">
-        <v>400</v>
-      </c>
-      <c r="B19">
+        <v>4.5430508545802163E-6</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="11"/>
+        <v>0.18968740598016967</v>
+      </c>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="15">
+        <v>450</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>770</v>
+      </c>
+      <c r="C20" s="9">
         <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="C19" s="9">
+        <v>1.2936706178400049E-3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>1423000</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="6"/>
+        <v>734128.40365071024</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="7"/>
+        <v>3681.7865783726538</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H20" s="40">
+        <f t="shared" si="9"/>
+        <v>3841.7865783726538</v>
+      </c>
+      <c r="I20" s="36">
+        <f t="shared" si="1"/>
+        <v>36.360583944165647</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="2"/>
+        <v>6.3910419341267324E-6</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="10"/>
+        <v>4.5081075681733271E-6</v>
+      </c>
+      <c r="M20" s="14">
         <f t="shared" si="11"/>
-        <v>1.2859930700089377E-3</v>
-      </c>
-      <c r="D19">
+        <v>0.19272850452250639</v>
+      </c>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="15">
+        <v>500</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>820</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.3013940016417883E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>1418000</v>
+      </c>
+      <c r="E21" s="37">
+        <f t="shared" si="6"/>
+        <v>738511.2468126365</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="7"/>
+        <v>3690.7533886561114</v>
+      </c>
+      <c r="G21" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H21" s="40">
+        <f t="shared" si="9"/>
+        <v>3850.7533886561114</v>
+      </c>
+      <c r="I21" s="36">
+        <f t="shared" si="1"/>
+        <v>36.44545030812727</v>
+      </c>
+      <c r="J21" s="37">
         <f t="shared" si="2"/>
-        <v>1428000</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="12"/>
-        <v>7254.0826981896962</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="13"/>
-        <v>3672.796207945526</v>
-      </c>
-      <c r="G19" s="15">
-        <v>160</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="14"/>
-        <v>3832.796207945526</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>36.275494595255694</v>
-      </c>
-      <c r="J19" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6947563211044547E-4</v>
-      </c>
-      <c r="K19" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="9"/>
-        <v>4.8131245816983124E-6</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="10"/>
-        <v>0.16774568804760179</v>
-      </c>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20">
-        <v>450</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="C20" s="9">
-        <f t="shared" si="11"/>
-        <v>1.2936706178400049E-3</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>1423000</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="12"/>
-        <v>7297.3905263457846</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="13"/>
-        <v>3681.7865783726538</v>
-      </c>
-      <c r="G20" s="15">
-        <v>160</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="14"/>
-        <v>3841.7865783726538</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
-        <v>36.360583944165647</v>
-      </c>
-      <c r="J20" s="9">
-        <f t="shared" si="7"/>
-        <v>6.6981027431022543E-4</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="9"/>
-        <v>4.8164710036961115E-6</v>
-      </c>
-      <c r="M20" s="14">
-        <f t="shared" si="10"/>
-        <v>0.16749037600338246</v>
-      </c>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21">
-        <v>500</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>820</v>
-      </c>
-      <c r="C21" s="9">
-        <f t="shared" si="11"/>
-        <v>1.3013940016417883E-3</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>1418000</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="12"/>
-        <v>7340.9569079341445</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="13"/>
-        <v>3690.7533886561114</v>
-      </c>
-      <c r="G21" s="15">
-        <v>160</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="14"/>
-        <v>3850.7533886561114</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
-        <v>36.44545030812727</v>
-      </c>
-      <c r="J21" s="9">
-        <f t="shared" si="7"/>
-        <v>6.7014325963127611E-4</v>
-      </c>
-      <c r="K21" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="39"/>
+        <v>6.3562713606904605E-6</v>
+      </c>
+      <c r="K21" s="37">
+        <f t="shared" si="3"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="45"/>
       <c r="N21" s="9"/>
       <c r="W21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22">
+      <c r="A22" s="15">
         <v>550</v>
       </c>
       <c r="B22">
@@ -1780,739 +1826,753 @@
         <v>870</v>
       </c>
       <c r="C22" s="9">
-        <f>$Q$3/($Q$5*100)*EXP(A22/($Q$5))</f>
+        <f t="shared" si="0"/>
         <v>1.3091634950610639E-3</v>
       </c>
       <c r="D22">
+        <f t="shared" si="5"/>
+        <v>1413000</v>
+      </c>
+      <c r="E22" s="37">
+        <f t="shared" si="6"/>
+        <v>742920.25612490717</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="7"/>
+        <v>3699.6960370425663</v>
+      </c>
+      <c r="G22" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H22" s="40">
+        <f t="shared" si="9"/>
+        <v>3859.6960370425663</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>36.530087991846962</v>
+      </c>
+      <c r="J22" s="37">
         <f t="shared" si="2"/>
-        <v>1413000</v>
-      </c>
-      <c r="E22" s="10">
-        <f>C22/($Q$8/(2.98*10^8))</f>
-        <v>7384.7833865527846</v>
-      </c>
-      <c r="F22" s="16">
-        <f>C22*D22*$Q$4</f>
-        <v>3699.6960370425663</v>
-      </c>
-      <c r="G22" s="15">
-        <v>160</v>
-      </c>
-      <c r="H22" s="16">
-        <f>G22+F22</f>
-        <v>3859.6960370425663</v>
-      </c>
-      <c r="I22">
-        <f>H22/$Q$7</f>
-        <v>36.530087991846962</v>
-      </c>
-      <c r="J22" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I22^2-1)+I22)</f>
-        <v>6.7047457555911708E-4</v>
-      </c>
-      <c r="K22" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
+        <v>6.3216726562227695E-6</v>
+      </c>
+      <c r="K22" s="37">
+        <f t="shared" ref="K22:K71" si="12">($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23">
+      <c r="A23" s="15">
         <v>600</v>
       </c>
       <c r="B23">
+        <f t="shared" si="4"/>
+        <v>920</v>
+      </c>
+      <c r="C23" s="9">
         <f t="shared" si="0"/>
-        <v>920</v>
-      </c>
-      <c r="C23" s="9">
-        <f t="shared" ref="C23:C24" si="15">$Q$3/($Q$5*100)*EXP(A23/($Q$5))</f>
         <v>1.3169793733783151E-3</v>
       </c>
       <c r="D23">
+        <f t="shared" si="5"/>
+        <v>1408000</v>
+      </c>
+      <c r="E23" s="37">
+        <f t="shared" si="6"/>
+        <v>747355.58780288254</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="7"/>
+        <v>3708.613915433335</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H23" s="40">
+        <f t="shared" si="9"/>
+        <v>3868.613915433335</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I29" si="13">H23/$Q$7</f>
+        <v>36.614491239975536</v>
+      </c>
+      <c r="J23" s="37">
         <f t="shared" si="2"/>
-        <v>1408000</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" ref="E23:E24" si="16">C23/($Q$8/(2.98*10^8))</f>
-        <v>7428.8715150151984</v>
-      </c>
-      <c r="F23" s="16">
-        <f t="shared" ref="F23:F24" si="17">C23*D23*$Q$4</f>
-        <v>3708.613915433335</v>
-      </c>
-      <c r="G23" s="15">
-        <v>160</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" ref="H23:H24" si="18">G23+F23</f>
-        <v>3868.613915433335</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
-        <v>36.614491239975536</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" si="7"/>
-        <v>6.7080420945245776E-4</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
+        <v>6.2872449803148267E-6</v>
+      </c>
+      <c r="K23" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L23" s="32">
-        <f t="shared" ref="L23:L30" si="19">(J23-$J$11)/($U$8)</f>
-        <v>1.8497502489555615</v>
+        <f>($J$11-$J$23)/($U$8)</f>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" ref="M23:M30" si="20">1.5*EXP(-L23)</f>
-        <v>0.23591466204664097</v>
+        <f>1.5*EXP(-L23)</f>
+        <v>1.236393318215351</v>
       </c>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24">
+      <c r="A24" s="38">
         <v>650</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="36">
+        <f t="shared" si="4"/>
+        <v>970</v>
+      </c>
+      <c r="C24" s="37">
         <f t="shared" si="0"/>
-        <v>970</v>
-      </c>
-      <c r="C24" s="9">
-        <f t="shared" si="15"/>
         <v>1.3248419135174858E-3</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
+      <c r="D24" s="36">
+        <f t="shared" si="5"/>
         <v>1403000</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="16"/>
-        <v>7473.2228554053791</v>
-      </c>
-      <c r="F24" s="16">
-        <f t="shared" si="17"/>
+      <c r="E24" s="37">
+        <f t="shared" si="6"/>
+        <v>751817.39899454941</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="7"/>
         <v>3717.5064093300653</v>
       </c>
-      <c r="G24" s="15">
-        <v>160</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="18"/>
+      <c r="G24" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H24" s="40">
+        <f t="shared" si="9"/>
         <v>3877.5064093300653</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>36.698654236594152</v>
       </c>
-      <c r="J24" s="9">
-        <f t="shared" si="7"/>
-        <v>6.7113214854137924E-4</v>
-      </c>
-      <c r="K24" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
+      <c r="J24" s="37">
+        <f t="shared" ref="J24:J71" si="14">($Q$7/($Q$6*100))/((C24*$Q$4))*LN(2*SQRT(I24^2-1)+I24)</f>
+        <v>6.2529874961331075E-6</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L24" s="32">
-        <f t="shared" si="19"/>
-        <v>1.999017016785092</v>
+        <f t="shared" ref="L24:L71" si="15">($J$11-$J$23)/($U$8)</f>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="20"/>
-        <v>0.20320257143116952</v>
+        <f t="shared" ref="M24:M71" si="16">1.5*EXP(-L24)</f>
+        <v>1.236393318215351</v>
       </c>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25">
+      <c r="A25" s="38">
         <v>700</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="36">
         <f>320+A25</f>
         <v>1020</v>
       </c>
-      <c r="C25" s="9">
-        <f>$Q$3/($Q$5*100)*EXP(A25/($Q$5))</f>
+      <c r="C25" s="37">
+        <f t="shared" si="0"/>
         <v>1.3327513940557926E-3</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
+      <c r="D25" s="36">
+        <f t="shared" si="5"/>
         <v>1398000</v>
       </c>
-      <c r="E25" s="10">
-        <f>C25/($Q$8/(2.98*10^8))</f>
-        <v>7517.8389791331692</v>
-      </c>
-      <c r="F25" s="16">
-        <f>C25*D25*$Q$4</f>
+      <c r="E25" s="37">
+        <f t="shared" si="6"/>
+        <v>756305.84778608836</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="7"/>
         <v>3726.372897779996</v>
       </c>
-      <c r="G25" s="15">
-        <v>160</v>
-      </c>
-      <c r="H25" s="16">
-        <f>G25+F25</f>
+      <c r="G25" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H25" s="40">
+        <f t="shared" si="9"/>
         <v>3886.372897779996</v>
       </c>
       <c r="I25">
         <f>H25/$Q$7</f>
         <v>36.782571104696245</v>
       </c>
-      <c r="J25" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I25^2-1)+I25)</f>
-        <v>6.7145837992548365E-4</v>
-      </c>
-      <c r="K25" s="9">
-        <f>($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
+      <c r="J25" s="37">
+        <f t="shared" si="14"/>
+        <v>6.2188993704015359E-6</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
       </c>
       <c r="L25" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="38">
+        <v>750</v>
+      </c>
+      <c r="B26" s="36">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+      <c r="C26" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3407080952335941E-3</v>
+      </c>
+      <c r="D26" s="36">
+        <f t="shared" si="5"/>
+        <v>1393000</v>
+      </c>
+      <c r="E26" s="37">
+        <f t="shared" si="6"/>
+        <v>760821.0932074755</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="7"/>
+        <v>3735.2127533207931</v>
+      </c>
+      <c r="G26" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H26" s="40">
+        <f t="shared" si="9"/>
+        <v>3895.2127533207931</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="13"/>
+        <v>36.866235905665384</v>
+      </c>
+      <c r="J26" s="37">
+        <f t="shared" si="14"/>
+        <v>6.1849797733836359E-6</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L26" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="38">
+        <v>800</v>
+      </c>
+      <c r="B27" s="36">
+        <f t="shared" si="4"/>
+        <v>1120</v>
+      </c>
+      <c r="C27" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3487122989643211E-3</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="5"/>
+        <v>1388000</v>
+      </c>
+      <c r="E27" s="37">
+        <f t="shared" si="6"/>
+        <v>765363.29523811664</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="7"/>
+        <v>3744.0253419249557</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H27" s="40">
+        <f t="shared" si="9"/>
+        <v>3904.0253419249557</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="13"/>
+        <v>36.949642638749133</v>
+      </c>
+      <c r="J27" s="37">
+        <f t="shared" si="14"/>
+        <v>6.1512278788646946E-6</v>
+      </c>
+      <c r="K27" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="38">
+        <v>850</v>
+      </c>
+      <c r="B28" s="36">
+        <f t="shared" si="4"/>
+        <v>1170</v>
+      </c>
+      <c r="C28" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3567642888444649E-3</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="5"/>
+        <v>1383000</v>
+      </c>
+      <c r="E28" s="37">
+        <f t="shared" si="6"/>
+        <v>769932.61481251603</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="7"/>
+        <v>3752.81002294379</v>
+      </c>
+      <c r="G28" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H28" s="40">
+        <f t="shared" si="9"/>
+        <v>3912.81002294379</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="13"/>
+        <v>37.032785240528781</v>
+      </c>
+      <c r="J28" s="37">
+        <f t="shared" si="14"/>
+        <v>6.1176428641339491E-6</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M28" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="38">
+        <v>900</v>
+      </c>
+      <c r="B29" s="36">
+        <f t="shared" si="4"/>
+        <v>1220</v>
+      </c>
+      <c r="C29" s="37">
+        <f t="shared" si="0"/>
+        <v>1.3648643501636248E-3</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="5"/>
+        <v>1378000</v>
+      </c>
+      <c r="E29" s="37">
+        <f t="shared" si="6"/>
+        <v>774529.21382597776</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="7"/>
+        <v>3761.5661490509501</v>
+      </c>
+      <c r="G29" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H29" s="40">
+        <f t="shared" si="9"/>
+        <v>3921.5661490509501</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="13"/>
+        <v>37.115657584384998</v>
+      </c>
+      <c r="J29" s="37">
+        <f t="shared" si="14"/>
+        <v>6.08422390996678E-6</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L29" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M29" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="38">
+        <v>950</v>
+      </c>
+      <c r="B30" s="36">
+        <f t="shared" ref="B30:B71" si="17">320+A30</f>
+        <v>1270</v>
+      </c>
+      <c r="C30" s="37">
+        <f t="shared" ref="C30:C35" si="18">$Q$3/($Q$5*100)*EXP(A30/($Q$5))</f>
+        <v>1.3730127699146167E-3</v>
+      </c>
+      <c r="D30" s="36">
+        <f t="shared" si="5"/>
+        <v>1373000</v>
+      </c>
+      <c r="E30" s="37">
+        <f t="shared" si="6"/>
+        <v>779153.25514034217</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="7"/>
+        <v>3770.2930661855376</v>
+      </c>
+      <c r="G30" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H30" s="40">
+        <f t="shared" si="9"/>
+        <v>3930.2930661855376</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I57" si="19">H30/$Q$7</f>
+        <v>37.198253479959277</v>
+      </c>
+      <c r="J30" s="37">
+        <f t="shared" si="14"/>
+        <v>6.0509702006069233E-6</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L30" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M30" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="17"/>
+        <v>1320</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3812098368036411E-3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="5"/>
+        <v>1368000</v>
+      </c>
+      <c r="E31" s="37">
+        <f t="shared" si="6"/>
+        <v>783804.90258975641</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="7"/>
+        <v>3778.9901134947622</v>
+      </c>
+      <c r="G31" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H31" s="40">
+        <f t="shared" si="9"/>
+        <v>3938.9901134947622</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="19"/>
-        <v>2.1475064952122223</v>
-      </c>
-      <c r="M25" s="14">
-        <f t="shared" si="20"/>
-        <v>0.17516246100563393</v>
-      </c>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26">
-        <v>750</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>1070</v>
-      </c>
-      <c r="C26" s="9">
-        <f t="shared" ref="C26:C29" si="21">$Q$3/($Q$5*100)*EXP(A26/($Q$5))</f>
-        <v>1.3407080952335941E-3</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>1393000</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" ref="E26:E29" si="22">C26/($Q$8/(2.98*10^8))</f>
-        <v>7562.7214669899313</v>
-      </c>
-      <c r="F26" s="16">
-        <f t="shared" ref="F26:F29" si="23">C26*D26*$Q$4</f>
-        <v>3735.2127533207931</v>
-      </c>
-      <c r="G26" s="15">
-        <v>160</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" ref="H26:H29" si="24">G26+F26</f>
-        <v>3895.2127533207931</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
-        <v>36.866235905665384</v>
-      </c>
-      <c r="J26" s="9">
-        <f t="shared" si="7"/>
-        <v>6.7178289057201132E-4</v>
-      </c>
-      <c r="K26" s="9">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L26" s="32">
+        <v>37.280566672611279</v>
+      </c>
+      <c r="J31" s="37">
+        <f t="shared" si="14"/>
+        <v>6.0178809237486898E-6</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L31" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="15">
+        <v>1050</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="17"/>
+        <v>1370</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3894558412605132E-3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="5"/>
+        <v>1363000</v>
+      </c>
+      <c r="E32" s="37">
+        <f t="shared" si="6"/>
+        <v>788484.32098647917</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="7"/>
+        <v>3787.6566232761593</v>
+      </c>
+      <c r="G32" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H32" s="40">
+        <f t="shared" si="9"/>
+        <v>3947.6566232761593</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="19"/>
-        <v>2.2952127521661017</v>
-      </c>
-      <c r="M26" s="14">
-        <f t="shared" si="20"/>
-        <v>0.15110993751580593</v>
-      </c>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="8">
-        <v>800</v>
-      </c>
-      <c r="B27" s="8">
-        <f t="shared" si="0"/>
-        <v>1120</v>
-      </c>
-      <c r="C27" s="28">
-        <f t="shared" si="21"/>
-        <v>1.3487122989643211E-3</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="2"/>
-        <v>1388000</v>
-      </c>
-      <c r="E27" s="29">
-        <f t="shared" si="22"/>
-        <v>7607.8719092045603</v>
-      </c>
-      <c r="F27" s="30">
-        <f t="shared" si="23"/>
-        <v>3744.0253419249557</v>
-      </c>
-      <c r="G27" s="31">
-        <v>160</v>
-      </c>
-      <c r="H27" s="30">
-        <f t="shared" si="24"/>
-        <v>3904.0253419249557</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="6"/>
-        <v>36.949642638749133</v>
-      </c>
-      <c r="J27" s="28">
-        <f t="shared" si="7"/>
-        <v>6.7210566731392438E-4</v>
-      </c>
-      <c r="K27" s="28">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L27" s="32">
+        <v>37.362590842871903</v>
+      </c>
+      <c r="J32" s="37">
+        <f t="shared" si="14"/>
+        <v>5.9849552705191957E-6</v>
+      </c>
+      <c r="K32" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L32" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="15">
+        <v>1100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="17"/>
+        <v>1420</v>
+      </c>
+      <c r="C33" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3977510754489516E-3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>1358000</v>
+      </c>
+      <c r="E33" s="37">
+        <f t="shared" si="6"/>
+        <v>793191.67612671945</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="7"/>
+        <v>3796.2919209193524</v>
+      </c>
+      <c r="G33" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H33" s="40">
+        <f t="shared" si="9"/>
+        <v>3956.2919209193524</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="19"/>
-        <v>2.4421297944569798</v>
-      </c>
-      <c r="M27" s="32">
-        <f t="shared" si="20"/>
-        <v>0.13046312145792266</v>
-      </c>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="8">
-        <v>850</v>
-      </c>
-      <c r="B28" s="8">
-        <f t="shared" si="0"/>
-        <v>1170</v>
-      </c>
-      <c r="C28" s="28">
-        <f t="shared" si="21"/>
-        <v>1.3567642888444649E-3</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="2"/>
-        <v>1383000</v>
-      </c>
-      <c r="E28" s="29">
-        <f t="shared" si="22"/>
-        <v>7653.291905499831</v>
-      </c>
-      <c r="F28" s="30">
-        <f t="shared" si="23"/>
-        <v>3752.81002294379</v>
-      </c>
-      <c r="G28" s="31">
-        <v>160</v>
-      </c>
-      <c r="H28" s="30">
-        <f t="shared" si="24"/>
-        <v>3912.81002294379</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" si="6"/>
-        <v>37.032785240528781</v>
-      </c>
-      <c r="J28" s="28">
-        <f t="shared" si="7"/>
-        <v>6.7242669684795581E-4</v>
-      </c>
-      <c r="K28" s="28">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L28" s="32">
+        <v>37.444319605892147</v>
+      </c>
+      <c r="J33" s="37">
+        <f t="shared" si="14"/>
+        <v>5.9521924354606056E-6</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L33" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M33" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="15">
+        <v>1150</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="17"/>
+        <v>1470</v>
+      </c>
+      <c r="C34" s="9">
+        <f t="shared" si="18"/>
+        <v>1.4060958332769314E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>1353000</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" si="6"/>
+        <v>797927.1347965122</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="7"/>
+        <v>3804.8953248473763</v>
+      </c>
+      <c r="G34" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H34" s="40">
+        <f t="shared" si="9"/>
+        <v>3964.8953248473763</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="19"/>
-        <v>2.5882515668882173</v>
-      </c>
-      <c r="M28" s="32">
-        <f t="shared" si="20"/>
-        <v>0.1127269835147075</v>
-      </c>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="8">
-        <v>900</v>
-      </c>
-      <c r="B29" s="8">
-        <f t="shared" si="0"/>
-        <v>1220</v>
-      </c>
-      <c r="C29" s="28">
-        <f t="shared" si="21"/>
-        <v>1.3648643501636248E-3</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="2"/>
-        <v>1378000</v>
-      </c>
-      <c r="E29" s="29">
-        <f t="shared" si="22"/>
-        <v>7698.9830651490693</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" si="23"/>
-        <v>3761.5661490509501</v>
-      </c>
-      <c r="G29" s="31">
-        <v>160</v>
-      </c>
-      <c r="H29" s="30">
-        <f t="shared" si="24"/>
-        <v>3921.5661490509501</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="6"/>
-        <v>37.115657584384998</v>
-      </c>
-      <c r="J29" s="28">
-        <f t="shared" si="7"/>
-        <v>6.7274596573262341E-4</v>
-      </c>
-      <c r="K29" s="28">
-        <f t="shared" si="8"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L29" s="32">
+        <v>37.525746510887735</v>
+      </c>
+      <c r="J34" s="37">
+        <f t="shared" si="14"/>
+        <v>5.9195916165123704E-6</v>
+      </c>
+      <c r="K34" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L34" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
+      </c>
+      <c r="M34" s="14">
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
+      </c>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="15">
+        <v>1200</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="17"/>
+        <v>1520</v>
+      </c>
+      <c r="C35" s="9">
+        <f t="shared" si="18"/>
+        <v>1.4144904104070963E-3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>1348000</v>
+      </c>
+      <c r="E35" s="37">
+        <f t="shared" si="6"/>
+        <v>802690.86477762624</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="7"/>
+        <v>3813.466146457532</v>
+      </c>
+      <c r="G35" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H35" s="40">
+        <f t="shared" si="9"/>
+        <v>3973.466146457532</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="19"/>
-        <v>2.7335719513523067</v>
-      </c>
-      <c r="M29" s="32">
-        <f t="shared" si="20"/>
-        <v>9.7480117656577825E-2</v>
-      </c>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30">
-        <v>950</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30:B71" si="25">320+A30</f>
-        <v>1270</v>
-      </c>
-      <c r="C30" s="9">
-        <f t="shared" ref="C30:C35" si="26">$Q$3/($Q$5*100)*EXP(A30/($Q$5))</f>
-        <v>1.3730127699146167E-3</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>1373000</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" ref="E30:E57" si="27">C30/($Q$8/(2.98*10^8))</f>
-        <v>7744.9470070331781</v>
-      </c>
-      <c r="F30" s="16">
-        <f t="shared" ref="F30:F35" si="28">C30*D30*$Q$4</f>
-        <v>3770.2930661855376</v>
-      </c>
-      <c r="G30" s="15">
-        <v>160</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" ref="H30:H35" si="29">G30+F30</f>
-        <v>3930.2930661855376</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ref="I30:I57" si="30">H30/$Q$7</f>
-        <v>37.198253479959277</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" ref="J30:J57" si="31">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I30^2-1)+I30)</f>
-        <v>6.7306346038620941E-4</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" ref="K30:K57" si="32">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L30" s="34">
-        <f t="shared" si="19"/>
-        <v>2.8780847659112507</v>
-      </c>
-      <c r="M30" s="14">
-        <f t="shared" si="20"/>
-        <v>8.4363565598707196E-2</v>
-      </c>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31">
-        <v>1000</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="25"/>
-        <v>1320</v>
-      </c>
-      <c r="C31" s="9">
-        <f t="shared" si="26"/>
-        <v>1.3812098368036411E-3</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>1368000</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="27"/>
-        <v>7791.185359697989</v>
-      </c>
-      <c r="F31" s="16">
-        <f t="shared" si="28"/>
-        <v>3778.9901134947622</v>
-      </c>
-      <c r="G31" s="15">
-        <v>160</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="29"/>
-        <v>3938.9901134947622</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="30"/>
-        <v>37.280566672611279</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7337916708470143E-4</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L31" s="34">
-        <f>(J31-$J$11)/($U$8)</f>
-        <v>3.0217837638593688</v>
-      </c>
-      <c r="M31" s="14">
-        <f>1.5*EXP(-L31)</f>
-        <v>7.3071369156677002E-2</v>
-      </c>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32">
-        <v>1050</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="25"/>
-        <v>1370</v>
-      </c>
-      <c r="C32" s="9">
-        <f t="shared" si="26"/>
-        <v>1.3894558412605132E-3</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>1363000</v>
-      </c>
-      <c r="E32" s="10">
-        <f t="shared" si="27"/>
-        <v>7837.69976141197</v>
-      </c>
-      <c r="F32" s="16">
-        <f t="shared" si="28"/>
-        <v>3787.6566232761593</v>
-      </c>
-      <c r="G32" s="15">
-        <v>160</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="29"/>
-        <v>3947.6566232761593</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="30"/>
-        <v>37.362590842871903</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7369307195969867E-4</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L32" s="34">
-        <f t="shared" ref="L32:L71" si="33">(J32-$J$11)/($U$8)</f>
-        <v>3.1646626327702685</v>
-      </c>
-      <c r="M32" s="14">
-        <f t="shared" ref="M32:M59" si="34">1.5*EXP(-L32)</f>
-        <v>6.3342578827188023E-2</v>
-      </c>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
-        <v>1100</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="25"/>
-        <v>1420</v>
-      </c>
-      <c r="C33" s="9">
-        <f t="shared" si="26"/>
-        <v>1.3977510754489516E-3</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>1358000</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="27"/>
-        <v>7884.4918602242633</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="28"/>
-        <v>3796.2919209193524</v>
-      </c>
-      <c r="G33" s="15">
-        <v>160</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="29"/>
-        <v>3956.2919209193524</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="30"/>
-        <v>37.444319605892147</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7400516099627803E-4</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L33" s="34">
-        <f t="shared" si="33"/>
-        <v>3.3067149935255524</v>
-      </c>
-      <c r="M33" s="14">
-        <f t="shared" si="34"/>
-        <v>5.4954490297150452E-2</v>
-      </c>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
-        <v>1150</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="25"/>
-        <v>1470</v>
-      </c>
-      <c r="C34" s="9">
-        <f t="shared" si="26"/>
-        <v>1.4060958332769314E-3</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>1353000</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" si="27"/>
-        <v>7931.5633140230848</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="28"/>
-        <v>3804.8953248473763</v>
-      </c>
-      <c r="G34" s="15">
-        <v>160</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="29"/>
-        <v>3964.8953248473763</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="30"/>
-        <v>37.525746510887735</v>
-      </c>
-      <c r="J34" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7431542003082217E-4</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L34" s="34">
-        <f t="shared" si="33"/>
-        <v>3.4479343993262543</v>
-      </c>
-      <c r="M34" s="14">
-        <f t="shared" si="34"/>
-        <v>4.7716916935896941E-2</v>
-      </c>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
-        <v>1200</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="25"/>
-        <v>1520</v>
-      </c>
-      <c r="C35" s="9">
-        <f t="shared" si="26"/>
-        <v>1.4144904104070963E-3</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>1348000</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="27"/>
-        <v>7978.9157905944603</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="28"/>
-        <v>3813.466146457532</v>
-      </c>
-      <c r="G35" s="15">
-        <v>160</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="29"/>
-        <v>3973.466146457532</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="30"/>
         <v>37.606865040579343</v>
       </c>
-      <c r="J35" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7462383474880801E-4</v>
-      </c>
-      <c r="K35" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L35" s="34">
-        <f t="shared" si="33"/>
-        <v>3.5883143346862152</v>
+      <c r="J35" s="37">
+        <f t="shared" si="14"/>
+        <v>5.8871520149934917E-6</v>
+      </c>
+      <c r="K35" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L35" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" si="34"/>
-        <v>4.1467336805224742E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36">
+      <c r="A36" s="15">
         <v>1250</v>
       </c>
       <c r="B36">
@@ -2524,154 +2584,157 @@
         <v>1.4229351042672356E-3</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1343000</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="27"/>
-        <v>8026.5509676813153</v>
-      </c>
-      <c r="F36" s="16">
-        <f>C36*D36*$Q$4</f>
+      <c r="E36" s="37">
+        <f t="shared" si="6"/>
+        <v>807483.03485351009</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="7"/>
         <v>3822.0036900617947</v>
       </c>
-      <c r="G36" s="15">
-        <v>160</v>
-      </c>
-      <c r="H36" s="16">
-        <f>G36+F36</f>
+      <c r="G36" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H36" s="40">
+        <f t="shared" si="9"/>
         <v>3982.0036900617947</v>
       </c>
       <c r="I36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>37.687668610628585</v>
       </c>
-      <c r="J36" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7493039068255414E-4</v>
-      </c>
-      <c r="K36" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L36" s="34">
-        <f t="shared" si="33"/>
-        <v>3.7278482144068046</v>
+      <c r="J36" s="37">
+        <f t="shared" si="14"/>
+        <v>5.8548728355847656E-6</v>
+      </c>
+      <c r="K36" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="34"/>
-        <v>3.6066778290980796E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37">
+      <c r="A37" s="15">
         <v>1300</v>
       </c>
       <c r="B37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1620</v>
       </c>
       <c r="C37" s="9">
-        <f t="shared" ref="C37:C38" si="35">$Q$3/($Q$5*100)*EXP(A37/($Q$5))</f>
+        <f>$Q$3/($Q$5*100)*EXP(A37/($Q$5))</f>
         <v>1.4314302140608212E-3</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1338000</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="27"/>
-        <v>8074.470533042926</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" ref="F37:F38" si="36">C37*D37*$Q$4</f>
+      <c r="E37" s="37">
+        <f t="shared" si="6"/>
+        <v>812303.81481527141</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" si="7"/>
         <v>3830.5072528267574</v>
       </c>
-      <c r="G37" s="15">
-        <v>160</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" ref="H37:H38" si="37">G37+F37</f>
+      <c r="G37" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H37" s="40">
+        <f t="shared" si="9"/>
         <v>3990.5072528267574</v>
       </c>
       <c r="I37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>37.768150569069611</v>
       </c>
-      <c r="J37" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7523507320892693E-4</v>
-      </c>
-      <c r="K37" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L37" s="34">
-        <f t="shared" si="33"/>
-        <v>3.8665293825327871</v>
+      <c r="J37" s="37">
+        <f t="shared" si="14"/>
+        <v>5.8227532863110565E-6</v>
+      </c>
+      <c r="K37" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L37" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="34"/>
-        <v>3.1396329920098817E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38">
+      <c r="A38" s="15">
         <v>1350</v>
       </c>
       <c r="B38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1670</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" si="35"/>
+        <f>$Q$3/($Q$5*100)*EXP(A38/($Q$5))</f>
         <v>1.4399760407776091E-3</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1333000</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="27"/>
-        <v>8122.6761845147084</v>
-      </c>
-      <c r="F38" s="16">
-        <f t="shared" si="36"/>
+      <c r="E38" s="37">
+        <f t="shared" si="6"/>
+        <v>817153.3754676932</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="7"/>
         <v>3838.9761247131059</v>
       </c>
-      <c r="G38" s="15">
-        <v>160</v>
-      </c>
-      <c r="H38" s="16">
-        <f t="shared" si="37"/>
+      <c r="G38" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H38" s="40">
+        <f t="shared" si="9"/>
         <v>3998.9761247131059</v>
       </c>
       <c r="I38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>37.848304195736297</v>
       </c>
-      <c r="J38" s="9">
-        <f t="shared" si="31"/>
-        <v>6.755378675470041E-4</v>
-      </c>
-      <c r="K38" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L38" s="34">
-        <f t="shared" si="33"/>
-        <v>4.0043511112888996</v>
+      <c r="J38" s="37">
+        <f t="shared" si="14"/>
+        <v>5.7907925785235473E-6</v>
+      </c>
+      <c r="K38" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L38" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="34"/>
-        <v>2.7354177947705033E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39">
+      <c r="A39" s="15">
         <v>1400</v>
       </c>
       <c r="B39">
@@ -2683,428 +2746,436 @@
         <v>1.4485728872043039E-3</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1328000</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="27"/>
-        <v>8171.1696300683825</v>
-      </c>
-      <c r="F39" s="16">
-        <f>C39*D39*$Q$4</f>
+      <c r="E39" s="37">
+        <f t="shared" si="6"/>
+        <v>822031.88863528555</v>
+      </c>
+      <c r="F39" s="40">
+        <f t="shared" si="7"/>
         <v>3847.4095884146313</v>
       </c>
-      <c r="G39" s="15">
-        <v>160</v>
-      </c>
-      <c r="H39" s="16">
-        <f>G39+F39</f>
+      <c r="G39" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H39" s="40">
+        <f t="shared" si="9"/>
         <v>4007.4095884146313</v>
       </c>
       <c r="I39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>37.928122701684977</v>
       </c>
-      <c r="J39" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7583875875569489E-4</v>
-      </c>
-      <c r="K39" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L39" s="34">
-        <f t="shared" si="33"/>
-        <v>4.1413065999965841</v>
+      <c r="J39" s="37">
+        <f t="shared" si="14"/>
+        <v>5.7589899268820064E-6</v>
+      </c>
+      <c r="K39" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L39" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" si="34"/>
-        <v>2.3853090438970298E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40">
+      <c r="A40" s="15">
         <v>1450</v>
       </c>
       <c r="B40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1770</v>
       </c>
       <c r="C40" s="9">
-        <f t="shared" ref="C40:C46" si="38">$Q$3/($Q$5*100)*EXP(A40/($Q$5))</f>
+        <f t="shared" ref="C40:C46" si="20">$Q$3/($Q$5*100)*EXP(A40/($Q$5))</f>
         <v>1.4572210579352866E-3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1323000</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="27"/>
-        <v>8219.9525878724835</v>
-      </c>
-      <c r="F40" s="16">
-        <f t="shared" ref="F40:F46" si="39">C40*D40*$Q$4</f>
+      <c r="E40" s="37">
+        <f t="shared" si="6"/>
+        <v>826939.52716837334</v>
+      </c>
+      <c r="F40" s="40">
+        <f t="shared" si="7"/>
         <v>3855.8069192967682</v>
       </c>
-      <c r="G40" s="15">
-        <v>160</v>
-      </c>
-      <c r="H40" s="16">
-        <f t="shared" ref="H40:H46" si="40">G40+F40</f>
+      <c r="G40" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H40" s="40">
+        <f t="shared" si="9"/>
         <v>4015.8069192967682</v>
       </c>
       <c r="I40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.007599228612769</v>
       </c>
-      <c r="J40" s="9">
-        <f t="shared" si="31"/>
-        <v>6.761377317313161E-4</v>
-      </c>
-      <c r="K40" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L40" s="34">
-        <f t="shared" si="33"/>
-        <v>4.277388973970738</v>
+      <c r="J40" s="37">
+        <f t="shared" si="14"/>
+        <v>5.7273445493370479E-6</v>
+      </c>
+      <c r="K40" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L40" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" si="34"/>
-        <v>2.081827929670876E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41">
+      <c r="A41" s="15">
         <v>1500</v>
       </c>
       <c r="B41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1820</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.465920859383407E-3</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1318000</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="27"/>
-        <v>8269.026786353239</v>
-      </c>
-      <c r="F41" s="16">
-        <f t="shared" si="39"/>
+      <c r="E41" s="37">
+        <f t="shared" si="6"/>
+        <v>831876.46494922088</v>
+      </c>
+      <c r="F41" s="40">
+        <f t="shared" si="7"/>
         <v>3864.167385334661</v>
       </c>
-      <c r="G41" s="15">
-        <v>160</v>
-      </c>
-      <c r="H41" s="16">
-        <f t="shared" si="40"/>
+      <c r="G41" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H41" s="40">
+        <f t="shared" si="9"/>
         <v>4024.167385334661</v>
       </c>
       <c r="I41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.086726848271411</v>
       </c>
-      <c r="J41" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7643477120512196E-4</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L41" s="34">
-        <f t="shared" si="33"/>
-        <v>4.4125912833953436</v>
+      <c r="J41" s="37">
+        <f t="shared" si="14"/>
+        <v>5.6958556671123828E-6</v>
+      </c>
+      <c r="K41" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L41" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="34"/>
-        <v>1.8185582388605983E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42">
+      <c r="A42" s="15">
         <v>1550</v>
       </c>
       <c r="B42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1870</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.4746725997908392E-3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1313000</v>
       </c>
-      <c r="E42" s="10">
-        <f t="shared" si="27"/>
-        <v>8318.3939642558089</v>
-      </c>
-      <c r="F42" s="16">
-        <f t="shared" si="39"/>
+      <c r="E42" s="37">
+        <f t="shared" si="6"/>
+        <v>836842.87689819222</v>
+      </c>
+      <c r="F42" s="40">
+        <f t="shared" si="7"/>
         <v>3872.4902470507436</v>
       </c>
-      <c r="G42" s="15">
-        <v>160</v>
-      </c>
-      <c r="H42" s="16">
-        <f t="shared" si="40"/>
+      <c r="G42" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H42" s="40">
+        <f t="shared" si="9"/>
         <v>4032.4902470507436</v>
       </c>
       <c r="I42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.165498561876468</v>
       </c>
-      <c r="J42" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7672986174078858E-4</v>
-      </c>
-      <c r="K42" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L42" s="34">
-        <f t="shared" si="33"/>
-        <v>4.5469065021785111</v>
+      <c r="J42" s="37">
+        <f t="shared" si="14"/>
+        <v>5.6645225046870776E-6</v>
+      </c>
+      <c r="K42" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L42" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M42" s="14">
-        <f t="shared" si="34"/>
-        <v>1.5899916933618093E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43">
+      <c r="A43" s="15">
         <v>1600</v>
       </c>
       <c r="B43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1920</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.4834765892400043E-3</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1308000</v>
       </c>
-      <c r="E43" s="10">
-        <f t="shared" si="27"/>
-        <v>8368.0558707058863</v>
-      </c>
-      <c r="F43" s="16">
-        <f t="shared" si="39"/>
+      <c r="E43" s="37">
+        <f t="shared" si="6"/>
+        <v>841838.93897994887</v>
+      </c>
+      <c r="F43" s="40">
+        <f t="shared" si="7"/>
         <v>3880.7747574518512</v>
       </c>
-      <c r="G43" s="15">
-        <v>160</v>
-      </c>
-      <c r="H43" s="16">
-        <f t="shared" si="40"/>
+      <c r="G43" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H43" s="40">
+        <f t="shared" si="9"/>
         <v>4040.7747574518512</v>
       </c>
       <c r="I43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.243907299512117</v>
       </c>
-      <c r="J43" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7702298773185019E-4</v>
-      </c>
-      <c r="K43" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L43" s="34">
-        <f t="shared" si="33"/>
-        <v>4.6803275267855255</v>
+      <c r="J43" s="37">
+        <f t="shared" si="14"/>
+        <v>5.6333442897777956E-6</v>
+      </c>
+      <c r="K43" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L43" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M43" s="14">
-        <f t="shared" si="34"/>
-        <v>1.3913962888674972E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44">
+      <c r="A44" s="15">
         <v>1650</v>
       </c>
       <c r="B44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1970</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.4923331396645562E-3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1303000</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" si="27"/>
-        <v>8418.0142652716822</v>
-      </c>
-      <c r="F44" s="16">
-        <f t="shared" si="39"/>
+      <c r="E44" s="37">
+        <f t="shared" si="6"/>
+        <v>846864.82820968516</v>
+      </c>
+      <c r="F44" s="40">
+        <f t="shared" si="7"/>
         <v>3889.0201619658333</v>
       </c>
-      <c r="G44" s="15">
-        <v>160</v>
-      </c>
-      <c r="H44" s="16">
-        <f t="shared" si="40"/>
+      <c r="G44" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H44" s="40">
+        <f t="shared" si="9"/>
         <v>4049.0201619658333</v>
       </c>
       <c r="I44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.321945919531252</v>
       </c>
-      <c r="J44" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7731413339908739E-4</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L44" s="34">
-        <f t="shared" si="33"/>
-        <v>4.8128471750500674</v>
+      <c r="J44" s="37">
+        <f t="shared" si="14"/>
+        <v>5.6023202533210325E-6</v>
+      </c>
+      <c r="K44" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L44" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="34"/>
-        <v>1.2187041462668146E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45">
+      <c r="A45" s="15">
         <v>1700</v>
       </c>
       <c r="B45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2020</v>
       </c>
       <c r="C45" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.5012425648604332E-3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1298000</v>
       </c>
-      <c r="E45" s="10">
-        <f t="shared" si="27"/>
-        <v>8468.2709180262573</v>
-      </c>
-      <c r="F45" s="16">
-        <f t="shared" si="39"/>
+      <c r="E45" s="37">
+        <f t="shared" si="6"/>
+        <v>851920.72265939857</v>
+      </c>
+      <c r="F45" s="40">
+        <f t="shared" si="7"/>
         <v>3897.2256983776847</v>
       </c>
-      <c r="G45" s="15">
-        <v>160</v>
-      </c>
-      <c r="H45" s="16">
-        <f t="shared" si="40"/>
+      <c r="G45" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H45" s="40">
+        <f t="shared" si="9"/>
         <v>4057.2256983776847</v>
       </c>
       <c r="I45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.399607207950979</v>
       </c>
-      <c r="J45" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7760328278786499E-4</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L45" s="34">
-        <f t="shared" si="33"/>
-        <v>4.9444581849624951</v>
+      <c r="J45" s="37">
+        <f t="shared" si="14"/>
+        <v>5.5714496294553489E-6</v>
+      </c>
+      <c r="K45" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L45" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="34"/>
-        <v>1.068415926629398E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46">
+      <c r="A46" s="15">
         <v>1750</v>
       </c>
       <c r="B46">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2070</v>
       </c>
       <c r="C46" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="20"/>
         <v>1.5102051804969775E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1293000</v>
       </c>
-      <c r="E46" s="10">
-        <f t="shared" si="27"/>
-        <v>8518.8276096102381</v>
-      </c>
-      <c r="F46" s="16">
-        <f t="shared" si="39"/>
+      <c r="E46" s="37">
+        <f t="shared" si="6"/>
+        <v>857006.8014642006</v>
+      </c>
+      <c r="F46" s="40">
+        <f t="shared" si="7"/>
         <v>3905.390596765184</v>
       </c>
-      <c r="G46" s="15">
-        <v>160</v>
-      </c>
-      <c r="H46" s="16">
-        <f t="shared" si="40"/>
+      <c r="G46" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H46" s="40">
+        <f t="shared" si="9"/>
         <v>4065.390596765184</v>
       </c>
       <c r="I46">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.476883877843456</v>
       </c>
-      <c r="J46" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7789041976542034E-4</v>
-      </c>
-      <c r="K46" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L46" s="34">
-        <f t="shared" si="33"/>
-        <v>5.0751532134355708</v>
+      <c r="J46" s="37">
+        <f t="shared" si="14"/>
+        <v>5.5407316555035784E-6</v>
+      </c>
+      <c r="K46" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L46" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" si="34"/>
-        <v>9.3751931438481994E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47">
+      <c r="A47" s="15">
         <v>1800</v>
       </c>
       <c r="B47">
@@ -3116,419 +3187,427 @@
         <v>1.5192213041281184E-3</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1288000</v>
       </c>
-      <c r="E47" s="10">
-        <f t="shared" si="27"/>
-        <v>8569.6861312949186</v>
-      </c>
-      <c r="F47" s="16">
-        <f>C47*D47*$Q$4</f>
+      <c r="E47" s="37">
+        <f t="shared" si="6"/>
+        <v>862123.24482866249</v>
+      </c>
+      <c r="F47" s="40">
+        <f t="shared" si="7"/>
         <v>3913.5140794340327</v>
       </c>
-      <c r="G47" s="15">
-        <v>160</v>
-      </c>
-      <c r="H47" s="16">
-        <f>G47+F47</f>
+      <c r="G47" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H47" s="40">
+        <f t="shared" si="9"/>
         <v>4073.5140794340327</v>
       </c>
       <c r="I47">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.553768568722035</v>
       </c>
-      <c r="J47" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7817552801809739E-4</v>
-      </c>
-      <c r="K47" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L47" s="34">
-        <f t="shared" si="33"/>
-        <v>5.2049248350455155</v>
+      <c r="J47" s="37">
+        <f t="shared" si="14"/>
+        <v>5.5101655719550321E-6</v>
+      </c>
+      <c r="K47" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L47" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" si="34"/>
-        <v>8.2341945609903013E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N47" s="9"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48">
+      <c r="A48" s="15">
         <v>1850</v>
       </c>
       <c r="B48">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2170</v>
       </c>
       <c r="C48" s="9">
-        <f t="shared" ref="C48:C54" si="41">$Q$3/($Q$5*100)*EXP(A48/($Q$5))</f>
+        <f t="shared" ref="C48:C54" si="21">$Q$3/($Q$5*100)*EXP(A48/($Q$5))</f>
         <v>1.5282912552036234E-3</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1283000</v>
       </c>
-      <c r="E48" s="10">
-        <f t="shared" si="27"/>
-        <v>8620.8482850457094</v>
-      </c>
-      <c r="F48" s="16">
-        <f t="shared" ref="F48:F54" si="42">C48*D48*$Q$4</f>
+      <c r="E48" s="37">
+        <f t="shared" si="6"/>
+        <v>867270.23403320054</v>
+      </c>
+      <c r="F48" s="40">
+        <f t="shared" si="7"/>
         <v>3921.5953608524978</v>
       </c>
-      <c r="G48" s="15">
-        <v>160</v>
-      </c>
-      <c r="H48" s="16">
-        <f t="shared" ref="H48:H54" si="43">G48+F48</f>
+      <c r="G48" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H48" s="40">
+        <f t="shared" si="9"/>
         <v>4081.5953608524978</v>
       </c>
       <c r="I48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.630253845922674</v>
       </c>
-      <c r="J48" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7845859104853049E-4</v>
-      </c>
-      <c r="K48" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L48" s="34">
-        <f t="shared" si="33"/>
-        <v>5.3337655407501563</v>
+      <c r="J48" s="37">
+        <f t="shared" si="14"/>
+        <v>5.4797506224476885E-6</v>
+      </c>
+      <c r="K48" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L48" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" si="34"/>
-        <v>7.2387956533642109E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49">
+      <c r="A49" s="15">
         <v>1900</v>
       </c>
       <c r="B49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2220</v>
       </c>
       <c r="C49" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5374153550804181E-3</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1278000</v>
       </c>
-      <c r="E49" s="10">
-        <f t="shared" si="27"/>
-        <v>8672.3158835859958</v>
-      </c>
-      <c r="F49" s="16">
-        <f t="shared" si="42"/>
+      <c r="E49" s="37">
+        <f t="shared" si="6"/>
+        <v>872447.95144049916</v>
+      </c>
+      <c r="F49" s="40">
+        <f t="shared" si="7"/>
         <v>3929.6336475855487</v>
       </c>
-      <c r="G49" s="15">
-        <v>160</v>
-      </c>
-      <c r="H49" s="16">
-        <f t="shared" si="43"/>
+      <c r="G49" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H49" s="40">
+        <f t="shared" si="9"/>
         <v>4089.6336475855487</v>
       </c>
       <c r="I49">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.706332199980586</v>
       </c>
-      <c r="J49" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7873959217277168E-4</v>
-      </c>
-      <c r="K49" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L49" s="34">
-        <f t="shared" si="33"/>
-        <v>5.4616677365813793</v>
+      <c r="J49" s="37">
+        <f t="shared" si="14"/>
+        <v>5.4494860537503545E-6</v>
+      </c>
+      <c r="K49" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L49" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" si="34"/>
-        <v>6.3697017694727895E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N49" s="9"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50">
+      <c r="A50" s="15">
         <v>1950</v>
       </c>
       <c r="B50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2270</v>
       </c>
       <c r="C50" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5465939270339704E-3</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1273000</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" si="27"/>
-        <v>8724.0907504613606</v>
-      </c>
-      <c r="F50" s="16">
-        <f t="shared" si="42"/>
+      <c r="E50" s="37">
+        <f t="shared" si="6"/>
+        <v>877656.58050197165</v>
+      </c>
+      <c r="F50" s="40">
+        <f t="shared" si="7"/>
         <v>3937.6281382284888</v>
       </c>
-      <c r="G50" s="15">
-        <v>160</v>
-      </c>
-      <c r="H50" s="16">
-        <f t="shared" si="43"/>
+      <c r="G50" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H50" s="40">
+        <f t="shared" si="9"/>
         <v>4097.6281382284888</v>
       </c>
       <c r="I50">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.781996046002092</v>
       </c>
-      <c r="J50" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7901851451736305E-4</v>
-      </c>
-      <c r="K50" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L50" s="34">
-        <f t="shared" si="33"/>
-        <v>5.588623742312544</v>
+      <c r="J50" s="37">
+        <f t="shared" si="14"/>
+        <v>5.4193711157448228E-6</v>
+      </c>
+      <c r="K50" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L50" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M50" s="14">
-        <f t="shared" si="34"/>
-        <v>5.6102576465302803E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51">
+      <c r="A51" s="15">
         <v>2000</v>
       </c>
       <c r="B51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2320</v>
       </c>
       <c r="C51" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5558272962697462E-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1268000</v>
       </c>
-      <c r="E51" s="10">
-        <f t="shared" si="27"/>
-        <v>8776.1747201041926</v>
-      </c>
-      <c r="F51" s="16">
-        <f t="shared" si="42"/>
+      <c r="E51" s="37">
+        <f t="shared" si="6"/>
+        <v>882896.30576426093</v>
+      </c>
+      <c r="F51" s="40">
+        <f t="shared" si="7"/>
         <v>3945.5780233400765</v>
       </c>
-      <c r="G51" s="15">
-        <v>160</v>
-      </c>
-      <c r="H51" s="16">
-        <f t="shared" si="43"/>
+      <c r="G51" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H51" s="40">
+        <f t="shared" si="9"/>
         <v>4105.5780233400765</v>
       </c>
       <c r="I51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.857237723031638</v>
       </c>
-      <c r="J51" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7929534101635134E-4</v>
-      </c>
-      <c r="K51" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L51" s="34">
-        <f t="shared" si="33"/>
-        <v>5.7146257900996575</v>
+      <c r="J51" s="37">
+        <f t="shared" si="14"/>
+        <v>5.389405061407987E-6</v>
+      </c>
+      <c r="K51" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L51" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M51" s="14">
-        <f t="shared" si="34"/>
-        <v>4.9460763069395864E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52">
+      <c r="A52" s="15">
         <v>2050</v>
       </c>
       <c r="B52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2370</v>
       </c>
       <c r="C52" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5651157899347296E-3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1263000</v>
       </c>
-      <c r="E52" s="10">
-        <f t="shared" si="27"/>
-        <v>8828.5696378986813</v>
-      </c>
-      <c r="F52" s="16">
-        <f t="shared" si="42"/>
+      <c r="E52" s="37">
+        <f t="shared" si="6"/>
+        <v>888167.31287577702</v>
+      </c>
+      <c r="F52" s="40">
+        <f t="shared" si="7"/>
         <v>3953.482485375127</v>
       </c>
-      <c r="G52" s="15">
-        <v>160</v>
-      </c>
-      <c r="H52" s="16">
-        <f t="shared" si="43"/>
+      <c r="G52" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H52" s="40">
+        <f t="shared" si="9"/>
         <v>4113.482485375127</v>
       </c>
       <c r="I52">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>38.932049493413913</v>
       </c>
-      <c r="J52" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7957005440824603E-4</v>
-      </c>
-      <c r="K52" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L52" s="34">
-        <f t="shared" si="33"/>
-        <v>5.8396660230967852</v>
+      <c r="J52" s="37">
+        <f t="shared" si="14"/>
+        <v>5.359587146793963E-6</v>
+      </c>
+      <c r="K52" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L52" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M52" s="14">
-        <f t="shared" si="34"/>
-        <v>4.3647214114646074E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53">
+      <c r="A53" s="15">
         <v>2100</v>
       </c>
       <c r="B53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2420</v>
       </c>
       <c r="C53" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5744597371290163E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1258000</v>
       </c>
-      <c r="E53" s="10">
-        <f t="shared" si="27"/>
-        <v>8881.2773602462075</v>
-      </c>
-      <c r="F53" s="16">
-        <f t="shared" si="42"/>
+      <c r="E53" s="37">
+        <f t="shared" si="6"/>
+        <v>893469.78859327571</v>
+      </c>
+      <c r="F53" s="40">
+        <f t="shared" si="7"/>
         <v>3961.3406986166051</v>
       </c>
-      <c r="G53" s="15">
-        <v>160</v>
-      </c>
-      <c r="H53" s="16">
-        <f t="shared" si="43"/>
+      <c r="G53" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H53" s="40">
+        <f t="shared" si="9"/>
         <v>4121.3406986166046</v>
       </c>
       <c r="I53">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>39.006423542151133</v>
       </c>
-      <c r="J53" s="9">
-        <f t="shared" si="31"/>
-        <v>6.7984263723291569E-4</v>
-      </c>
-      <c r="K53" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L53" s="34">
-        <f t="shared" si="33"/>
-        <v>5.9637364940433741</v>
+      <c r="J53" s="37">
+        <f t="shared" si="14"/>
+        <v>5.3299166310161532E-6</v>
+      </c>
+      <c r="K53" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L53" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M53" s="14">
-        <f t="shared" si="34"/>
-        <v>3.8554352002155012E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N53" s="9"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54">
+      <c r="A54" s="15">
         <v>2150</v>
       </c>
       <c r="B54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2470</v>
       </c>
       <c r="C54" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="21"/>
         <v>1.5838594689174725E-3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1253000</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="27"/>
-        <v>8934.299754631109</v>
-      </c>
-      <c r="F54" s="16">
-        <f t="shared" si="42"/>
+      <c r="E54" s="37">
+        <f t="shared" si="6"/>
+        <v>898803.92078847543</v>
+      </c>
+      <c r="F54" s="40">
+        <f t="shared" si="7"/>
         <v>3969.1518291071861</v>
       </c>
-      <c r="G54" s="15">
-        <v>160</v>
-      </c>
-      <c r="H54" s="16">
-        <f t="shared" si="43"/>
+      <c r="G54" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H54" s="40">
+        <f t="shared" si="9"/>
         <v>4129.1518291071861</v>
       </c>
       <c r="I54">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>39.080351976255336</v>
       </c>
-      <c r="J54" s="9">
-        <f t="shared" si="31"/>
-        <v>6.8011307182842405E-4</v>
-      </c>
-      <c r="K54" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L54" s="34">
-        <f t="shared" si="33"/>
-        <v>6.0868291638241514</v>
+      <c r="J54" s="37">
+        <f t="shared" si="14"/>
+        <v>5.3003927762293013E-6</v>
+      </c>
+      <c r="K54" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L54" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M54" s="14">
-        <f t="shared" si="34"/>
-        <v>3.4089053337607407E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N54" s="9"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55">
+      <c r="A55" s="15">
         <v>2200</v>
       </c>
       <c r="B55">
@@ -3540,899 +3619,916 @@
         <v>1.593315318341465E-3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1248000</v>
       </c>
-      <c r="E55" s="10">
-        <f t="shared" si="27"/>
-        <v>8987.6386996868496</v>
-      </c>
-      <c r="F55" s="16">
-        <f>C55*D55*$Q$4</f>
+      <c r="E55" s="37">
+        <f t="shared" si="6"/>
+        <v>904169.89845471294</v>
+      </c>
+      <c r="F55" s="40">
+        <f t="shared" si="7"/>
         <v>3976.9150345802968</v>
       </c>
-      <c r="G55" s="15">
-        <v>160</v>
-      </c>
-      <c r="H55" s="16">
-        <f>G55+F55</f>
+      <c r="G55" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H55" s="40">
+        <f t="shared" si="9"/>
         <v>4136.9150345802973</v>
       </c>
       <c r="I55">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>39.153826824095638</v>
       </c>
-      <c r="J55" s="9">
-        <f t="shared" si="31"/>
-        <v>6.8038134032780433E-4</v>
-      </c>
-      <c r="K55" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L55" s="34">
-        <f t="shared" si="33"/>
-        <v>6.2089359000008795</v>
+      <c r="J55" s="37">
+        <f t="shared" si="14"/>
+        <v>5.2710148476115182E-6</v>
+      </c>
+      <c r="K55" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L55" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M55" s="14">
-        <f t="shared" si="34"/>
-        <v>3.0170649473940624E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N55" s="9"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56">
+      <c r="A56" s="15">
         <v>2250</v>
       </c>
       <c r="B56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2570</v>
       </c>
       <c r="C56" s="9">
-        <f t="shared" ref="C56:C58" si="44">$Q$3/($Q$5*100)*EXP(A56/($Q$5))</f>
+        <f>$Q$3/($Q$5*100)*EXP(A56/($Q$5))</f>
         <v>1.6028276204306615E-3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1243000</v>
       </c>
-      <c r="E56" s="10">
-        <f t="shared" si="27"/>
-        <v>9041.2960852625856</v>
-      </c>
-      <c r="F56" s="16">
-        <f t="shared" ref="F56:F58" si="45">C56*D56*$Q$4</f>
+      <c r="E56" s="37">
+        <f t="shared" si="6"/>
+        <v>909567.91171364021</v>
+      </c>
+      <c r="F56" s="40">
+        <f t="shared" si="7"/>
         <v>3984.6294643906244</v>
       </c>
-      <c r="G56" s="15">
-        <v>160</v>
-      </c>
-      <c r="H56" s="16">
-        <f t="shared" ref="H56:H58" si="46">G56+F56</f>
+      <c r="G56" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H56" s="40">
+        <f t="shared" si="9"/>
         <v>4144.629464390624</v>
       </c>
       <c r="I56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>39.226840034740619</v>
       </c>
-      <c r="J56" s="9">
-        <f t="shared" si="31"/>
-        <v>6.8064742465576763E-4</v>
-      </c>
-      <c r="K56" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L56" s="34">
-        <f t="shared" si="33"/>
-        <v>6.3300484753141708</v>
+      <c r="J56" s="37">
+        <f t="shared" si="14"/>
+        <v>5.2417821133462639E-6</v>
+      </c>
+      <c r="K56" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L56" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" si="34"/>
-        <v>2.672921079822599E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N56" s="9"/>
       <c r="P56" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q56" s="16"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57">
+      <c r="A57" s="15">
         <v>2300</v>
       </c>
       <c r="B57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2620</v>
       </c>
       <c r="C57" s="9">
-        <f t="shared" si="44"/>
+        <f>$Q$3/($Q$5*100)*EXP(A57/($Q$5))</f>
         <v>1.6123967122149015E-3</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1238000</v>
       </c>
-      <c r="E57" s="10">
-        <f t="shared" si="27"/>
-        <v>9095.2738124901225</v>
-      </c>
-      <c r="F57" s="16">
-        <f t="shared" si="45"/>
+      <c r="E57" s="37">
+        <f t="shared" si="6"/>
+        <v>914998.15182196128</v>
+      </c>
+      <c r="F57" s="40">
+        <f t="shared" si="7"/>
         <v>3992.294259444096</v>
       </c>
-      <c r="G57" s="15">
-        <v>160</v>
-      </c>
-      <c r="H57" s="16">
-        <f t="shared" si="46"/>
+      <c r="G57" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H57" s="40">
+        <f t="shared" si="9"/>
         <v>4152.2942594440956</v>
       </c>
       <c r="I57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>39.299383477295571</v>
       </c>
-      <c r="J57" s="9">
-        <f t="shared" si="31"/>
-        <v>6.809113065253475E-4</v>
-      </c>
-      <c r="K57" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L57" s="34">
-        <f t="shared" si="33"/>
-        <v>6.4501585661561727</v>
+      <c r="J57" s="37">
+        <f t="shared" si="14"/>
+        <v>5.2126938446043006E-6</v>
+      </c>
+      <c r="K57" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L57" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M57" s="14">
-        <f t="shared" si="34"/>
-        <v>2.3704073569197569E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N57" s="9"/>
       <c r="P57" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q57" s="16"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58">
+      <c r="A58" s="15">
         <v>2350</v>
       </c>
       <c r="B58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2670</v>
       </c>
       <c r="C58" s="9">
-        <f t="shared" si="44"/>
+        <f>$Q$3/($Q$5*100)*EXP(A58/($Q$5))</f>
         <v>1.6220229327361356E-3</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D71" si="47">15*10^5-B58*100</f>
+        <f t="shared" ref="D58:D71" si="22">15*10^5-B58*100</f>
         <v>1233000</v>
       </c>
-      <c r="E58" s="10">
-        <f t="shared" ref="E58:E71" si="48">C58/($Q$8/(2.98*10^8))</f>
-        <v>9149.5737938512648</v>
-      </c>
-      <c r="F58" s="16">
-        <f t="shared" si="45"/>
+      <c r="E58" s="37">
+        <f t="shared" si="6"/>
+        <v>920460.81117820658</v>
+      </c>
+      <c r="F58" s="40">
+        <f t="shared" si="7"/>
         <v>3999.9085521273105</v>
       </c>
-      <c r="G58" s="15">
-        <v>160</v>
-      </c>
-      <c r="H58" s="16">
-        <f t="shared" si="46"/>
+      <c r="G58" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H58" s="40">
+        <f t="shared" si="9"/>
         <v>4159.90855212731</v>
       </c>
       <c r="I58">
-        <f t="shared" ref="I58:I71" si="49">H58/$Q$7</f>
+        <f t="shared" ref="I58:I71" si="23">H58/$Q$7</f>
         <v>39.371448940234622</v>
       </c>
-      <c r="J58" s="9">
-        <f t="shared" ref="J58:J71" si="50">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT(I58^2-1)+I58)</f>
-        <v>6.8117296743447613E-4</v>
-      </c>
-      <c r="K58" s="9">
-        <f t="shared" ref="K58:K71" si="51">($Q$7/3*10^-8)/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L58" s="34">
-        <f t="shared" si="33"/>
-        <v>6.569257751012171</v>
+      <c r="J58" s="37">
+        <f t="shared" si="14"/>
+        <v>5.1837493155256181E-6</v>
+      </c>
+      <c r="K58" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L58" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M58" s="14">
-        <f t="shared" si="34"/>
-        <v>2.1042574216367264E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N58" s="9"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59">
+      <c r="A59" s="15">
         <v>2400</v>
       </c>
       <c r="B59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2720</v>
       </c>
       <c r="C59" s="9">
-        <f t="shared" ref="C59:C71" si="52">$Q$3/($Q$5*100)*EXP(A59/($Q$5))</f>
+        <f t="shared" ref="C59:C71" si="24">$Q$3/($Q$5*100)*EXP(A59/($Q$5))</f>
         <v>1.631706623060441E-3</v>
       </c>
       <c r="D59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1228000</v>
       </c>
-      <c r="E59" s="10">
-        <f t="shared" si="48"/>
-        <v>9204.1979532455935</v>
-      </c>
-      <c r="F59" s="16">
-        <f t="shared" ref="F59:F71" si="53">C59*D59*$Q$4</f>
+      <c r="E59" s="37">
+        <f t="shared" si="6"/>
+        <v>925956.08332955209</v>
+      </c>
+      <c r="F59" s="40">
+        <f t="shared" si="7"/>
         <v>4007.4714662364431</v>
       </c>
-      <c r="G59" s="15">
-        <v>160</v>
-      </c>
-      <c r="H59" s="16">
-        <f t="shared" ref="H59:H71" si="54">G59+F59</f>
+      <c r="G59" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H59" s="40">
+        <f t="shared" si="9"/>
         <v>4167.4714662364431</v>
       </c>
       <c r="I59">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.443028130727846</v>
       </c>
-      <c r="J59" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8143238866249297E-4</v>
-      </c>
-      <c r="K59" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L59" s="34">
-        <f t="shared" si="33"/>
-        <v>6.6873375088714493</v>
+      <c r="J59" s="37">
+        <f t="shared" si="14"/>
+        <v>5.1549478032012993E-6</v>
+      </c>
+      <c r="K59" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L59" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" si="34"/>
-        <v>1.8698961194343541E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N59" s="9"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60">
+      <c r="A60" s="15">
         <v>2450</v>
       </c>
       <c r="B60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2770</v>
       </c>
       <c r="C60" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.6414481262901034E-3</v>
       </c>
       <c r="D60">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1223000</v>
       </c>
-      <c r="E60" s="10">
-        <f t="shared" si="48"/>
-        <v>9259.1482260586199</v>
-      </c>
-      <c r="F60" s="16">
-        <f t="shared" si="53"/>
+      <c r="E60" s="37">
+        <f t="shared" si="6"/>
+        <v>931484.16297867557</v>
+      </c>
+      <c r="F60" s="40">
+        <f t="shared" si="7"/>
         <v>4014.9821169055926</v>
       </c>
-      <c r="G60" s="15">
-        <v>160</v>
-      </c>
-      <c r="H60" s="16">
-        <f t="shared" si="54"/>
+      <c r="G60" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H60" s="40">
+        <f t="shared" si="9"/>
         <v>4174.9821169055922</v>
       </c>
       <c r="I60">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.514112673963091</v>
       </c>
-      <c r="J60" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8168955126658086E-4</v>
-      </c>
-      <c r="K60" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L60" s="34">
-        <f t="shared" si="33"/>
-        <v>6.8043892176051273</v>
+      <c r="J60" s="37">
+        <f t="shared" si="14"/>
+        <v>5.1262885876553644E-6</v>
+      </c>
+      <c r="K60" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L60" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M60" s="14">
-        <f t="shared" ref="M60:M71" si="55">1.5*EXP(-L60/$U$8)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N60" s="9"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61">
+      <c r="A61" s="15">
         <v>2500</v>
       </c>
       <c r="B61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2820</v>
       </c>
       <c r="C61" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.6512477875757741E-3</v>
       </c>
       <c r="D61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1218000</v>
       </c>
-      <c r="E61" s="10">
-        <f t="shared" si="48"/>
-        <v>9314.42655923036</v>
-      </c>
-      <c r="F61" s="16">
-        <f t="shared" si="53"/>
+      <c r="E61" s="37">
+        <f t="shared" si="6"/>
+        <v>937045.24599065504</v>
+      </c>
+      <c r="F61" s="40">
+        <f t="shared" si="7"/>
         <v>4022.4396105345859</v>
       </c>
-      <c r="G61" s="15">
-        <v>160</v>
-      </c>
-      <c r="H61" s="16">
-        <f t="shared" si="54"/>
+      <c r="G61" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H61" s="40">
+        <f t="shared" si="9"/>
         <v>4182.4396105345859</v>
       </c>
       <c r="I61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.584694112462721</v>
       </c>
-      <c r="J61" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8194443607813235E-4</v>
-      </c>
-      <c r="K61" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L61" s="34">
-        <f t="shared" si="33"/>
-        <v>6.9204041523122228</v>
+      <c r="J61" s="37">
+        <f t="shared" si="14"/>
+        <v>5.0977709518265541E-6</v>
+      </c>
+      <c r="K61" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L61" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M61" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N61" s="9"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62">
+      <c r="A62" s="15">
         <v>2550</v>
       </c>
       <c r="B62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2870</v>
       </c>
       <c r="C62" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.6611059541287003E-3</v>
       </c>
       <c r="D62">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1213000</v>
       </c>
-      <c r="E62" s="10">
-        <f t="shared" si="48"/>
-        <v>9370.0349113243228</v>
-      </c>
-      <c r="F62" s="16">
-        <f t="shared" si="53"/>
+      <c r="E62" s="37">
+        <f t="shared" si="6"/>
+        <v>942639.52939990966</v>
+      </c>
+      <c r="F62" s="40">
+        <f t="shared" si="7"/>
         <v>4029.8430447162268</v>
       </c>
-      <c r="G62" s="15">
-        <v>160</v>
-      </c>
-      <c r="H62" s="16">
-        <f t="shared" si="54"/>
+      <c r="G62" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H62" s="40">
+        <f t="shared" si="9"/>
         <v>4189.8430447162264</v>
       </c>
       <c r="I62">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.654763905395015</v>
       </c>
-      <c r="J62" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8219702369904051E-4</v>
-      </c>
-      <c r="K62" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L62" s="34">
-        <f t="shared" si="33"/>
-        <v>7.0353734836313677</v>
+      <c r="J62" s="37">
+        <f t="shared" si="14"/>
+        <v>5.0693941815500811E-6</v>
+      </c>
+      <c r="K62" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L62" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M62" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N62" s="9"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63">
+      <c r="A63" s="15">
         <v>2600</v>
       </c>
       <c r="B63">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2920</v>
       </c>
       <c r="C63" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.6710229752330244E-3</v>
       </c>
       <c r="D63">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1208000</v>
       </c>
-      <c r="E63" s="10">
-        <f t="shared" si="48"/>
-        <v>9425.9752525968943</v>
-      </c>
-      <c r="F63" s="16">
-        <f t="shared" si="53"/>
+      <c r="E63" s="37">
+        <f t="shared" si="6"/>
+        <v>948267.21141717897</v>
+      </c>
+      <c r="F63" s="40">
+        <f t="shared" si="7"/>
         <v>4037.1915081629868</v>
       </c>
-      <c r="G63" s="15">
-        <v>160</v>
-      </c>
-      <c r="H63" s="16">
-        <f t="shared" si="54"/>
+      <c r="G63" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H63" s="40">
+        <f t="shared" si="9"/>
         <v>4197.1915081629868</v>
       </c>
       <c r="I63">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.724313427880396</v>
       </c>
-      <c r="J63" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8244729449791432E-4</v>
-      </c>
-      <c r="K63" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L63" s="34">
-        <f t="shared" si="33"/>
-        <v>7.1492882760181722</v>
+      <c r="J63" s="37">
+        <f t="shared" si="14"/>
+        <v>5.0411575655393154E-6</v>
+      </c>
+      <c r="K63" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L63" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M63" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N63" s="9"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64">
+      <c r="A64" s="15">
         <v>2650</v>
       </c>
       <c r="B64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2970</v>
       </c>
       <c r="C64" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.6809992022581628E-3</v>
       </c>
       <c r="D64">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1203000</v>
       </c>
-      <c r="E64" s="10">
-        <f t="shared" si="48"/>
-        <v>9482.2495650671517</v>
-      </c>
-      <c r="F64" s="16">
-        <f t="shared" si="53"/>
+      <c r="E64" s="37">
+        <f t="shared" si="6"/>
+        <v>953928.4914365476</v>
+      </c>
+      <c r="F64" s="40">
+        <f t="shared" si="7"/>
         <v>4044.4840806331395</v>
       </c>
-      <c r="G64" s="15">
-        <v>160</v>
-      </c>
-      <c r="H64" s="16">
-        <f t="shared" si="54"/>
+      <c r="G64" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H64" s="40">
+        <f t="shared" si="9"/>
         <v>4204.4840806331395</v>
       </c>
       <c r="I64">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.793333970292259</v>
       </c>
-      <c r="J64" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8269522860621619E-4</v>
-      </c>
-      <c r="K64" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L64" s="34">
-        <f t="shared" si="33"/>
-        <v>7.262139485987162</v>
+      <c r="J64" s="37">
+        <f t="shared" si="14"/>
+        <v>5.0130603953674233E-6</v>
+      </c>
+      <c r="K64" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L64" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M64" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65">
+      <c r="A65" s="15">
         <v>2700</v>
       </c>
       <c r="B65">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3020</v>
       </c>
       <c r="C65" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.691034988671252E-3</v>
       </c>
       <c r="D65">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1198000</v>
       </c>
-      <c r="E65" s="10">
-        <f t="shared" si="48"/>
-        <v>9538.8598425870841</v>
-      </c>
-      <c r="F65" s="16">
-        <f t="shared" si="53"/>
+      <c r="E65" s="37">
+        <f t="shared" si="6"/>
+        <v>959623.57004250842</v>
+      </c>
+      <c r="F65" s="40">
+        <f t="shared" si="7"/>
         <v>4051.7198328563195</v>
       </c>
-      <c r="G65" s="15">
-        <v>160</v>
-      </c>
-      <c r="H65" s="16">
-        <f t="shared" si="54"/>
+      <c r="G65" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H65" s="40">
+        <f t="shared" si="9"/>
         <v>4211.719832856319</v>
       </c>
       <c r="I65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.861816737552473</v>
       </c>
-      <c r="J65" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8294080591432078E-4</v>
-      </c>
-      <c r="K65" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L65" s="34">
-        <f t="shared" si="33"/>
-        <v>7.3739179603178835</v>
+      <c r="J65" s="37">
+        <f t="shared" si="14"/>
+        <v>4.9851019654489607E-6</v>
+      </c>
+      <c r="K65" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L65" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M65" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N65" s="9"/>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66">
+      <c r="A66" s="15">
         <v>2750</v>
       </c>
       <c r="B66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3070</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7011306900496747E-3</v>
       </c>
       <c r="D66">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1193000</v>
       </c>
-      <c r="E66" s="10">
-        <f t="shared" si="48"/>
-        <v>9595.8080909122455</v>
-      </c>
-      <c r="F66" s="16">
-        <f t="shared" si="53"/>
+      <c r="E66" s="37">
+        <f t="shared" si="6"/>
+        <v>965352.6490170703</v>
+      </c>
+      <c r="F66" s="40">
+        <f t="shared" si="7"/>
         <v>4058.8978264585239</v>
       </c>
-      <c r="G66" s="15">
-        <v>160</v>
-      </c>
-      <c r="H66" s="16">
-        <f t="shared" si="54"/>
+      <c r="G66" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H66" s="40">
+        <f t="shared" si="9"/>
         <v>4218.8978264585239</v>
       </c>
       <c r="I66">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.92975284842155</v>
       </c>
-      <c r="J66" s="9">
-        <f t="shared" si="50"/>
-        <v>6.83184006067491E-4</v>
-      </c>
-      <c r="K66" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L66" s="34">
-        <f t="shared" si="33"/>
-        <v>7.4846144342233085</v>
+      <c r="J66" s="37">
+        <f t="shared" si="14"/>
+        <v>4.95728157302139E-6</v>
+      </c>
+      <c r="K66" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L66" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M66" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N66" s="9"/>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67">
+      <c r="A67" s="15">
         <v>2800</v>
       </c>
       <c r="B67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3120</v>
       </c>
       <c r="C67" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7112866640936575E-3</v>
       </c>
       <c r="D67">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1188000</v>
       </c>
-      <c r="E67" s="10">
-        <f t="shared" si="48"/>
-        <v>9653.0963277728133</v>
-      </c>
-      <c r="F67" s="16">
-        <f t="shared" si="53"/>
+      <c r="E67" s="37">
+        <f t="shared" si="6"/>
+        <v>971115.93134690775</v>
+      </c>
+      <c r="F67" s="40">
+        <f t="shared" si="7"/>
         <v>4066.0171138865303</v>
       </c>
-      <c r="G67" s="15">
-        <v>160</v>
-      </c>
-      <c r="H67" s="16">
-        <f t="shared" si="54"/>
+      <c r="G67" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H67" s="40">
+        <f t="shared" si="9"/>
         <v>4226.0171138865298</v>
       </c>
       <c r="I67">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>39.997133334783264</v>
       </c>
-      <c r="J67" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8342480846177221E-4</v>
-      </c>
-      <c r="K67" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L67" s="34">
-        <f t="shared" si="33"/>
-        <v>7.5942195294810286</v>
+      <c r="J67" s="37">
+        <f t="shared" si="14"/>
+        <v>4.9295985181265485E-6</v>
+      </c>
+      <c r="K67" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L67" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M67" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N67" s="9"/>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68">
+      <c r="A68" s="15">
         <v>2850</v>
       </c>
       <c r="B68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3170</v>
       </c>
       <c r="C68" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7215032706389439E-3</v>
       </c>
       <c r="D68">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1183000</v>
       </c>
-      <c r="E68" s="10">
-        <f t="shared" si="48"/>
-        <v>9710.7265829450735</v>
-      </c>
-      <c r="F68" s="16">
-        <f t="shared" si="53"/>
+      <c r="E68" s="37">
+        <f t="shared" si="6"/>
+        <v>976913.62123055174</v>
+      </c>
+      <c r="F68" s="40">
+        <f t="shared" si="7"/>
         <v>4073.0767383317411</v>
       </c>
-      <c r="G68" s="15">
-        <v>160</v>
-      </c>
-      <c r="H68" s="16">
-        <f t="shared" si="54"/>
+      <c r="G68" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H68" s="40">
+        <f t="shared" si="9"/>
         <v>4233.0767383317416</v>
       </c>
       <c r="I68">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>40.063949140923938</v>
       </c>
-      <c r="J68" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8366319223979802E-4</v>
-      </c>
-      <c r="K68" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L68" s="34">
-        <f t="shared" si="33"/>
-        <v>7.7027237525241805</v>
+      <c r="J68" s="37">
+        <f t="shared" si="14"/>
+        <v>4.9020521035920418E-6</v>
+      </c>
+      <c r="K68" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L68" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M68" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N68" s="9"/>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69">
+      <c r="A69" s="15">
         <v>2900</v>
       </c>
       <c r="B69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3220</v>
       </c>
       <c r="C69" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7317808716695441E-3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1178000</v>
       </c>
-      <c r="E69" s="10">
-        <f t="shared" si="48"/>
-        <v>9768.7008983233482</v>
-      </c>
-      <c r="F69" s="16">
-        <f t="shared" si="53"/>
+      <c r="E69" s="37">
+        <f t="shared" si="6"/>
+        <v>982745.92408562568</v>
+      </c>
+      <c r="F69" s="40">
+        <f t="shared" si="7"/>
         <v>4080.0757336534457</v>
       </c>
-      <c r="G69" s="15">
-        <v>160</v>
-      </c>
-      <c r="H69" s="16">
-        <f t="shared" si="54"/>
+      <c r="G69" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H69" s="40">
+        <f t="shared" si="9"/>
         <v>4240.0757336534462</v>
       </c>
       <c r="I69">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>40.130191122806089</v>
       </c>
-      <c r="J69" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8389913628651112E-4</v>
-      </c>
-      <c r="K69" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L69" s="34">
-        <f t="shared" si="33"/>
-        <v>7.810117492493732</v>
+      <c r="J69" s="37">
+        <f t="shared" si="14"/>
+        <v>4.8746416350125838E-6</v>
+      </c>
+      <c r="K69" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L69" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M69" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N69" s="9"/>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70">
+      <c r="A70" s="15">
         <v>2950</v>
       </c>
       <c r="B70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3270</v>
       </c>
       <c r="C70" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7421198313305613E-3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1173000</v>
       </c>
-      <c r="E70" s="10">
-        <f t="shared" si="48"/>
-        <v>9827.0213279923391</v>
-      </c>
-      <c r="F70" s="16">
-        <f t="shared" si="53"/>
+      <c r="E70" s="37">
+        <f t="shared" si="6"/>
+        <v>988613.0465561233</v>
+      </c>
+      <c r="F70" s="40">
+        <f t="shared" si="7"/>
         <v>4087.0131243014971</v>
       </c>
-      <c r="G70" s="15">
-        <v>160</v>
-      </c>
-      <c r="H70" s="16">
-        <f t="shared" si="54"/>
+      <c r="G70" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H70" s="40">
+        <f t="shared" si="9"/>
         <v>4247.0131243014966</v>
       </c>
       <c r="I70">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>40.195850047336656</v>
       </c>
-      <c r="J70" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8413261922479227E-4</v>
-      </c>
-      <c r="K70" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L70" s="34">
-        <f t="shared" si="33"/>
-        <v>7.9163910192489189</v>
+      <c r="J70" s="37">
+        <f t="shared" si="14"/>
+        <v>4.8473664207312411E-6</v>
+      </c>
+      <c r="K70" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L70" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M70" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N70" s="9"/>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71">
+      <c r="A71" s="15">
         <v>3000</v>
       </c>
       <c r="B71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3320</v>
       </c>
       <c r="C71" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="24"/>
         <v>1.7525205159410917E-3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="47"/>
+        <f t="shared" si="22"/>
         <v>1168000</v>
       </c>
-      <c r="E71" s="10">
-        <f t="shared" si="48"/>
-        <v>9885.6899382998981</v>
-      </c>
-      <c r="F71" s="16">
-        <f t="shared" si="53"/>
+      <c r="E71" s="37">
+        <f t="shared" si="6"/>
+        <v>994515.1965197298</v>
+      </c>
+      <c r="F71" s="40">
+        <f t="shared" si="7"/>
         <v>4093.8879252383904</v>
       </c>
-      <c r="G71" s="15">
-        <v>160</v>
-      </c>
-      <c r="H71" s="16">
-        <f t="shared" si="54"/>
+      <c r="G71" s="38">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="H71" s="40">
+        <f t="shared" si="9"/>
         <v>4253.8879252383904</v>
       </c>
       <c r="I71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>40.260916591629503</v>
       </c>
-      <c r="J71" s="9">
-        <f t="shared" si="50"/>
-        <v>6.8436361941099754E-4</v>
-      </c>
-      <c r="K71" s="9">
-        <f t="shared" si="51"/>
-        <v>1.8816317394061425E-4</v>
-      </c>
-      <c r="L71" s="34">
-        <f t="shared" si="33"/>
-        <v>8.0215344813359817</v>
+      <c r="J71" s="37">
+        <f t="shared" si="14"/>
+        <v>4.8202257718206339E-6</v>
+      </c>
+      <c r="K71" s="37">
+        <f t="shared" si="12"/>
+        <v>1.8829343659534053E-6</v>
+      </c>
+      <c r="L71" s="32">
+        <f t="shared" si="15"/>
+        <v>0.19326658107263767</v>
       </c>
       <c r="M71" s="14">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.236393318215351</v>
       </c>
       <c r="N71" s="9"/>
     </row>
@@ -5127,10 +5223,11 @@
       <c r="K134" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5142,7 +5239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B18:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -5153,17 +5250,17 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Eq" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Energy limit =</t>
   </si>
@@ -61,9 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">m </t>
-  </si>
-  <si>
-    <t>g/cm^2</t>
   </si>
   <si>
     <t>Me/c^2</t>
@@ -223,6 +219,21 @@
   <si>
     <t>Density of Air</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>R*</t>
+  </si>
+  <si>
+    <t>electrons from rescattering</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E1 we maesure</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +245,7 @@
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +270,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -436,6 +455,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="G26" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,11 +988,11 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="17"/>
       <c r="P2" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
@@ -978,13 +1003,13 @@
     </row>
     <row r="3" spans="1:22">
       <c r="P3" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="19">
         <v>1030</v>
       </c>
-      <c r="R3" s="19" t="s">
-        <v>15</v>
+      <c r="R3" s="23" t="s">
+        <v>3</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>0</v>
@@ -1005,14 +1030,14 @@
         <v>2</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="19"/>
-      <c r="U4" s="19">
-        <v>1.032</v>
+      <c r="U4" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="V4" s="20" t="s">
         <v>3</v>
@@ -1052,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1062,13 +1087,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="9">
         <v>299792458</v>
       </c>
       <c r="R6" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S6" s="19" t="s">
         <v>6</v>
@@ -1081,18 +1106,18 @@
     </row>
     <row r="7" spans="1:22">
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3"/>
       <c r="P7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="19">
         <f>105.658</f>
         <v>105.658</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" s="19" t="s">
         <v>7</v>
@@ -1107,10 +1132,10 @@
     </row>
     <row r="8" spans="1:22">
       <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="41"/>
@@ -1118,17 +1143,17 @@
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="19">
         <f>Q7/(Q4)</f>
         <v>52.829000000000001</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S8" s="22" t="s">
         <v>2</v>
@@ -1138,36 +1163,36 @@
         <v>2.1969999999999999E-6</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="C9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="41"/>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="26">
         <f xml:space="preserve"> 160</f>
         <v>160</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="26"/>
       <c r="T9" s="26"/>
@@ -1176,43 +1201,43 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="J10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>46</v>
+      <c r="L10" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1258,7 +1283,7 @@
         <f t="shared" ref="J11:J23" si="2">($Q$7/($Q$6*100))/((C11*$Q$4))*LN(2*SQRT(I11^2-1)+I11)</f>
         <v>6.7118516589314117E-6</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="28">
         <f t="shared" ref="K11:K21" si="3">($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8829343659534053E-6</v>
       </c>
@@ -1271,7 +1296,10 @@
         <v>0.16654420397482123</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="V11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1329,7 +1357,10 @@
       <c r="N12" s="9"/>
       <c r="P12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="V12">
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1809,12 +1840,15 @@
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L21" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="45"/>
       <c r="N21" s="9"/>
+      <c r="O21">
+        <v>45</v>
+      </c>
       <c r="W21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1862,10 +1896,10 @@
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" s="9"/>
     </row>
@@ -2409,7 +2443,7 @@
       </c>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:21">
       <c r="A33" s="15">
         <v>1100</v>
       </c>
@@ -2463,7 +2497,7 @@
       </c>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:21">
       <c r="A34" s="15">
         <v>1150</v>
       </c>
@@ -2517,7 +2551,7 @@
       </c>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:21">
       <c r="A35" s="15">
         <v>1200</v>
       </c>
@@ -2571,7 +2605,7 @@
       </c>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:21">
       <c r="A36" s="15">
         <v>1250</v>
       </c>
@@ -2625,7 +2659,7 @@
       </c>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:21">
       <c r="A37" s="15">
         <v>1300</v>
       </c>
@@ -2679,7 +2713,7 @@
       </c>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:21">
       <c r="A38" s="15">
         <v>1350</v>
       </c>
@@ -2733,7 +2767,7 @@
       </c>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:21">
       <c r="A39" s="15">
         <v>1400</v>
       </c>
@@ -2787,7 +2821,7 @@
       </c>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:21">
       <c r="A40" s="15">
         <v>1450</v>
       </c>
@@ -2841,7 +2875,7 @@
       </c>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:21">
       <c r="A41" s="15">
         <v>1500</v>
       </c>
@@ -2895,10 +2929,10 @@
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="15">
         <v>1550</v>
       </c>
@@ -2952,10 +2986,13 @@
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="U42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="15">
         <v>1600</v>
       </c>
@@ -3009,10 +3046,13 @@
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="U43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="15">
         <v>1650</v>
       </c>
@@ -3066,7 +3106,7 @@
       </c>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:21">
       <c r="A45" s="15">
         <v>1700</v>
       </c>
@@ -3120,7 +3160,7 @@
       </c>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:21">
       <c r="A46" s="15">
         <v>1750</v>
       </c>
@@ -3174,7 +3214,7 @@
       </c>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:21">
       <c r="A47" s="15">
         <v>1800</v>
       </c>
@@ -3228,7 +3268,7 @@
       </c>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:21">
       <c r="A48" s="15">
         <v>1850</v>
       </c>
@@ -3714,7 +3754,7 @@
       </c>
       <c r="N56" s="9"/>
       <c r="P56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q56" s="16"/>
     </row>
@@ -3772,7 +3812,7 @@
       </c>
       <c r="N57" s="9"/>
       <c r="P57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q57" s="16"/>
     </row>
@@ -5250,17 +5290,17 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Eq" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Energy limit =</t>
   </si>
@@ -233,6 +235,36 @@
   </si>
   <si>
     <t>E1 we maesure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t>τ</t>
+  </si>
+  <si>
+    <t>Gf</t>
+  </si>
+  <si>
+    <t>eV s</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Planck's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ħ</t>
+    </r>
+  </si>
+  <si>
+    <t>GF /(~c)
+3</t>
   </si>
 </sst>
 </file>
@@ -383,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -441,6 +473,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,12 +497,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" workbookViewId="0">
+    <sheetView topLeftCell="G26" workbookViewId="0">
       <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
@@ -991,15 +1027,15 @@
         <v>42</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:22">
       <c r="P3" s="18" t="s">
@@ -1138,10 +1174,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="O8" t="s">
         <v>20</v>
       </c>
@@ -1176,11 +1212,11 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
       <c r="M9" t="s">
         <v>61</v>
       </c>
@@ -1233,10 +1269,10 @@
       <c r="K10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="42" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="13"/>
@@ -1839,10 +1875,10 @@
         <f t="shared" si="3"/>
         <v>1.8829343659534053E-6</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="45"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="9"/>
       <c r="O21">
         <v>45</v>
@@ -3105,6 +3141,9 @@
         <v>1.236393318215351</v>
       </c>
       <c r="N44" s="9"/>
+      <c r="U44" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="15">
@@ -5306,4 +5345,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="D1" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="43">
+        <v>6.5821192800000001E-16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2.1850999999999998</v>
+      </c>
+      <c r="B4" s="43">
+        <f>192*PI()^3*$E$2</f>
+        <v>3.9184706215375838E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2.1103999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2.1938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2.3102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -999,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView topLeftCell="G26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
@@ -5351,7 +5350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Muon/Muon.xlsx
+++ b/Muon/Muon.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Eq" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Relativity Table" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -276,7 +276,7 @@
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +309,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -495,6 +503,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="U44" sqref="U44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1211,11 +1222,11 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
       <c r="M9" t="s">
         <v>61</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>6.7118516589314117E-6</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" ref="K11:K21" si="3">($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
+        <f>($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L11" s="9">
@@ -1342,7 +1353,7 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B29" si="4">320+A12</f>
+        <f t="shared" ref="B12:B29" si="3">320+A12</f>
         <v>370</v>
       </c>
       <c r="C12" s="9">
@@ -1350,23 +1361,23 @@
         <v>1.233510994667987E-3</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D57" si="5">15*10^5-B12*100</f>
+        <f t="shared" ref="D12:D57" si="4">15*10^5-B12*100</f>
         <v>1463000</v>
       </c>
       <c r="E12" s="37">
-        <f t="shared" ref="E12:E71" si="6">C12/($Q$8/($Q$6*100))</f>
+        <f t="shared" ref="E12:E71" si="5">C12/($Q$8/($Q$6*100))</f>
         <v>699989.19733771356</v>
       </c>
       <c r="F12" s="40">
-        <f t="shared" ref="F12:F71" si="7">C12*D12*$Q$4</f>
+        <f t="shared" ref="F12:F71" si="6">C12*D12*$Q$4</f>
         <v>3609.2531703985301</v>
       </c>
       <c r="G12" s="38">
-        <f t="shared" ref="G12:G71" si="8">$Q$9</f>
+        <f t="shared" ref="G12:G71" si="7">$Q$9</f>
         <v>160</v>
       </c>
       <c r="H12" s="40">
-        <f t="shared" ref="H12:H71" si="9">G12+F12</f>
+        <f t="shared" ref="H12:H71" si="8">G12+F12</f>
         <v>3769.2531703985301</v>
       </c>
       <c r="I12" s="36">
@@ -1378,7 +1389,7 @@
         <v>6.6754958475837215E-6</v>
       </c>
       <c r="K12" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K11:K21" si="9">($Q$7/(($Q$6*100)))/(($C$12*$Q$4))*LN(2*SQRT((1.5)^2-1)+(1.5))</f>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L12" s="9">
@@ -1403,7 +1414,7 @@
         <v>100</v>
       </c>
       <c r="B13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>420</v>
       </c>
       <c r="C13" s="9">
@@ -1411,23 +1422,23 @@
         <v>1.2408752176039978E-3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1458000</v>
       </c>
       <c r="E13" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>704168.22494612308</v>
       </c>
       <c r="F13" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3618.3921345332574</v>
       </c>
       <c r="G13" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H13" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3778.3921345332574</v>
       </c>
       <c r="I13" s="36">
@@ -1439,7 +1450,7 @@
         <v>6.6393196327313488E-6</v>
       </c>
       <c r="K13" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L13" s="9">
@@ -1457,7 +1468,7 @@
         <v>150</v>
       </c>
       <c r="B14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="C14" s="9">
@@ -1465,23 +1476,23 @@
         <v>1.2482834059198758E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1453000</v>
       </c>
       <c r="E14" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>708372.20189920557</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3627.5115776031594</v>
       </c>
       <c r="G14" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H14" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3787.5115776031594</v>
       </c>
       <c r="I14" s="36">
@@ -1493,7 +1504,7 @@
         <v>6.6033221409801867E-6</v>
       </c>
       <c r="K14" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L14" s="9">
@@ -1511,7 +1522,7 @@
         <v>200</v>
       </c>
       <c r="B15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="C15" s="9">
@@ -1519,23 +1530,23 @@
         <v>1.2557358220947239E-3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1448000</v>
       </c>
       <c r="E15" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>712601.27714783163</v>
       </c>
       <c r="F15" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3636.6109407863205</v>
       </c>
       <c r="G15" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H15" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3796.6109407863205</v>
       </c>
       <c r="I15" s="36">
@@ -1547,7 +1558,7 @@
         <v>6.5675025026732186E-6</v>
       </c>
       <c r="K15" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L15" s="9">
@@ -1565,7 +1576,7 @@
         <v>250</v>
       </c>
       <c r="B16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>570</v>
       </c>
       <c r="C16" s="9">
@@ -1573,23 +1584,23 @@
         <v>1.2632327301746789E-3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1443000</v>
       </c>
       <c r="E16" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>716855.60053212778</v>
       </c>
       <c r="F16" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3645.6896592841235</v>
       </c>
       <c r="G16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H16" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3805.6896592841235</v>
       </c>
       <c r="I16" s="36">
@@ -1601,7 +1612,7 @@
         <v>6.5318598518724433E-6</v>
       </c>
       <c r="K16" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L16" s="9">
@@ -1627,23 +1638,23 @@
         <v>1.2707743957822693E-3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1438000</v>
       </c>
       <c r="E17" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>721135.32278678624</v>
       </c>
       <c r="F17" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3654.7471622698063</v>
       </c>
       <c r="G17" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H17" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3814.7471622698063</v>
       </c>
       <c r="I17" s="36">
@@ -1655,7 +1666,7 @@
         <v>6.4963933263408205E-6</v>
       </c>
       <c r="K17" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L17" s="9">
@@ -1673,7 +1684,7 @@
         <v>350</v>
       </c>
       <c r="B18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>670</v>
       </c>
       <c r="C18" s="9">
@@ -1681,23 +1692,23 @@
         <v>1.2783610861258228E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1433000</v>
       </c>
       <c r="E18" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>725440.5955464046</v>
       </c>
       <c r="F18" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3663.782872836608</v>
       </c>
       <c r="G18" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H18" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3823.782872836608</v>
       </c>
       <c r="I18" s="36">
@@ -1709,7 +1720,7 @@
         <v>6.4611020675242624E-6</v>
       </c>
       <c r="K18" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L18" s="9">
@@ -1727,7 +1738,7 @@
         <v>400</v>
       </c>
       <c r="B19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="C19" s="9">
@@ -1735,23 +1746,23 @@
         <v>1.2859930700089377E-3</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1428000</v>
       </c>
       <c r="E19" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>729771.57135085936</v>
       </c>
       <c r="F19" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3672.796207945526</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H19" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3832.796207945526</v>
       </c>
       <c r="I19" s="36">
@@ -1763,7 +1774,7 @@
         <v>6.4259852205336216E-6</v>
       </c>
       <c r="K19" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L19" s="9">
@@ -1781,7 +1792,7 @@
         <v>450</v>
       </c>
       <c r="B20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>770</v>
       </c>
       <c r="C20" s="9">
@@ -1789,23 +1800,23 @@
         <v>1.2936706178400049E-3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1423000</v>
       </c>
       <c r="E20" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>734128.40365071024</v>
       </c>
       <c r="F20" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3681.7865783726538</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H20" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3841.7865783726538</v>
       </c>
       <c r="I20" s="36">
@@ -1817,7 +1828,7 @@
         <v>6.3910419341267324E-6</v>
       </c>
       <c r="K20" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L20" s="9">
@@ -1835,7 +1846,7 @@
         <v>500</v>
       </c>
       <c r="B21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>820</v>
       </c>
       <c r="C21" s="9">
@@ -1843,23 +1854,23 @@
         <v>1.3013940016417883E-3</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1418000</v>
       </c>
       <c r="E21" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>738511.2468126365</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3690.7533886561114</v>
       </c>
       <c r="G21" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H21" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3850.7533886561114</v>
       </c>
       <c r="I21" s="36">
@@ -1871,7 +1882,7 @@
         <v>6.3562713606904605E-6</v>
       </c>
       <c r="K21" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.8829343659534053E-6</v>
       </c>
       <c r="L21" s="49" t="s">
@@ -1879,9 +1890,6 @@
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="9"/>
-      <c r="O21">
-        <v>45</v>
-      </c>
       <c r="W21" t="s">
         <v>21</v>
       </c>
@@ -1899,23 +1907,23 @@
         <v>1.3091634950610639E-3</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1413000</v>
       </c>
       <c r="E22" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>742920.25612490717</v>
       </c>
       <c r="F22" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3699.6960370425663</v>
       </c>
       <c r="G22" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H22" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3859.6960370425663</v>
       </c>
       <c r="I22">
@@ -1943,7 +1951,7 @@
         <v>600</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>920</v>
       </c>
       <c r="C23" s="9">
@@ -1951,23 +1959,23 @@
         <v>1.3169793733783151E-3</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1408000</v>
       </c>
       <c r="E23" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>747355.58780288254</v>
       </c>
       <c r="F23" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3708.613915433335</v>
       </c>
       <c r="G23" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H23" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3868.613915433335</v>
       </c>
       <c r="I23">
@@ -1997,7 +2005,7 @@
         <v>650</v>
       </c>
       <c r="B24" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>970</v>
       </c>
       <c r="C24" s="37">
@@ -2005,23 +2013,23 @@
         <v>1.3248419135174858E-3</v>
       </c>
       <c r="D24" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1403000</v>
       </c>
       <c r="E24" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>751817.39899454941</v>
       </c>
       <c r="F24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3717.5064093300653</v>
       </c>
       <c r="G24" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H24" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3877.5064093300653</v>
       </c>
       <c r="I24">
@@ -2059,23 +2067,23 @@
         <v>1.3327513940557926E-3</v>
       </c>
       <c r="D25" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1398000</v>
       </c>
       <c r="E25" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>756305.84778608836</v>
       </c>
       <c r="F25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3726.372897779996</v>
       </c>
       <c r="G25" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H25" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3886.372897779996</v>
       </c>
       <c r="I25">
@@ -2105,7 +2113,7 @@
         <v>750</v>
       </c>
       <c r="B26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1070</v>
       </c>
       <c r="C26" s="37">
@@ -2113,23 +2121,23 @@
         <v>1.3407080952335941E-3</v>
       </c>
       <c r="D26" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1393000</v>
       </c>
       <c r="E26" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>760821.0932074755</v>
       </c>
       <c r="F26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3735.2127533207931</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H26" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3895.2127533207931</v>
       </c>
       <c r="I26">
@@ -2159,7 +2167,7 @@
         <v>800</v>
       </c>
       <c r="B27" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
       <c r="C27" s="37">
@@ -2167,23 +2175,23 @@
         <v>1.3487122989643211E-3</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1388000</v>
       </c>
       <c r="E27" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>765363.29523811664</v>
       </c>
       <c r="F27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3744.0253419249557</v>
       </c>
       <c r="G27" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H27" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3904.0253419249557</v>
       </c>
       <c r="I27" s="8">
@@ -2213,7 +2221,7 @@
         <v>850</v>
       </c>
       <c r="B28" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1170</v>
       </c>
       <c r="C28" s="37">
@@ -2221,23 +2229,23 @@
         <v>1.3567642888444649E-3</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1383000</v>
       </c>
       <c r="E28" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>769932.61481251603</v>
       </c>
       <c r="F28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3752.81002294379</v>
       </c>
       <c r="G28" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H28" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3912.81002294379</v>
       </c>
       <c r="I28" s="8">
@@ -2267,7 +2275,7 @@
         <v>900</v>
       </c>
       <c r="B29" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1220</v>
       </c>
       <c r="C29" s="37">
@@ -2275,23 +2283,23 @@
         <v>1.3648643501636248E-3</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1378000</v>
       </c>
       <c r="E29" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>774529.21382597776</v>
       </c>
       <c r="F29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3761.5661490509501</v>
       </c>
       <c r="G29" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H29" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3921.5661490509501</v>
       </c>
       <c r="I29" s="8">
@@ -2329,23 +2337,23 @@
         <v>1.3730127699146167E-3</v>
       </c>
       <c r="D30" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1373000</v>
       </c>
       <c r="E30" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>779153.25514034217</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3770.2930661855376</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H30" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3930.2930661855376</v>
       </c>
       <c r="I30">
@@ -2383,23 +2391,23 @@
         <v>1.3812098368036411E-3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1368000</v>
       </c>
       <c r="E31" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>783804.90258975641</v>
       </c>
       <c r="F31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3778.9901134947622</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H31" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3938.9901134947622</v>
       </c>
       <c r="I31">
@@ -2437,23 +2445,23 @@
         <v>1.3894558412605132E-3</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1363000</v>
       </c>
       <c r="E32" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>788484.32098647917</v>
       </c>
       <c r="F32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3787.6566232761593</v>
       </c>
       <c r="G32" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H32" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3947.6566232761593</v>
       </c>
       <c r="I32">
@@ -2491,23 +2499,23 @@
         <v>1.3977510754489516E-3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1358000</v>
       </c>
       <c r="E33" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>793191.67612671945</v>
       </c>
       <c r="F33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3796.2919209193524</v>
       </c>
       <c r="G33" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H33" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3956.2919209193524</v>
       </c>
       <c r="I33">
@@ -2545,23 +2553,23 @@
         <v>1.4060958332769314E-3</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1353000</v>
       </c>
       <c r="E34" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>797927.1347965122</v>
       </c>
       <c r="F34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3804.8953248473763</v>
       </c>
       <c r="G34" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H34" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3964.8953248473763</v>
       </c>
       <c r="I34">
@@ -2599,23 +2607,23 @@
         <v>1.4144904104070963E-3</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1348000</v>
       </c>
       <c r="E35" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>802690.86477762624</v>
       </c>
       <c r="F35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3813.466146457532</v>
       </c>
       <c r="G35" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H35" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3973.466146457532</v>
       </c>
       <c r="I35">
@@ -2653,23 +2661,23 @@
         <v>1.4229351042672356E-3</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1343000</v>
       </c>
       <c r="E36" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>807483.03485351009</v>
       </c>
       <c r="F36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3822.0036900617947</v>
       </c>
       <c r="G36" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H36" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3982.0036900617947</v>
       </c>
       <c r="I36">
@@ -2707,23 +2715,23 @@
         <v>1.4314302140608212E-3</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1338000</v>
       </c>
       <c r="E37" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>812303.81481527141</v>
       </c>
       <c r="F37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3830.5072528267574</v>
       </c>
       <c r="G37" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H37" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3990.5072528267574</v>
       </c>
       <c r="I37">
@@ -2761,23 +2769,23 @@
         <v>1.4399760407776091E-3</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1333000</v>
       </c>
       <c r="E38" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>817153.3754676932</v>
       </c>
       <c r="F38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3838.9761247131059</v>
       </c>
       <c r="G38" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H38" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3998.9761247131059</v>
       </c>
       <c r="I38">
@@ -2815,23 +2823,23 @@
         <v>1.4485728872043039E-3</v>
       </c>
       <c r="D39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1328000</v>
       </c>
       <c r="E39" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>822031.88863528555</v>
       </c>
       <c r="F39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3847.4095884146313</v>
       </c>
       <c r="G39" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H39" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4007.4095884146313</v>
       </c>
       <c r="I39">
@@ -2869,23 +2877,23 @@
         <v>1.4572210579352866E-3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1323000</v>
       </c>
       <c r="E40" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>826939.52716837334</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3855.8069192967682</v>
       </c>
       <c r="G40" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4015.8069192967682</v>
       </c>
       <c r="I40">
@@ -2923,23 +2931,23 @@
         <v>1.465920859383407E-3</v>
       </c>
       <c r="D41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1318000</v>
       </c>
       <c r="E41" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>831876.46494922088</v>
       </c>
       <c r="F41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3864.167385334661</v>
       </c>
       <c r="G41" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4024.167385334661</v>
       </c>
       <c r="I41">
@@ -2980,23 +2988,23 @@
         <v>1.4746725997908392E-3</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1313000</v>
       </c>
       <c r="E42" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>836842.87689819222</v>
       </c>
       <c r="F42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3872.4902470507436</v>
       </c>
       <c r="G42" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4032.4902470507436</v>
       </c>
       <c r="I42">
@@ -3040,23 +3048,23 @@
         <v>1.4834765892400043E-3</v>
       </c>
       <c r="D43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1308000</v>
       </c>
       <c r="E43" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>841838.93897994887</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3880.7747574518512</v>
       </c>
       <c r="G43" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4040.7747574518512</v>
       </c>
       <c r="I43">
@@ -3100,23 +3108,23 @@
         <v>1.4923331396645562E-3</v>
       </c>
       <c r="D44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1303000</v>
       </c>
       <c r="E44" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>846864.82820968516</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3889.0201619658333</v>
       </c>
       <c r="G44" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4049.0201619658333</v>
       </c>
       <c r="I44">
@@ -3157,23 +3165,23 @@
         <v>1.5012425648604332E-3</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1298000</v>
       </c>
       <c r="E45" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>851920.72265939857</v>
       </c>
       <c r="F45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3897.2256983776847</v>
       </c>
       <c r="G45" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4057.2256983776847</v>
       </c>
       <c r="I45">
@@ -3211,23 +3219,23 @@
         <v>1.5102051804969775E-3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1293000</v>
       </c>
       <c r="E46" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>857006.8014642006</v>
       </c>
       <c r="F46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3905.390596765184</v>
       </c>
       <c r="G46" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4065.390596765184</v>
       </c>
       <c r="I46">
@@ -3265,23 +3273,23 @@
         <v>1.5192213041281184E-3</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1288000</v>
       </c>
       <c r="E47" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>862123.24482866249</v>
       </c>
       <c r="F47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3913.5140794340327</v>
       </c>
       <c r="G47" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4073.5140794340327</v>
       </c>
       <c r="I47">
@@ -3319,23 +3327,23 @@
         <v>1.5282912552036234E-3</v>
       </c>
       <c r="D48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1283000</v>
       </c>
       <c r="E48" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>867270.23403320054</v>
       </c>
       <c r="F48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3921.5953608524978</v>
       </c>
       <c r="G48" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4081.5953608524978</v>
       </c>
       <c r="I48">
@@ -3373,23 +3381,23 @@
         <v>1.5374153550804181E-3</v>
       </c>
       <c r="D49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1278000</v>
       </c>
       <c r="E49" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>872447.95144049916</v>
       </c>
       <c r="F49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3929.6336475855487</v>
       </c>
       <c r="G49" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4089.6336475855487</v>
       </c>
       <c r="I49">
@@ -3427,23 +3435,23 @@
         <v>1.5465939270339704E-3</v>
       </c>
       <c r="D50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1273000</v>
       </c>
       <c r="E50" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>877656.58050197165</v>
       </c>
       <c r="F50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3937.6281382284888</v>
       </c>
       <c r="G50" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4097.6281382284888</v>
       </c>
       <c r="I50">
@@ -3481,23 +3489,23 @@
         <v>1.5558272962697462E-3</v>
       </c>
       <c r="D51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1268000</v>
       </c>
       <c r="E51" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>882896.30576426093</v>
       </c>
       <c r="F51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3945.5780233400765</v>
       </c>
       <c r="G51" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4105.5780233400765</v>
       </c>
       <c r="I51">
@@ -3535,23 +3543,23 @@
         <v>1.5651157899347296E-3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1263000</v>
       </c>
       <c r="E52" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>888167.31287577702</v>
       </c>
       <c r="F52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3953.482485375127</v>
       </c>
       <c r="G52" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4113.482485375127</v>
       </c>
       <c r="I52">
@@ -3589,23 +3597,23 @@
         <v>1.5744597371290163E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1258000</v>
       </c>
       <c r="E53" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>893469.78859327571</v>
       </c>
       <c r="F53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3961.3406986166051</v>
       </c>
       <c r="G53" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4121.3406986166046</v>
       </c>
       <c r="I53">
@@ -3643,23 +3651,23 @@
         <v>1.5838594689174725E-3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1253000</v>
       </c>
       <c r="E54" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>898803.92078847543</v>
       </c>
       <c r="F54" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3969.1518291071861</v>
       </c>
       <c r="G54" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4129.1518291071861</v>
       </c>
       <c r="I54">
@@ -3697,23 +3705,23 @@
         <v>1.593315318341465E-3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1248000</v>
       </c>
       <c r="E55" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>904169.89845471294</v>
       </c>
       <c r="F55" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3976.9150345802968</v>
       </c>
       <c r="G55" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4136.9150345802973</v>
       </c>
       <c r="I55">
@@ -3751,23 +3759,23 @@
         <v>1.6028276204306615E-3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1243000</v>
       </c>
       <c r="E56" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>909567.91171364021</v>
       </c>
       <c r="F56" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3984.6294643906244</v>
       </c>
       <c r="G56" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4144.629464390624</v>
       </c>
       <c r="I56">
@@ -3809,23 +3817,23 @@
         <v>1.6123967122149015E-3</v>
       </c>
       <c r="D57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1238000</v>
       </c>
       <c r="E57" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>914998.15182196128</v>
       </c>
       <c r="F57" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3992.294259444096</v>
       </c>
       <c r="G57" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4152.2942594440956</v>
       </c>
       <c r="I57">
@@ -3871,19 +3879,19 @@
         <v>1233000</v>
       </c>
       <c r="E58" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>920460.81117820658</v>
       </c>
       <c r="F58" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>3999.9085521273105</v>
       </c>
       <c r="G58" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4159.90855212731</v>
       </c>
       <c r="I58">
@@ -3925,19 +3933,19 @@
         <v>1228000</v>
       </c>
       <c r="E59" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>925956.08332955209</v>
       </c>
       <c r="F59" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4007.4714662364431</v>
       </c>
       <c r="G59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4167.4714662364431</v>
       </c>
       <c r="I59">
@@ -3979,19 +3987,19 @@
         <v>1223000</v>
       </c>
       <c r="E60" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>931484.16297867557</v>
       </c>
       <c r="F60" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4014.9821169055926</v>
       </c>
       <c r="G60" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4174.9821169055922</v>
       </c>
       <c r="I60">
@@ -4033,19 +4041,19 @@
         <v>1218000</v>
       </c>
       <c r="E61" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>937045.24599065504</v>
       </c>
       <c r="F61" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4022.4396105345859</v>
       </c>
       <c r="G61" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4182.4396105345859</v>
       </c>
       <c r="I61">
@@ -4087,19 +4095,19 @@
         <v>1213000</v>
       </c>
       <c r="E62" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>942639.52939990966</v>
       </c>
       <c r="F62" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4029.8430447162268</v>
       </c>
       <c r="G62" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4189.8430447162264</v>
       </c>
       <c r="I62">
@@ -4141,19 +4149,19 @@
         <v>1208000</v>
       </c>
       <c r="E63" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>948267.21141717897</v>
       </c>
       <c r="F63" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4037.1915081629868</v>
       </c>
       <c r="G63" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4197.1915081629868</v>
       </c>
       <c r="I63">
@@ -4195,19 +4203,19 @@
         <v>1203000</v>
       </c>
       <c r="E64" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>953928.4914365476</v>
       </c>
       <c r="F64" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4044.4840806331395</v>
       </c>
       <c r="G64" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4204.4840806331395</v>
       </c>
       <c r="I64">
@@ -4249,19 +4257,19 @@
         <v>1198000</v>
       </c>
       <c r="E65" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>959623.57004250842</v>
       </c>
       <c r="F65" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4051.7198328563195</v>
       </c>
       <c r="G65" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4211.719832856319</v>
       </c>
       <c r="I65">
@@ -4303,19 +4311,19 @@
         <v>1193000</v>
       </c>
       <c r="E66" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>965352.6490170703</v>
       </c>
       <c r="F66" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4058.8978264585239</v>
       </c>
       <c r="G66" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4218.8978264585239</v>
       </c>
       <c r="I66">
@@ -4357,19 +4365,19 @@
         <v>1188000</v>
       </c>
       <c r="E67" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>971115.93134690775</v>
       </c>
       <c r="F67" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4066.0171138865303</v>
       </c>
       <c r="G67" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4226.0171138865298</v>
       </c>
       <c r="I67">
@@ -4411,19 +4419,19 @@
         <v>1183000</v>
       </c>
       <c r="E68" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>976913.62123055174</v>
       </c>
       <c r="F68" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4073.0767383317411</v>
       </c>
       <c r="G68" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4233.0767383317416</v>
       </c>
       <c r="I68">
@@ -4465,19 +4473,19 @@
         <v>1178000</v>
       </c>
       <c r="E69" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>982745.92408562568</v>
       </c>
       <c r="F69" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4080.0757336534457</v>
       </c>
       <c r="G69" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4240.0757336534462</v>
       </c>
       <c r="I69">
@@ -4519,19 +4527,19 @@
         <v>1173000</v>
       </c>
       <c r="E70" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>988613.0465561233</v>
       </c>
       <c r="F70" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4087.0131243014971</v>
       </c>
       <c r="G70" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4247.0131243014966</v>
       </c>
       <c r="I70">
@@ -4573,19 +4581,19 @@
         <v>1168000</v>
       </c>
       <c r="E71" s="37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>994515.1965197298</v>
       </c>
       <c r="F71" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4093.8879252383904</v>
       </c>
       <c r="G71" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="H71" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4253.8879252383904</v>
       </c>
       <c r="I71">
@@ -5351,7 +5359,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
